--- a/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2434" uniqueCount="1360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="1368">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -1005,6 +1005,9 @@
     <t xml:space="preserve">member_died_when</t>
   </si>
   <si>
+    <t xml:space="preserve">birth_date</t>
+  </si>
+  <si>
     <t xml:space="preserve">member_died_when_dk</t>
   </si>
   <si>
@@ -1029,9 +1032,6 @@
     <t xml:space="preserve">new_member_move_in_date</t>
   </si>
   <si>
-    <t xml:space="preserve">birth_date</t>
-  </si>
-  <si>
     <t xml:space="preserve">new_member_move_in_enter</t>
   </si>
   <si>
@@ -2916,6 +2916,18 @@
     <t xml:space="preserve">Days/Weeks/Months Ago or Don't Know</t>
   </si>
   <si>
+    <t xml:space="preserve">err_death_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of death cannot be in the future&lt;br&gt;Date of death cannot be before October 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">err_emigrate_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date emigrated cannot be in the future&lt;br&gt;Date of migration cannot be before October 2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">death_va_note</t>
   </si>
   <si>
@@ -3049,6 +3061,18 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;h4&gt;You will be prompted to answer questions about the {{data.travel_regularly_trips}} regular trips.&lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">err_future_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date cannot be in the future </t>
+  </si>
+  <si>
+    <t xml:space="preserve">w_lmp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is a discrepancy between the participant's last menstrual period and pregnancy status. Please verify.  </t>
   </si>
   <si>
     <t xml:space="preserve">The given name of the individual cannot contain numbers.</t>
@@ -4417,10 +4441,10 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="M8:N18 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.8359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.69"/>
   </cols>
@@ -5467,11 +5491,11 @@
   </sheetPr>
   <dimension ref="A1:P1016"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8:N18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.8359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.67"/>
@@ -6946,10 +6970,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="1" sqref="M8:N18 A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.8359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.16"/>
@@ -10735,11 +10759,11 @@
   </sheetPr>
   <dimension ref="A1:Y763"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C40" activeCellId="1" sqref="M8:N18 C40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.8359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.79"/>
@@ -11737,7 +11761,7 @@
         <v>325</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -11763,7 +11787,7 @@
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>39</v>
@@ -11795,10 +11819,10 @@
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -11824,7 +11848,7 @@
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>36</v>
@@ -11853,7 +11877,7 @@
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>61</v>
@@ -11885,7 +11909,7 @@
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>61</v>
@@ -11917,10 +11941,10 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>61</v>
@@ -11952,10 +11976,10 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -29164,10 +29188,10 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="M8:N18 B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.8359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.04"/>
@@ -29227,7 +29251,7 @@
         <v>412</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>20210206001</v>
+        <v>20210207001</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30301,15 +30325,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D332"/>
+  <dimension ref="A1:D336"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A241" activeCellId="1" sqref="M8:N18 A241"/>
+      <selection pane="bottomLeft" activeCell="B235" activeCellId="0" sqref="B235"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.26171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="37.56"/>
@@ -33238,68 +33262,68 @@
       <c r="B215" s="0" t="s">
         <v>964</v>
       </c>
-      <c r="C215" s="0" t="s">
-        <v>965</v>
-      </c>
-      <c r="D215" s="0" t="s">
-        <v>966</v>
-      </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>968</v>
-      </c>
-      <c r="C216" s="0" t="s">
-        <v>969</v>
-      </c>
-      <c r="D216" s="0" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>980</v>
+        <v>976</v>
+      </c>
+      <c r="C219" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="D219" s="0" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="C220" s="0" t="s">
         <v>981</v>
       </c>
-      <c r="B220" s="0" t="s">
+      <c r="D220" s="0" t="s">
         <v>982</v>
       </c>
     </row>
@@ -33310,12 +33334,6 @@
       <c r="B221" s="0" t="s">
         <v>984</v>
       </c>
-      <c r="C221" s="0" t="s">
-        <v>984</v>
-      </c>
-      <c r="D221" s="0" t="s">
-        <v>984</v>
-      </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
@@ -33333,39 +33351,45 @@
         <v>988</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D223" s="0" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>26</v>
+        <v>989</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>991</v>
-      </c>
-      <c r="C224" s="0" t="s">
-        <v>992</v>
-      </c>
-      <c r="D224" s="0" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
+        <v>991</v>
+      </c>
+      <c r="B225" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="C225" s="0" t="s">
+        <v>993</v>
+      </c>
+      <c r="D225" s="0" t="s">
         <v>994</v>
-      </c>
-      <c r="B225" s="0" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B226" s="0" t="s">
+        <v>995</v>
+      </c>
+      <c r="C226" s="0" t="s">
         <v>996</v>
       </c>
-      <c r="B226" s="0" t="s">
+      <c r="D226" s="0" t="s">
         <v>997</v>
       </c>
     </row>
@@ -33409,1312 +33433,1344 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B232" s="0" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>25</v>
+        <v>1010</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>29</v>
+        <v>1012</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>33</v>
+        <v>1014</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B236" s="0" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>1013</v>
+        <v>29</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>1015</v>
+        <v>33</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>1017</v>
+        <v>43</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>1019</v>
+        <v>48</v>
       </c>
       <c r="B241" s="0" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B242" s="0" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B243" s="0" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>23</v>
+        <v>1025</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C244" s="0" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D244" s="0" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>27</v>
+        <v>1027</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C245" s="0" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D245" s="0" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B246" s="0" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C246" s="0" t="s">
         <v>1028</v>
-      </c>
-      <c r="D246" s="0" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B247" s="0" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C247" s="0" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D247" s="0" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="D248" s="0" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="D250" s="0" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>1042</v>
+        <v>56</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B252" s="0" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C252" s="0" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D252" s="0" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B253" s="0" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C253" s="0" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D253" s="0" t="s">
         <v>1046</v>
       </c>
-      <c r="B252" s="0" t="s">
+    </row>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B254" s="0" t="s">
         <v>1047</v>
       </c>
-      <c r="C252" s="0" t="s">
+      <c r="C254" s="0" t="s">
         <v>1048</v>
       </c>
-      <c r="D252" s="0" t="s">
+      <c r="D254" s="0" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="0" t="s">
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="s">
         <v>1050</v>
       </c>
-      <c r="B253" s="0" t="s">
+      <c r="B255" s="0" t="s">
         <v>1051</v>
       </c>
-      <c r="C253" s="0" t="s">
+      <c r="C255" s="0" t="s">
         <v>1052</v>
       </c>
-      <c r="D253" s="0" t="s">
+      <c r="D255" s="0" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="0" t="s">
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="s">
         <v>1054</v>
       </c>
-      <c r="B254" s="0" t="s">
+      <c r="B256" s="0" t="s">
         <v>1055</v>
       </c>
-      <c r="C254" s="0" t="s">
+      <c r="C256" s="0" t="s">
         <v>1056</v>
       </c>
-      <c r="D254" s="0" t="s">
+      <c r="D256" s="0" t="s">
         <v>1057</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="0" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B255" s="0" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C255" s="0" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D255" s="0" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="0" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B256" s="0" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C256" s="0" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D256" s="0" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>1068</v>
+        <v>1060</v>
       </c>
       <c r="D257" s="0" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>1070</v>
+        <v>1062</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="D258" s="0" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="D259" s="0" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
       <c r="D260" s="0" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>1082</v>
+        <v>1074</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>1083</v>
+        <v>1075</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>1084</v>
+        <v>1076</v>
       </c>
       <c r="D261" s="0" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="D262" s="0" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>1090</v>
+        <v>1082</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>1039</v>
+        <v>1083</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="D263" s="0" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="D264" s="0" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="D265" s="0" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="D266" s="0" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>1104</v>
+        <v>1047</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="D267" s="0" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
       <c r="D268" s="0" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>1113</v>
+        <v>1105</v>
       </c>
       <c r="D269" s="0" t="s">
-        <v>1114</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>1115</v>
+        <v>1107</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>1116</v>
+        <v>1108</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>1117</v>
+        <v>1109</v>
       </c>
       <c r="D270" s="0" t="s">
-        <v>1118</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>1119</v>
+        <v>1111</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>1039</v>
+        <v>1112</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>1091</v>
+        <v>1113</v>
       </c>
       <c r="D271" s="0" t="s">
-        <v>1092</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="D272" s="0" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="D273" s="0" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D274" s="0" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>1133</v>
+        <v>1047</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>1134</v>
+        <v>1099</v>
       </c>
       <c r="D275" s="0" t="s">
-        <v>1135</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>1136</v>
+        <v>1128</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
       <c r="D276" s="0" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>1141</v>
+        <v>1133</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>1142</v>
+        <v>1134</v>
       </c>
       <c r="D277" s="0" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="D278" s="0" t="s">
-        <v>1147</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B279" s="0" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C279" s="0" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D279" s="0" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B280" s="0" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C280" s="0" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D280" s="0" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="0" t="s">
         <v>1148</v>
       </c>
-      <c r="B279" s="0" t="s">
+      <c r="B281" s="0" t="s">
         <v>1149</v>
       </c>
-      <c r="C279" s="0" t="s">
+      <c r="C281" s="0" t="s">
         <v>1150</v>
       </c>
-      <c r="D279" s="0" t="s">
+      <c r="D281" s="0" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="0" t="s">
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0" t="s">
         <v>1152</v>
       </c>
-      <c r="B280" s="0" t="s">
+      <c r="B282" s="0" t="s">
         <v>1153</v>
       </c>
-      <c r="C280" s="0" t="s">
+      <c r="C282" s="0" t="s">
         <v>1154</v>
       </c>
-      <c r="D280" s="0" t="s">
+      <c r="D282" s="0" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="0" t="s">
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="0" t="s">
         <v>1156</v>
       </c>
-      <c r="B281" s="0" t="s">
+      <c r="B283" s="0" t="s">
         <v>1157</v>
       </c>
-      <c r="C281" s="0" t="s">
+      <c r="C283" s="0" t="s">
         <v>1158</v>
       </c>
-      <c r="D281" s="0" t="s">
+      <c r="D283" s="0" t="s">
         <v>1159</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="0" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B282" s="0" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C282" s="0" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D282" s="0" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="0" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B283" s="0" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C283" s="0" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D283" s="0" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="D284" s="0" t="s">
-        <v>1171</v>
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="0" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B285" s="0" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C285" s="0" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D285" s="0" t="s">
+        <v>1167</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B286" s="0" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C286" s="0" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D286" s="0" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="0" t="s">
         <v>1172</v>
       </c>
-      <c r="B286" s="0" t="s">
+      <c r="B287" s="0" t="s">
         <v>1173</v>
       </c>
-      <c r="C286" s="0" t="s">
+      <c r="C287" s="0" t="s">
         <v>1174</v>
       </c>
-      <c r="D286" s="0" t="s">
+      <c r="D287" s="0" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="2" t="s">
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="0" t="s">
         <v>1176</v>
       </c>
-      <c r="B287" s="0" t="s">
+      <c r="B288" s="0" t="s">
         <v>1177</v>
       </c>
-      <c r="C287" s="0" t="s">
+      <c r="C288" s="0" t="s">
         <v>1178</v>
       </c>
-      <c r="D287" s="0" t="s">
+      <c r="D288" s="0" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="2" t="s">
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="0" t="s">
         <v>1180</v>
       </c>
-      <c r="B288" s="0" t="s">
+      <c r="B290" s="0" t="s">
         <v>1181</v>
       </c>
-      <c r="C288" s="0" t="s">
+      <c r="C290" s="0" t="s">
         <v>1182</v>
       </c>
-      <c r="D288" s="0" t="s">
+      <c r="D290" s="0" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="2" t="s">
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="2" t="s">
         <v>1184</v>
       </c>
-      <c r="B289" s="0" t="s">
+      <c r="B291" s="0" t="s">
         <v>1185</v>
       </c>
-      <c r="C289" s="0" t="s">
+      <c r="C291" s="0" t="s">
         <v>1186</v>
       </c>
-      <c r="D289" s="0" t="s">
+      <c r="D291" s="0" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="2" t="s">
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="2" t="s">
         <v>1188</v>
       </c>
-      <c r="B290" s="0" t="s">
+      <c r="B292" s="0" t="s">
         <v>1189</v>
       </c>
-      <c r="C290" s="0" t="s">
+      <c r="C292" s="0" t="s">
         <v>1190</v>
       </c>
-      <c r="D290" s="0" t="s">
+      <c r="D292" s="0" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="0" t="s">
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="2" t="s">
         <v>1192</v>
       </c>
-      <c r="B291" s="0" t="s">
+      <c r="B293" s="0" t="s">
         <v>1193</v>
       </c>
-      <c r="C291" s="0" t="s">
+      <c r="C293" s="0" t="s">
         <v>1194</v>
       </c>
-      <c r="D291" s="0" t="s">
+      <c r="D293" s="0" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="0" t="s">
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="2" t="s">
         <v>1196</v>
       </c>
-      <c r="B292" s="0" t="s">
+      <c r="B294" s="0" t="s">
         <v>1197</v>
       </c>
-      <c r="C292" s="0" t="s">
+      <c r="C294" s="0" t="s">
         <v>1198</v>
       </c>
-      <c r="D292" s="0" t="s">
+      <c r="D294" s="0" t="s">
         <v>1199</v>
-      </c>
-    </row>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="0" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B293" s="0" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C293" s="0" t="s">
-        <v>1202</v>
-      </c>
-      <c r="D293" s="0" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="0" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B294" s="0" t="s">
-        <v>1205</v>
-      </c>
-      <c r="C294" s="0" t="s">
-        <v>1206</v>
-      </c>
-      <c r="D294" s="0" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>1208</v>
+        <v>1200</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
       <c r="D295" s="0" t="s">
-        <v>1211</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>1213</v>
+        <v>1205</v>
       </c>
       <c r="C296" s="0" t="s">
-        <v>1214</v>
+        <v>1206</v>
       </c>
       <c r="D296" s="0" t="s">
-        <v>1215</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>1216</v>
+        <v>1208</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>1217</v>
+        <v>1209</v>
       </c>
       <c r="C297" s="0" t="s">
-        <v>1218</v>
+        <v>1210</v>
       </c>
       <c r="D297" s="0" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>1221</v>
+        <v>1213</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>1222</v>
+        <v>1214</v>
       </c>
       <c r="D298" s="0" t="s">
-        <v>1223</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>1224</v>
+        <v>1216</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>1225</v>
+        <v>1217</v>
       </c>
       <c r="C299" s="0" t="s">
-        <v>1226</v>
+        <v>1218</v>
       </c>
       <c r="D299" s="0" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>1228</v>
+        <v>1220</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>1229</v>
+        <v>1221</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>1230</v>
+        <v>1222</v>
       </c>
       <c r="D300" s="0" t="s">
-        <v>1231</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>1233</v>
+        <v>1225</v>
       </c>
       <c r="C301" s="0" t="s">
-        <v>1234</v>
+        <v>1226</v>
       </c>
       <c r="D301" s="0" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
-        <v>1236</v>
+        <v>1228</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>1237</v>
+        <v>1229</v>
       </c>
       <c r="C302" s="0" t="s">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="D302" s="0" t="s">
-        <v>1239</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>1240</v>
+        <v>1232</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>1241</v>
+        <v>1233</v>
       </c>
       <c r="C303" s="0" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="D303" s="0" t="s">
-        <v>1243</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="C304" s="0" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="D304" s="0" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="C305" s="0" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
       <c r="D305" s="0" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="C306" s="0" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="D306" s="0" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="C307" s="0" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="D307" s="0" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="C308" s="0" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
       <c r="D308" s="0" t="s">
-        <v>1263</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
-        <v>1264</v>
+        <v>1256</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>1265</v>
+        <v>1257</v>
       </c>
       <c r="C309" s="0" t="s">
-        <v>1266</v>
+        <v>1258</v>
       </c>
       <c r="D309" s="0" t="s">
-        <v>1267</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>1268</v>
+        <v>1260</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>1269</v>
+        <v>1261</v>
       </c>
       <c r="C310" s="0" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="D310" s="0" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
-        <v>1272</v>
+        <v>1264</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>1273</v>
+        <v>1265</v>
       </c>
       <c r="C311" s="0" t="s">
-        <v>1274</v>
+        <v>1266</v>
       </c>
       <c r="D311" s="0" t="s">
-        <v>1275</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>1276</v>
+        <v>1268</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>1277</v>
+        <v>1269</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>1278</v>
+        <v>1270</v>
       </c>
       <c r="D312" s="0" t="s">
-        <v>1279</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>1280</v>
+        <v>1272</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>1281</v>
+        <v>1273</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
       <c r="D313" s="0" t="s">
-        <v>1283</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
-        <v>1284</v>
+        <v>1276</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>1285</v>
+        <v>1277</v>
       </c>
       <c r="C314" s="0" t="s">
-        <v>1286</v>
+        <v>1278</v>
       </c>
       <c r="D314" s="0" t="s">
-        <v>1287</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
-        <v>1288</v>
+        <v>1280</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
       <c r="C315" s="0" t="s">
-        <v>1290</v>
+        <v>1282</v>
       </c>
       <c r="D315" s="0" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
-        <v>1292</v>
+        <v>1284</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>1293</v>
+        <v>1285</v>
       </c>
       <c r="C316" s="0" t="s">
-        <v>1294</v>
+        <v>1286</v>
       </c>
       <c r="D316" s="0" t="s">
-        <v>1295</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>1297</v>
+        <v>1289</v>
       </c>
       <c r="C317" s="0" t="s">
-        <v>1298</v>
+        <v>1290</v>
       </c>
       <c r="D317" s="0" t="s">
-        <v>1299</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
-        <v>1300</v>
+        <v>1292</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>1301</v>
+        <v>1293</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>1302</v>
+        <v>1294</v>
       </c>
       <c r="D318" s="0" t="s">
-        <v>1303</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
-        <v>1304</v>
+        <v>1296</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>1305</v>
+        <v>1297</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>1306</v>
+        <v>1298</v>
       </c>
       <c r="D319" s="0" t="s">
-        <v>1307</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
-        <v>1308</v>
+        <v>1300</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>1309</v>
+        <v>1301</v>
       </c>
       <c r="C320" s="0" t="s">
-        <v>1310</v>
+        <v>1302</v>
       </c>
       <c r="D320" s="0" t="s">
-        <v>1311</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
-        <v>1312</v>
+        <v>1304</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>1313</v>
+        <v>1305</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>1314</v>
+        <v>1306</v>
       </c>
       <c r="D321" s="0" t="s">
-        <v>1315</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
-        <v>1316</v>
+        <v>1308</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="C322" s="0" t="s">
-        <v>1318</v>
+        <v>1310</v>
       </c>
       <c r="D322" s="0" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
-        <v>1320</v>
+        <v>1312</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>1321</v>
+        <v>1313</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>1322</v>
+        <v>1314</v>
       </c>
       <c r="D323" s="0" t="s">
-        <v>1323</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
-        <v>1324</v>
+        <v>1316</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>1325</v>
+        <v>1317</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>1326</v>
+        <v>1318</v>
       </c>
       <c r="D324" s="0" t="s">
-        <v>1327</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
-        <v>1328</v>
+        <v>1320</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
       <c r="D325" s="0" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
-        <v>1332</v>
+        <v>1324</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>1333</v>
+        <v>1325</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>1334</v>
+        <v>1326</v>
       </c>
       <c r="D326" s="0" t="s">
-        <v>1335</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
       <c r="C327" s="0" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
       <c r="D327" s="0" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>1341</v>
+        <v>1333</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>1342</v>
+        <v>1334</v>
       </c>
       <c r="D328" s="0" t="s">
-        <v>1343</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
-        <v>1344</v>
+        <v>1336</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>1345</v>
+        <v>1337</v>
       </c>
       <c r="C329" s="0" t="s">
-        <v>1346</v>
+        <v>1338</v>
       </c>
       <c r="D329" s="0" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>1349</v>
+        <v>1341</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>1350</v>
+        <v>1342</v>
       </c>
       <c r="D330" s="0" t="s">
-        <v>1351</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
-        <v>1352</v>
+        <v>1344</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>1353</v>
+        <v>1345</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>1354</v>
+        <v>1346</v>
       </c>
       <c r="D331" s="0" t="s">
-        <v>1355</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B332" s="0" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C332" s="0" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D332" s="0" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="0" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B333" s="0" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C333" s="0" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D333" s="0" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="0" t="s">
         <v>1356</v>
       </c>
-      <c r="B332" s="0" t="s">
+      <c r="B334" s="0" t="s">
         <v>1357</v>
       </c>
-      <c r="C332" s="0" t="s">
+      <c r="C334" s="0" t="s">
         <v>1358</v>
       </c>
-      <c r="D332" s="0" t="s">
+      <c r="D334" s="0" t="s">
         <v>1359</v>
       </c>
     </row>
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="0" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B335" s="0" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C335" s="0" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D335" s="0" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="0" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B336" s="0" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C336" s="0" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D336" s="0" t="s">
+        <v>1367</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B286:D1048576 B1:D1 B206:D231 C65:D66 B244:D252 B256:D256 B259:D284">
+  <conditionalFormatting sqref="B290:D1048576 B1:D1 B206:D235 C65:D66 B248:D256 B260:D260 B263:D288">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>

--- a/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="1368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="1370">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -2998,6 +2998,12 @@
   </si>
   <si>
     <t xml:space="preserve">You cannot select more months than times bitten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bite_occur_conflict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You cannot select 'Don't know' along with other options</t>
   </si>
   <si>
     <t xml:space="preserve">given_name</t>
@@ -4444,7 +4450,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.87109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.69"/>
   </cols>
@@ -5495,7 +5501,7 @@
       <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.87109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.67"/>
@@ -6973,7 +6979,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.87109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.16"/>
@@ -10763,7 +10769,7 @@
       <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.87109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.79"/>
@@ -29191,7 +29197,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.87109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.04"/>
@@ -30325,15 +30331,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D336"/>
+  <dimension ref="A1:D337"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B235" activeCellId="0" sqref="B235"/>
+      <selection pane="bottomLeft" activeCell="A225" activeCellId="0" sqref="A225"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.26171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="37.56"/>
@@ -33372,32 +33378,32 @@
       <c r="B225" s="0" t="s">
         <v>992</v>
       </c>
-      <c r="C225" s="0" t="s">
-        <v>993</v>
-      </c>
-      <c r="D225" s="0" t="s">
-        <v>994</v>
-      </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>26</v>
+        <v>993</v>
       </c>
       <c r="B226" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="C226" s="0" t="s">
         <v>995</v>
       </c>
-      <c r="C226" s="0" t="s">
+      <c r="D226" s="0" t="s">
         <v>996</v>
-      </c>
-      <c r="D226" s="0" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B227" s="0" t="s">
+        <v>997</v>
+      </c>
+      <c r="C227" s="0" t="s">
         <v>998</v>
       </c>
-      <c r="B227" s="0" t="s">
+      <c r="D227" s="0" t="s">
         <v>999</v>
       </c>
     </row>
@@ -33465,49 +33471,49 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B237" s="0" t="s">
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="s">
         <v>1016</v>
+      </c>
+      <c r="B236" s="0" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>1021</v>
+        <v>48</v>
       </c>
       <c r="B242" s="0" t="s">
         <v>1022</v>
@@ -33537,295 +33543,289 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B248" s="0" t="s">
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="s">
         <v>1029</v>
       </c>
-      <c r="C248" s="0" t="s">
+      <c r="B246" s="0" t="s">
         <v>1030</v>
-      </c>
-      <c r="D248" s="0" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B249" s="0" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C249" s="0" t="s">
         <v>1032</v>
       </c>
-      <c r="C249" s="0" t="s">
+      <c r="D249" s="0" t="s">
         <v>1033</v>
-      </c>
-      <c r="D249" s="0" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B250" s="0" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C250" s="0" t="s">
         <v>1035</v>
       </c>
-      <c r="C250" s="0" t="s">
+      <c r="D250" s="0" t="s">
         <v>1036</v>
-      </c>
-      <c r="D250" s="0" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B251" s="0" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C251" s="0" t="s">
         <v>1038</v>
       </c>
-      <c r="C251" s="0" t="s">
+      <c r="D251" s="0" t="s">
         <v>1039</v>
-      </c>
-      <c r="D251" s="0" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B252" s="0" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C252" s="0" t="s">
         <v>1041</v>
       </c>
-      <c r="C252" s="0" t="s">
+      <c r="D252" s="0" t="s">
         <v>1042</v>
-      </c>
-      <c r="D252" s="0" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B253" s="0" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C253" s="0" t="s">
         <v>1044</v>
       </c>
-      <c r="C253" s="0" t="s">
+      <c r="D253" s="0" t="s">
         <v>1045</v>
-      </c>
-      <c r="D253" s="0" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B254" s="0" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C254" s="0" t="s">
         <v>1047</v>
       </c>
-      <c r="C254" s="0" t="s">
+      <c r="D254" s="0" t="s">
         <v>1048</v>
-      </c>
-      <c r="D254" s="0" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B255" s="0" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C255" s="0" t="s">
         <v>1050</v>
       </c>
-      <c r="B255" s="0" t="s">
+      <c r="D255" s="0" t="s">
         <v>1051</v>
-      </c>
-      <c r="C255" s="0" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D255" s="0" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B256" s="0" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C256" s="0" t="s">
         <v>1054</v>
       </c>
-      <c r="B256" s="0" t="s">
+      <c r="D256" s="0" t="s">
         <v>1055</v>
       </c>
-      <c r="C256" s="0" t="s">
+    </row>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="s">
         <v>1056</v>
       </c>
-      <c r="D256" s="0" t="s">
+      <c r="B257" s="0" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="0" t="s">
+      <c r="C257" s="0" t="s">
         <v>1058</v>
       </c>
-      <c r="B257" s="0" t="s">
+      <c r="D257" s="0" t="s">
         <v>1059</v>
-      </c>
-      <c r="C257" s="0" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D257" s="0" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B258" s="0" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C258" s="0" t="s">
         <v>1062</v>
       </c>
-      <c r="B258" s="0" t="s">
+      <c r="D258" s="0" t="s">
         <v>1063</v>
-      </c>
-      <c r="C258" s="0" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D258" s="0" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B259" s="0" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C259" s="0" t="s">
         <v>1066</v>
       </c>
-      <c r="B259" s="0" t="s">
+      <c r="D259" s="0" t="s">
         <v>1067</v>
-      </c>
-      <c r="C259" s="0" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D259" s="0" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B260" s="0" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C260" s="0" t="s">
         <v>1070</v>
       </c>
-      <c r="B260" s="0" t="s">
+      <c r="D260" s="0" t="s">
         <v>1071</v>
-      </c>
-      <c r="C260" s="0" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D260" s="0" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B261" s="0" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C261" s="0" t="s">
         <v>1074</v>
       </c>
-      <c r="B261" s="0" t="s">
+      <c r="D261" s="0" t="s">
         <v>1075</v>
-      </c>
-      <c r="C261" s="0" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D261" s="0" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B262" s="0" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C262" s="0" t="s">
         <v>1078</v>
       </c>
-      <c r="B262" s="0" t="s">
+      <c r="D262" s="0" t="s">
         <v>1079</v>
-      </c>
-      <c r="C262" s="0" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D262" s="0" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B263" s="0" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C263" s="0" t="s">
         <v>1082</v>
       </c>
-      <c r="B263" s="0" t="s">
+      <c r="D263" s="0" t="s">
         <v>1083</v>
-      </c>
-      <c r="C263" s="0" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D263" s="0" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B264" s="0" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C264" s="0" t="s">
         <v>1086</v>
       </c>
-      <c r="B264" s="0" t="s">
+      <c r="D264" s="0" t="s">
         <v>1087</v>
-      </c>
-      <c r="C264" s="0" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D264" s="0" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B265" s="0" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C265" s="0" t="s">
         <v>1090</v>
       </c>
-      <c r="B265" s="0" t="s">
+      <c r="D265" s="0" t="s">
         <v>1091</v>
-      </c>
-      <c r="C265" s="0" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D265" s="0" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B266" s="0" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C266" s="0" t="s">
         <v>1094</v>
       </c>
-      <c r="B266" s="0" t="s">
+      <c r="D266" s="0" t="s">
         <v>1095</v>
-      </c>
-      <c r="C266" s="0" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D266" s="0" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B267" s="0" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C267" s="0" t="s">
         <v>1098</v>
       </c>
-      <c r="B267" s="0" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C267" s="0" t="s">
+      <c r="D267" s="0" t="s">
         <v>1099</v>
-      </c>
-      <c r="D267" s="0" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B268" s="0" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C268" s="0" t="s">
         <v>1101</v>
-      </c>
-      <c r="B268" s="0" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C268" s="0" t="s">
-        <v>1102</v>
       </c>
       <c r="D268" s="0" t="s">
         <v>1102</v>
@@ -33839,938 +33839,952 @@
         <v>1104</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="D269" s="0" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B270" s="0" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C270" s="0" t="s">
         <v>1107</v>
       </c>
-      <c r="B270" s="0" t="s">
+      <c r="D270" s="0" t="s">
         <v>1108</v>
-      </c>
-      <c r="C270" s="0" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D270" s="0" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B271" s="0" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C271" s="0" t="s">
         <v>1111</v>
       </c>
-      <c r="B271" s="0" t="s">
+      <c r="D271" s="0" t="s">
         <v>1112</v>
-      </c>
-      <c r="C271" s="0" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D271" s="0" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B272" s="0" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C272" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="B272" s="0" t="s">
+      <c r="D272" s="0" t="s">
         <v>1116</v>
-      </c>
-      <c r="C272" s="0" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D272" s="0" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B273" s="0" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C273" s="0" t="s">
         <v>1119</v>
       </c>
-      <c r="B273" s="0" t="s">
+      <c r="D273" s="0" t="s">
         <v>1120</v>
-      </c>
-      <c r="C273" s="0" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D273" s="0" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B274" s="0" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C274" s="0" t="s">
         <v>1123</v>
       </c>
-      <c r="B274" s="0" t="s">
+      <c r="D274" s="0" t="s">
         <v>1124</v>
-      </c>
-      <c r="C274" s="0" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D274" s="0" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B275" s="0" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C275" s="0" t="s">
         <v>1127</v>
       </c>
-      <c r="B275" s="0" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C275" s="0" t="s">
-        <v>1099</v>
-      </c>
       <c r="D275" s="0" t="s">
-        <v>1100</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>1129</v>
+        <v>1049</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>1130</v>
+        <v>1101</v>
       </c>
       <c r="D276" s="0" t="s">
-        <v>1131</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B277" s="0" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C277" s="0" t="s">
         <v>1132</v>
       </c>
-      <c r="B277" s="0" t="s">
+      <c r="D277" s="0" t="s">
         <v>1133</v>
-      </c>
-      <c r="C277" s="0" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D277" s="0" t="s">
-        <v>1135</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B278" s="0" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C278" s="0" t="s">
         <v>1136</v>
       </c>
-      <c r="B278" s="0" t="s">
+      <c r="D278" s="0" t="s">
         <v>1137</v>
-      </c>
-      <c r="C278" s="0" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D278" s="0" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B279" s="0" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C279" s="0" t="s">
         <v>1140</v>
       </c>
-      <c r="B279" s="0" t="s">
+      <c r="D279" s="0" t="s">
         <v>1141</v>
-      </c>
-      <c r="C279" s="0" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D279" s="0" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B280" s="0" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C280" s="0" t="s">
         <v>1144</v>
       </c>
-      <c r="B280" s="0" t="s">
+      <c r="D280" s="0" t="s">
         <v>1145</v>
-      </c>
-      <c r="C280" s="0" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D280" s="0" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B281" s="0" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C281" s="0" t="s">
         <v>1148</v>
       </c>
-      <c r="B281" s="0" t="s">
+      <c r="D281" s="0" t="s">
         <v>1149</v>
-      </c>
-      <c r="C281" s="0" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D281" s="0" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B282" s="0" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C282" s="0" t="s">
         <v>1152</v>
       </c>
-      <c r="B282" s="0" t="s">
+      <c r="D282" s="0" t="s">
         <v>1153</v>
-      </c>
-      <c r="C282" s="0" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D282" s="0" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B283" s="0" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C283" s="0" t="s">
         <v>1156</v>
       </c>
-      <c r="B283" s="0" t="s">
+      <c r="D283" s="0" t="s">
         <v>1157</v>
       </c>
-      <c r="C283" s="0" t="s">
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="s">
         <v>1158</v>
       </c>
-      <c r="D283" s="0" t="s">
+      <c r="B284" s="0" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="0" t="s">
+      <c r="C284" s="0" t="s">
         <v>1160</v>
       </c>
-      <c r="B284" s="0" t="s">
+      <c r="D284" s="0" t="s">
         <v>1161</v>
-      </c>
-      <c r="C284" s="0" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D284" s="0" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B285" s="0" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C285" s="0" t="s">
         <v>1164</v>
       </c>
-      <c r="B285" s="0" t="s">
+      <c r="D285" s="0" t="s">
         <v>1165</v>
-      </c>
-      <c r="C285" s="0" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D285" s="0" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B286" s="0" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C286" s="0" t="s">
         <v>1168</v>
       </c>
-      <c r="B286" s="0" t="s">
+      <c r="D286" s="0" t="s">
         <v>1169</v>
-      </c>
-      <c r="C286" s="0" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D286" s="0" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B287" s="0" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C287" s="0" t="s">
         <v>1172</v>
       </c>
-      <c r="B287" s="0" t="s">
+      <c r="D287" s="0" t="s">
         <v>1173</v>
-      </c>
-      <c r="C287" s="0" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D287" s="0" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B288" s="0" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C288" s="0" t="s">
         <v>1176</v>
       </c>
-      <c r="B288" s="0" t="s">
+      <c r="D288" s="0" t="s">
         <v>1177</v>
       </c>
-      <c r="C288" s="0" t="s">
+    </row>
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="0" t="s">
         <v>1178</v>
       </c>
-      <c r="D288" s="0" t="s">
+      <c r="B289" s="0" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="0" t="s">
+      <c r="C289" s="0" t="s">
         <v>1180</v>
       </c>
-      <c r="B290" s="0" t="s">
+      <c r="D289" s="0" t="s">
         <v>1181</v>
       </c>
-      <c r="C290" s="0" t="s">
+    </row>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="s">
         <v>1182</v>
       </c>
-      <c r="D290" s="0" t="s">
+      <c r="B291" s="0" t="s">
         <v>1183</v>
       </c>
-    </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="2" t="s">
+      <c r="C291" s="0" t="s">
         <v>1184</v>
       </c>
-      <c r="B291" s="0" t="s">
+      <c r="D291" s="0" t="s">
         <v>1185</v>
-      </c>
-      <c r="C291" s="0" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D291" s="0" t="s">
-        <v>1187</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B292" s="0" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C292" s="0" t="s">
         <v>1188</v>
       </c>
-      <c r="B292" s="0" t="s">
+      <c r="D292" s="0" t="s">
         <v>1189</v>
-      </c>
-      <c r="C292" s="0" t="s">
-        <v>1190</v>
-      </c>
-      <c r="D292" s="0" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B293" s="0" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C293" s="0" t="s">
         <v>1192</v>
       </c>
-      <c r="B293" s="0" t="s">
+      <c r="D293" s="0" t="s">
         <v>1193</v>
-      </c>
-      <c r="C293" s="0" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D293" s="0" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B294" s="0" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C294" s="0" t="s">
         <v>1196</v>
       </c>
-      <c r="B294" s="0" t="s">
+      <c r="D294" s="0" t="s">
         <v>1197</v>
       </c>
-      <c r="C294" s="0" t="s">
+    </row>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="2" t="s">
         <v>1198</v>
       </c>
-      <c r="D294" s="0" t="s">
+      <c r="B295" s="0" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="0" t="s">
+      <c r="C295" s="0" t="s">
         <v>1200</v>
       </c>
-      <c r="B295" s="0" t="s">
+      <c r="D295" s="0" t="s">
         <v>1201</v>
-      </c>
-      <c r="C295" s="0" t="s">
-        <v>1202</v>
-      </c>
-      <c r="D295" s="0" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B296" s="0" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C296" s="0" t="s">
         <v>1204</v>
       </c>
-      <c r="B296" s="0" t="s">
+      <c r="D296" s="0" t="s">
         <v>1205</v>
-      </c>
-      <c r="C296" s="0" t="s">
-        <v>1206</v>
-      </c>
-      <c r="D296" s="0" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B297" s="0" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C297" s="0" t="s">
         <v>1208</v>
       </c>
-      <c r="B297" s="0" t="s">
+      <c r="D297" s="0" t="s">
         <v>1209</v>
-      </c>
-      <c r="C297" s="0" t="s">
-        <v>1210</v>
-      </c>
-      <c r="D297" s="0" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B298" s="0" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C298" s="0" t="s">
         <v>1212</v>
       </c>
-      <c r="B298" s="0" t="s">
+      <c r="D298" s="0" t="s">
         <v>1213</v>
-      </c>
-      <c r="C298" s="0" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D298" s="0" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B299" s="0" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C299" s="0" t="s">
         <v>1216</v>
       </c>
-      <c r="B299" s="0" t="s">
+      <c r="D299" s="0" t="s">
         <v>1217</v>
-      </c>
-      <c r="C299" s="0" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D299" s="0" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B300" s="0" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C300" s="0" t="s">
         <v>1220</v>
       </c>
-      <c r="B300" s="0" t="s">
+      <c r="D300" s="0" t="s">
         <v>1221</v>
-      </c>
-      <c r="C300" s="0" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D300" s="0" t="s">
-        <v>1223</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B301" s="0" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C301" s="0" t="s">
         <v>1224</v>
       </c>
-      <c r="B301" s="0" t="s">
+      <c r="D301" s="0" t="s">
         <v>1225</v>
-      </c>
-      <c r="C301" s="0" t="s">
-        <v>1226</v>
-      </c>
-      <c r="D301" s="0" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B302" s="0" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C302" s="0" t="s">
         <v>1228</v>
       </c>
-      <c r="B302" s="0" t="s">
+      <c r="D302" s="0" t="s">
         <v>1229</v>
-      </c>
-      <c r="C302" s="0" t="s">
-        <v>1230</v>
-      </c>
-      <c r="D302" s="0" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B303" s="0" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C303" s="0" t="s">
         <v>1232</v>
       </c>
-      <c r="B303" s="0" t="s">
+      <c r="D303" s="0" t="s">
         <v>1233</v>
-      </c>
-      <c r="C303" s="0" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D303" s="0" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B304" s="0" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C304" s="0" t="s">
         <v>1236</v>
       </c>
-      <c r="B304" s="0" t="s">
+      <c r="D304" s="0" t="s">
         <v>1237</v>
-      </c>
-      <c r="C304" s="0" t="s">
-        <v>1238</v>
-      </c>
-      <c r="D304" s="0" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B305" s="0" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C305" s="0" t="s">
         <v>1240</v>
       </c>
-      <c r="B305" s="0" t="s">
+      <c r="D305" s="0" t="s">
         <v>1241</v>
-      </c>
-      <c r="C305" s="0" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D305" s="0" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B306" s="0" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C306" s="0" t="s">
         <v>1244</v>
       </c>
-      <c r="B306" s="0" t="s">
+      <c r="D306" s="0" t="s">
         <v>1245</v>
-      </c>
-      <c r="C306" s="0" t="s">
-        <v>1246</v>
-      </c>
-      <c r="D306" s="0" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B307" s="0" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C307" s="0" t="s">
         <v>1248</v>
       </c>
-      <c r="B307" s="0" t="s">
+      <c r="D307" s="0" t="s">
         <v>1249</v>
-      </c>
-      <c r="C307" s="0" t="s">
-        <v>1250</v>
-      </c>
-      <c r="D307" s="0" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B308" s="0" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C308" s="0" t="s">
         <v>1252</v>
       </c>
-      <c r="B308" s="0" t="s">
+      <c r="D308" s="0" t="s">
         <v>1253</v>
-      </c>
-      <c r="C308" s="0" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D308" s="0" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B309" s="0" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C309" s="0" t="s">
         <v>1256</v>
       </c>
-      <c r="B309" s="0" t="s">
+      <c r="D309" s="0" t="s">
         <v>1257</v>
-      </c>
-      <c r="C309" s="0" t="s">
-        <v>1258</v>
-      </c>
-      <c r="D309" s="0" t="s">
-        <v>1259</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B310" s="0" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C310" s="0" t="s">
         <v>1260</v>
       </c>
-      <c r="B310" s="0" t="s">
+      <c r="D310" s="0" t="s">
         <v>1261</v>
-      </c>
-      <c r="C310" s="0" t="s">
-        <v>1262</v>
-      </c>
-      <c r="D310" s="0" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B311" s="0" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C311" s="0" t="s">
         <v>1264</v>
       </c>
-      <c r="B311" s="0" t="s">
+      <c r="D311" s="0" t="s">
         <v>1265</v>
-      </c>
-      <c r="C311" s="0" t="s">
-        <v>1266</v>
-      </c>
-      <c r="D311" s="0" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B312" s="0" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C312" s="0" t="s">
         <v>1268</v>
       </c>
-      <c r="B312" s="0" t="s">
+      <c r="D312" s="0" t="s">
         <v>1269</v>
-      </c>
-      <c r="C312" s="0" t="s">
-        <v>1270</v>
-      </c>
-      <c r="D312" s="0" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B313" s="0" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C313" s="0" t="s">
         <v>1272</v>
       </c>
-      <c r="B313" s="0" t="s">
+      <c r="D313" s="0" t="s">
         <v>1273</v>
-      </c>
-      <c r="C313" s="0" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D313" s="0" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B314" s="0" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C314" s="0" t="s">
         <v>1276</v>
       </c>
-      <c r="B314" s="0" t="s">
+      <c r="D314" s="0" t="s">
         <v>1277</v>
-      </c>
-      <c r="C314" s="0" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D314" s="0" t="s">
-        <v>1279</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B315" s="0" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C315" s="0" t="s">
         <v>1280</v>
       </c>
-      <c r="B315" s="0" t="s">
+      <c r="D315" s="0" t="s">
         <v>1281</v>
-      </c>
-      <c r="C315" s="0" t="s">
-        <v>1282</v>
-      </c>
-      <c r="D315" s="0" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B316" s="0" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C316" s="0" t="s">
         <v>1284</v>
       </c>
-      <c r="B316" s="0" t="s">
+      <c r="D316" s="0" t="s">
         <v>1285</v>
-      </c>
-      <c r="C316" s="0" t="s">
-        <v>1286</v>
-      </c>
-      <c r="D316" s="0" t="s">
-        <v>1287</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B317" s="0" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C317" s="0" t="s">
         <v>1288</v>
       </c>
-      <c r="B317" s="0" t="s">
+      <c r="D317" s="0" t="s">
         <v>1289</v>
-      </c>
-      <c r="C317" s="0" t="s">
-        <v>1290</v>
-      </c>
-      <c r="D317" s="0" t="s">
-        <v>1291</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B318" s="0" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C318" s="0" t="s">
         <v>1292</v>
       </c>
-      <c r="B318" s="0" t="s">
+      <c r="D318" s="0" t="s">
         <v>1293</v>
-      </c>
-      <c r="C318" s="0" t="s">
-        <v>1294</v>
-      </c>
-      <c r="D318" s="0" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B319" s="0" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C319" s="0" t="s">
         <v>1296</v>
       </c>
-      <c r="B319" s="0" t="s">
+      <c r="D319" s="0" t="s">
         <v>1297</v>
-      </c>
-      <c r="C319" s="0" t="s">
-        <v>1298</v>
-      </c>
-      <c r="D319" s="0" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B320" s="0" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C320" s="0" t="s">
         <v>1300</v>
       </c>
-      <c r="B320" s="0" t="s">
+      <c r="D320" s="0" t="s">
         <v>1301</v>
-      </c>
-      <c r="C320" s="0" t="s">
-        <v>1302</v>
-      </c>
-      <c r="D320" s="0" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B321" s="0" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C321" s="0" t="s">
         <v>1304</v>
       </c>
-      <c r="B321" s="0" t="s">
+      <c r="D321" s="0" t="s">
         <v>1305</v>
-      </c>
-      <c r="C321" s="0" t="s">
-        <v>1306</v>
-      </c>
-      <c r="D321" s="0" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B322" s="0" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C322" s="0" t="s">
         <v>1308</v>
       </c>
-      <c r="B322" s="0" t="s">
+      <c r="D322" s="0" t="s">
         <v>1309</v>
-      </c>
-      <c r="C322" s="0" t="s">
-        <v>1310</v>
-      </c>
-      <c r="D322" s="0" t="s">
-        <v>1311</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B323" s="0" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C323" s="0" t="s">
         <v>1312</v>
       </c>
-      <c r="B323" s="0" t="s">
+      <c r="D323" s="0" t="s">
         <v>1313</v>
-      </c>
-      <c r="C323" s="0" t="s">
-        <v>1314</v>
-      </c>
-      <c r="D323" s="0" t="s">
-        <v>1315</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B324" s="0" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C324" s="0" t="s">
         <v>1316</v>
       </c>
-      <c r="B324" s="0" t="s">
+      <c r="D324" s="0" t="s">
         <v>1317</v>
-      </c>
-      <c r="C324" s="0" t="s">
-        <v>1318</v>
-      </c>
-      <c r="D324" s="0" t="s">
-        <v>1319</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B325" s="0" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C325" s="0" t="s">
         <v>1320</v>
       </c>
-      <c r="B325" s="0" t="s">
+      <c r="D325" s="0" t="s">
         <v>1321</v>
-      </c>
-      <c r="C325" s="0" t="s">
-        <v>1322</v>
-      </c>
-      <c r="D325" s="0" t="s">
-        <v>1323</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B326" s="0" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C326" s="0" t="s">
         <v>1324</v>
       </c>
-      <c r="B326" s="0" t="s">
+      <c r="D326" s="0" t="s">
         <v>1325</v>
-      </c>
-      <c r="C326" s="0" t="s">
-        <v>1326</v>
-      </c>
-      <c r="D326" s="0" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B327" s="0" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C327" s="0" t="s">
         <v>1328</v>
       </c>
-      <c r="B327" s="0" t="s">
+      <c r="D327" s="0" t="s">
         <v>1329</v>
-      </c>
-      <c r="C327" s="0" t="s">
-        <v>1330</v>
-      </c>
-      <c r="D327" s="0" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B328" s="0" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C328" s="0" t="s">
         <v>1332</v>
       </c>
-      <c r="B328" s="0" t="s">
+      <c r="D328" s="0" t="s">
         <v>1333</v>
-      </c>
-      <c r="C328" s="0" t="s">
-        <v>1334</v>
-      </c>
-      <c r="D328" s="0" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B329" s="0" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C329" s="0" t="s">
         <v>1336</v>
       </c>
-      <c r="B329" s="0" t="s">
+      <c r="D329" s="0" t="s">
         <v>1337</v>
-      </c>
-      <c r="C329" s="0" t="s">
-        <v>1338</v>
-      </c>
-      <c r="D329" s="0" t="s">
-        <v>1339</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B330" s="0" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C330" s="0" t="s">
         <v>1340</v>
       </c>
-      <c r="B330" s="0" t="s">
+      <c r="D330" s="0" t="s">
         <v>1341</v>
-      </c>
-      <c r="C330" s="0" t="s">
-        <v>1342</v>
-      </c>
-      <c r="D330" s="0" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B331" s="0" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C331" s="0" t="s">
         <v>1344</v>
       </c>
-      <c r="B331" s="0" t="s">
+      <c r="D331" s="0" t="s">
         <v>1345</v>
-      </c>
-      <c r="C331" s="0" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D331" s="0" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B332" s="0" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C332" s="0" t="s">
         <v>1348</v>
       </c>
-      <c r="B332" s="0" t="s">
+      <c r="D332" s="0" t="s">
         <v>1349</v>
-      </c>
-      <c r="C332" s="0" t="s">
-        <v>1350</v>
-      </c>
-      <c r="D332" s="0" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B333" s="0" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C333" s="0" t="s">
         <v>1352</v>
       </c>
-      <c r="B333" s="0" t="s">
+      <c r="D333" s="0" t="s">
         <v>1353</v>
-      </c>
-      <c r="C333" s="0" t="s">
-        <v>1354</v>
-      </c>
-      <c r="D333" s="0" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B334" s="0" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C334" s="0" t="s">
         <v>1356</v>
       </c>
-      <c r="B334" s="0" t="s">
+      <c r="D334" s="0" t="s">
         <v>1357</v>
-      </c>
-      <c r="C334" s="0" t="s">
-        <v>1358</v>
-      </c>
-      <c r="D334" s="0" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B335" s="0" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C335" s="0" t="s">
         <v>1360</v>
       </c>
-      <c r="B335" s="0" t="s">
+      <c r="D335" s="0" t="s">
         <v>1361</v>
-      </c>
-      <c r="C335" s="0" t="s">
-        <v>1362</v>
-      </c>
-      <c r="D335" s="0" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B336" s="0" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C336" s="0" t="s">
         <v>1364</v>
       </c>
-      <c r="B336" s="0" t="s">
+      <c r="D336" s="0" t="s">
         <v>1365</v>
       </c>
-      <c r="C336" s="0" t="s">
+    </row>
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="0" t="s">
         <v>1366</v>
       </c>
-      <c r="D336" s="0" t="s">
+      <c r="B337" s="0" t="s">
         <v>1367</v>
       </c>
+      <c r="C337" s="0" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D337" s="0" t="s">
+        <v>1369</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B290:D1048576 B1:D1 B206:D235 C65:D66 B248:D256 B260:D260 B263:D288">
+  <conditionalFormatting sqref="B291:D1048576 B1:D1 B206:D236 C65:D66 B249:D257 B261:D261 B264:D289">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>

--- a/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2560" uniqueCount="1439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2568" uniqueCount="1447">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -4266,6 +4266,18 @@
     <t xml:space="preserve">Huwezi kuchagua "Sijui" au "Amependa kutokujibu" pamoja na majibu mengine</t>
   </si>
   <si>
+    <t xml:space="preserve">w_dk_pna_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You cannot select ‘Don’t know’, ‘No’, or ‘Prefer not to answer’ along with other options.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Você não pode selecionar "Não sabe", "Não” ou "Prefere não responder" junto com as outras respostas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huwezi kuchagua "Sijui", “Hapana” au "Amependa kutokujibu" pamoja na majibu mengine</t>
+  </si>
+  <si>
     <t xml:space="preserve">w_no_pna</t>
   </si>
   <si>
@@ -4276,6 +4288,18 @@
   </si>
   <si>
     <t xml:space="preserve">Huwezi kuchagua "Hapana" au "Amependa kutokujibu" pamoja na majibu mengine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w_pna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You cannot select ‘Prefer not to answer’ along with other options.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Você não pode selecionar "Prefere não responder" junto com as outras respostas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huwezi kuchagua "Amependa kutokujibu" pamoja na majibu mengine</t>
   </si>
   <si>
     <t xml:space="preserve">w_no_symptoms</t>
@@ -4684,7 +4708,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.9765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.69"/>
   </cols>
@@ -5731,11 +5755,11 @@
   </sheetPr>
   <dimension ref="A1:Q1016"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M28" activeCellId="0" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.67"/>
@@ -7218,13 +7242,13 @@
   </sheetPr>
   <dimension ref="A1:Y1011"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C90" activeCellId="0" sqref="C90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.16"/>
@@ -11014,7 +11038,7 @@
       <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.79"/>
@@ -29442,7 +29466,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.9765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.04"/>
@@ -30576,15 +30600,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D351"/>
+  <dimension ref="A1:D353"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A328" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A317" activeCellId="0" sqref="A317"/>
+      <selection pane="bottomLeft" activeCell="B342" activeCellId="0" sqref="B342"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.37890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="37.56"/>
@@ -35304,11 +35328,11 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="16.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
         <v>1425</v>
       </c>
-      <c r="B346" s="14" t="s">
+      <c r="B346" s="0" t="s">
         <v>1426</v>
       </c>
       <c r="C346" s="13" t="s">
@@ -35318,78 +35342,106 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
         <v>1429</v>
       </c>
       <c r="B347" s="0" t="s">
         <v>1430</v>
       </c>
-      <c r="C347" s="8" t="s">
-        <v>1430</v>
-      </c>
-      <c r="D347" s="8" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="4" t="s">
+      <c r="C347" s="13" t="s">
         <v>1431</v>
       </c>
-      <c r="B348" s="0" t="s">
+      <c r="D347" s="13" t="s">
         <v>1432</v>
       </c>
-      <c r="C348" s="8" t="s">
-        <v>1432</v>
-      </c>
-      <c r="D348" s="8" t="s">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="349" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="348" customFormat="false" ht="16.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A348" s="0" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B348" s="14" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C348" s="13" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D348" s="13" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>1434</v>
+        <v>1438</v>
       </c>
       <c r="C349" s="8" t="s">
-        <v>1434</v>
-      </c>
-      <c r="D349" s="13" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="350" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="0" t="s">
-        <v>1435</v>
+        <v>1438</v>
+      </c>
+      <c r="D349" s="8" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="4" t="s">
+        <v>1439</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>1436</v>
+        <v>1440</v>
       </c>
       <c r="C350" s="8" t="s">
-        <v>1436</v>
-      </c>
-      <c r="D350" s="13" t="s">
-        <v>1051</v>
+        <v>1440</v>
+      </c>
+      <c r="D350" s="8" t="s">
+        <v>1440</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
-        <v>1437</v>
+        <v>1441</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>1438</v>
+        <v>1442</v>
       </c>
       <c r="C351" s="8" t="s">
-        <v>1438</v>
+        <v>1442</v>
       </c>
       <c r="D351" s="13" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="0" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B352" s="0" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C352" s="8" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D352" s="13" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="0" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B353" s="0" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C353" s="8" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D353" s="13" t="s">
         <v>1055</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:D1 B206:B236 C66:D66 B249:D257 B261:D261 B264:D289 B291:B345 B347:B1048576 C206:D214 C217:D223 C291:D338 D352:D1048576 C348:D348 C225:D234 C347 D347 C349:C1048576">
+  <conditionalFormatting sqref="B1:D1 B206:B236 C66:D66 B249:D257 B261:D261 B264:D289 B349:B1048576 C206:D214 C217:D223 C291:D338 D354:D1048576 C350:D350 C225:D234 C349 D349 C351:C1048576 B291:B347">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
@@ -35399,7 +35451,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B345 B347:B1048576 C237:D237 C217:D223 C247:D338 D352:D1048576 C348:D348 C237 C240:D242 C225:D234 C244:C338 D246 C347 D347 C349:C1048576 C1:D214">
+  <conditionalFormatting sqref="B349:B1048576 C237:D237 C217:D223 C247:D338 D354:D1048576 C350:D350 C237 C240:D242 C225:D234 C244:C338 D246 C349 D349 C351:C1048576 C1:D214 B1:B347">
     <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>

--- a/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2568" uniqueCount="1447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2568" uniqueCount="1451">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -3705,73 +3705,73 @@
     <t xml:space="preserve">ind_q4</t>
   </si>
   <si>
-    <t xml:space="preserve">4. [If 18 or over 18 years old] Has this participant sign the informed consent?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. [Se 18 ou idade superior a 18 anos] Este participante assinou o consentimento informado?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. [Ikiwa ana umri wa miaka 18 au zaidi ya 18] Je, mshiriki huyu ametia saini fomu ya ridhaa?</t>
+    <t xml:space="preserve">4. Has this participant sign the informed consent?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Este participante assinou o consentimento informado?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Je, mshiriki huyu ametia saini fomu ya ridhaa?</t>
   </si>
   <si>
     <t xml:space="preserve">ind_q5</t>
   </si>
   <si>
-    <t xml:space="preserve">5. [If between 12 and below 18] Has this participant sign the assent form?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. [Se tiver entre 12 e menos de 18] O participante assinou o assentimento informado?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. [Ikiwa kati ya miaka 12 na chini ya 18] Je, mshiriki huyu ametia saini fomu ya ridhaa?</t>
+    <t xml:space="preserve">5. Has this participant sign the assent form?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.  O participante assinou o assentimento informado?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Je, mshiriki huyu ametia saini fomu ya ridhaa?</t>
   </si>
   <si>
     <t xml:space="preserve">ind_q5a</t>
   </si>
   <si>
-    <t xml:space="preserve">5a. [If between 12 and below 18] Has the legal guardian/parent signed the consent form?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5a. [Se tiver entre 12 e menos de 18] O pai/mãe/tutor assinou o consentimento informado?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5a. [Ikiwa kati ya miaka 12 na chini ya 18] Mlezi wa kisheria/mzazi ametia saini fomu ya ridhaa?</t>
+    <t xml:space="preserve">5a. Has the legal guardian/parent signed the consent form?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5a. O pai/mãe/tutor assinou o consentimento informado?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5a. Mlezi wa kisheria/mzazi ametia saini fomu ya ridhaa?</t>
   </si>
   <si>
     <t xml:space="preserve">ind_q5ai</t>
   </si>
   <si>
-    <t xml:space="preserve">5a(i). [If yes] Who signed?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5a(i). [Se sim] Quem assinou?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5a (i). [Ikiwa ndiyo] Ni nani aliyetia saini?</t>
+    <t xml:space="preserve">5a(i). Who signed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5a(i). Quem assinou?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5a (i). Ni nani aliyetia saini?</t>
   </si>
   <si>
     <t xml:space="preserve">ind_q6</t>
   </si>
   <si>
-    <t xml:space="preserve">6. [If below 12] Has the legal guardian/parent signed the consent form?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. [Se tiver menos de 12] O pai/mãe/tutor assinou o consentimento informado?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. [Ikiwa chini ya miaka 12] Mlezi wa kisheria/mzazi ametia saini fomu ya ridhaa?</t>
+    <t xml:space="preserve">6. Has the legal guardian/parent signed the consent form?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. O pai/mãe/tutor assinou o consentimento informado?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Mlezi wa kisheria/mzazi ametia saini fomu ya ridhaa?</t>
   </si>
   <si>
     <t xml:space="preserve">ind_q6a</t>
   </si>
   <si>
-    <t xml:space="preserve">6a. [If yes] Who signed?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6a. [Se sim] Quem assinou?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6a. [Ikiwa ndiyo] Ni nani aliyetia saini?</t>
+    <t xml:space="preserve">6a. Who signed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6a. Quem assinou?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6a. Ni nani aliyetia saini?</t>
   </si>
   <si>
     <t xml:space="preserve">ind_q7</t>
@@ -3789,25 +3789,25 @@
     <t xml:space="preserve">ind_q8</t>
   </si>
   <si>
-    <t xml:space="preserve">8. [If the participant is below 18] Are his/her biological parents alive?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8. [Se o participante tiver menos de 18] Os seus pais biológicos estão vivos?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8. [Ikiwa mshiriki ana umri wa chini ya miaka 18] wazazi wake waliomzaa wako hai?</t>
+    <t xml:space="preserve">8. Are his/her biological parents alive?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Os seus pais biológicos estão vivos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Wazazi wake waliomzaa wako hai?</t>
   </si>
   <si>
     <t xml:space="preserve">ind_q9</t>
   </si>
   <si>
-    <t xml:space="preserve">9. [If not household head/household head substitute] Participant’s relationship with the head of household</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9. [Se não for chefe do agregado familiar/chefe substituto do agregado familiar] Parentesco do participante com o chefe do agregado familiar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9. [Ikiwa siyo Mkuu wa kaya/Mbadala wa mkuu wa kaya] Uhusiano wa mshiriki na Mkuu wa kaya</t>
+    <t xml:space="preserve">9. Participant’s relationship with the head of household</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Parentesco do participante com o chefe do agregado familiar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Uhusiano wa mshiriki na Mkuu wa kaya</t>
   </si>
   <si>
     <t xml:space="preserve">ind_q10</t>
@@ -4341,32 +4341,25 @@
     <t xml:space="preserve">n_nets</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cascadia mono semilight"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Number of people </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cascadia mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(0=alone, 2=two under the net, 3=three under the net, etc. 1 not allowed)</t>
-    </r>
+    <t xml:space="preserve">0=alone, 2=two under the net, 3=three under the net, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0= 1 pessoa debaixo do mosquiteiro, 2= duas pessoas debaixo do mosquiteiro, 3= três pessoas debaixo do mosquiteiro, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0= Pekeyako, 2= wawili kwenye chandarua, 3=  3 kwenye chandarua nk.</t>
   </si>
   <si>
     <t xml:space="preserve">not_one</t>
   </si>
   <si>
     <t xml:space="preserve">Cannot enter 1. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 não é uma resposta permitida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hakuruhusiwi</t>
   </si>
   <si>
     <t xml:space="preserve">invalid_date</t>
@@ -4530,7 +4523,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4588,6 +4581,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4708,7 +4709,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.02734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.69"/>
   </cols>
@@ -5756,10 +5757,10 @@
   <dimension ref="A1:Q1016"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M28" activeCellId="0" sqref="M28"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.02734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.67"/>
@@ -7248,7 +7249,7 @@
       <selection pane="bottomLeft" activeCell="C90" activeCellId="0" sqref="C90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.02734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.16"/>
@@ -11038,7 +11039,7 @@
       <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.02734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.79"/>
@@ -29466,7 +29467,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.02734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.04"/>
@@ -30603,12 +30604,12 @@
   <dimension ref="A1:D353"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A328" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B342" activeCellId="0" sqref="B342"/>
+      <selection pane="bottomLeft" activeCell="B344" activeCellId="0" sqref="B344"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.37890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="37.56"/>
@@ -33886,7 +33887,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="32.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
         <v>30</v>
       </c>
@@ -34628,7 +34629,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="2" t="s">
         <v>1225</v>
       </c>
@@ -34642,7 +34643,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
         <v>1229</v>
       </c>
@@ -34656,7 +34657,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
         <v>1233</v>
       </c>
@@ -34670,7 +34671,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
         <v>1237</v>
       </c>
@@ -34684,7 +34685,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
         <v>1241</v>
       </c>
@@ -34698,7 +34699,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
         <v>1245</v>
       </c>
@@ -34726,7 +34727,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
         <v>1253</v>
       </c>
@@ -34740,7 +34741,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
         <v>1257</v>
       </c>
@@ -35374,74 +35375,74 @@
       <c r="A349" s="0" t="s">
         <v>1437</v>
       </c>
-      <c r="B349" s="0" t="s">
+      <c r="B349" s="4" t="s">
         <v>1438</v>
       </c>
-      <c r="C349" s="8" t="s">
-        <v>1438</v>
-      </c>
-      <c r="D349" s="8" t="s">
-        <v>1438</v>
+      <c r="C349" s="15" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D349" s="16" t="s">
+        <v>1440</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="4" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>1440</v>
-      </c>
-      <c r="C350" s="8" t="s">
-        <v>1440</v>
-      </c>
-      <c r="D350" s="8" t="s">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="351" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1442</v>
+      </c>
+      <c r="C350" s="15" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D350" s="15" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
-        <v>1441</v>
+        <v>1445</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C351" s="8" t="s">
-        <v>1442</v>
+        <v>1446</v>
+      </c>
+      <c r="C351" s="13" t="s">
+        <v>1046</v>
       </c>
       <c r="D351" s="13" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
-        <v>1443</v>
+        <v>1447</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>1444</v>
-      </c>
-      <c r="C352" s="8" t="s">
-        <v>1444</v>
+        <v>1448</v>
+      </c>
+      <c r="C352" s="13" t="s">
+        <v>1050</v>
       </c>
       <c r="D352" s="13" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
-        <v>1445</v>
+        <v>1449</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>1446</v>
-      </c>
-      <c r="C353" s="8" t="s">
-        <v>1446</v>
+        <v>1450</v>
+      </c>
+      <c r="C353" s="13" t="s">
+        <v>1054</v>
       </c>
       <c r="D353" s="13" t="s">
         <v>1055</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:D1 B206:B236 C66:D66 B249:D257 B261:D261 B264:D289 B349:B1048576 C206:D214 C217:D223 C291:D338 D354:D1048576 C350:D350 C225:D234 C349 D349 C351:C1048576 B291:B347">
+  <conditionalFormatting sqref="B1:D1 B206:B236 C66:D66 B249:D257 B261:D261 B264:D289 B349:B1048576 C206:D214 C217:D223 C291:D338 D354:D1048576 C350:D350 C225:D234 C349 D349 C352:C1048576 B291:B347">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
@@ -35451,7 +35452,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B349:B1048576 C237:D237 C217:D223 C247:D338 D354:D1048576 C350:D350 C237 C240:D242 C225:D234 C244:C338 D246 C349 D349 C351:C1048576 C1:D214 B1:B347">
+  <conditionalFormatting sqref="B349:B1048576 C237:D237 C217:D223 C247:D338 D354:D1048576 C350:D350 C237 C240:D242 C225:D234 C244:C338 D246 C349 D349 C352:C1048576 C1:D214 B1:B347">
     <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>

--- a/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2568" uniqueCount="1451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2570" uniqueCount="1485">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -1815,6 +1815,12 @@
     <t xml:space="preserve">Week(s) ago</t>
   </si>
   <si>
+    <t xml:space="preserve">Wiki zilizopita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semana(s) atrás</t>
+  </si>
+  <si>
     <t xml:space="preserve">Month(s) ago</t>
   </si>
   <si>
@@ -1830,6 +1836,12 @@
     <t xml:space="preserve">Week(s)</t>
   </si>
   <si>
+    <t xml:space="preserve">Wiki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semana (s)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Month(s)</t>
   </si>
   <si>
@@ -2895,7 +2907,13 @@
     <t xml:space="preserve">hh_id_note</t>
   </si>
   <si>
-    <t xml:space="preserve">Household ID: {{data.hh_id}}</t>
+    <t xml:space="preserve">Household Identification {{data.hh_id}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utambulisho wa Kaya {{data.hh_id}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identificação do agregado{{data.hh_id}}</t>
   </si>
   <si>
     <t xml:space="preserve">Date</t>
@@ -2913,18 +2931,36 @@
     <t xml:space="preserve">or enter number </t>
   </si>
   <si>
+    <t xml:space="preserve">au ingiza namba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ou digite um número</t>
+  </si>
+  <si>
     <t xml:space="preserve">days_weeks_months_years</t>
   </si>
   <si>
     <t xml:space="preserve">Days/Weeks/Months/Years </t>
   </si>
   <si>
+    <t xml:space="preserve">Siku/Wiki/Mwezi/Mwaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dias / semanas / meses / anos</t>
+  </si>
+  <si>
     <t xml:space="preserve">days_weeks_months_dk</t>
   </si>
   <si>
     <t xml:space="preserve">Days/Weeks/Months Ago or Don't Know</t>
   </si>
   <si>
+    <t xml:space="preserve">Siku/Wiki/Mwezi/Mwaka zilizopita au Sijui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dias / semanas / meses atrás ou não sei</t>
+  </si>
+  <si>
     <t xml:space="preserve">err_death_date</t>
   </si>
   <si>
@@ -3009,6 +3045,12 @@
     <t xml:space="preserve">Snake Bite details</t>
   </si>
   <si>
+    <t xml:space="preserve">Maelezo kuhusu kuumwa na nyoka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detalhes da mordida de cobra</t>
+  </si>
+  <si>
     <t xml:space="preserve">name_id</t>
   </si>
   <si>
@@ -3066,6 +3108,12 @@
     <t xml:space="preserve">Section to be filled out for households that were not part of the minicensus</t>
   </si>
   <si>
+    <t xml:space="preserve">Sehemu inayojazwa kwa kaya ambazo hazikuwa sehemu ya Minicensus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secção a ser preenchida para famílias que não faziam parte do minicenso.</t>
+  </si>
+  <si>
     <t xml:space="preserve">err_no_consent</t>
   </si>
   <si>
@@ -3075,6 +3123,9 @@
     <t xml:space="preserve">&lt;span style="color:red"&gt;Huwezi kusonga mbele hadi fomu ya idhini iwe imesainiwa.&lt;/span&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;span style = "color: red"&gt; Você não pode continuar a pesquisa se o consentimento informado não foi assinado &lt;/span&gt; </t>
+  </si>
+  <si>
     <t xml:space="preserve">err_no_assent</t>
   </si>
   <si>
@@ -3084,30 +3135,57 @@
     <t xml:space="preserve">&lt;span style="color:red"&gt;Huwezi kusonga mbele hadi fomu ya idhini (assent) iwe imesainiwa.&lt;/span&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;span style = "color: red"&gt; Você não pode continuar a pesquisa se o consentimento não foi assinado &lt;/span&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">w_father_alive</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;span style="color:red"&gt;You indicated that the participant is the son/daughter of the household head, who is male, but that the participant's father is no longer alive or neither parent is alive. Please verify.&lt;/span&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;span style = "color: red"&gt; Umeonyesha kwamba mshiriki ni mtoto wa kiume/binti wa mkuu wa kaya, ambaye ni wa kiume, lakini baba wa mshiriki hayupo hai tena au hakuna mzazi yoyote wa mshiriki yupo hai. Tafadhali thibitisha. &lt;/span&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;span style = "color: red"&gt; Você indicou que o participante é filho / filha do chefe da família, que é do sexo masculino, mas que o pai do participante não está mais vivo ou nenhum dos pais está vivo. Verifique. &lt;/span&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">w_mother_alive</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;span style="color:red"&gt;You indicated that the participant is the son/daughter of the household head, who is female, but that the participant's mother is no longer alive or that neither parent is alive. Please verify.&lt;/span&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;span style = "color: red"&gt; Umeonyesha kwamba mshiriki ni mtoto wa kiume/binti wa mkuu wa kaya, ambaye ni wa kike, lakini mama wa mshiriki hayupo hai tena au hakuna mzazi yoyote wa mshiriki yupo hai. Tafadhali thibitisha. &lt;/span&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;span style = "color: red"&gt; Você indicou que o participante é filho / filha do chefe da família, que é mulher, mas que a mãe do participante não está mais viva ou que nenhum dos pais está vivo. Verifique. &lt;/span&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">w_father_mother_alive</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;span style="color:red"&gt;You indicated that the participant is the son/daughter of the household head but that neither of his/her parents are alive. Please verify responses.&lt;/span&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;span style = "color: red"&gt; Umeonyesha kwamba mshiriki ni mtoto wa kiume/binti wa mkuu wa kaya lakini hakuna mzazi yoyote wa mshiriki yupo hai. Tafadhali thibitisha. &lt;/span&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;span style = "color: red"&gt; Você indicou que o participante é filho / filha do chefe da família, mas nenhum de seus pais está vivo. Verifique as respostas. &lt;/span&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">travel_prompt</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;h4&gt;You will be prompted to answer questions about the {{data.travel_regularly_trips}} regular trips.&lt;/h4&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;h4&gt; Utaombwa kujibu maswali kuhusu safari za kawaida za {{data.travel_regularly_trips}}. &lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h4&gt; Você deverá responder a perguntas sobre as {{data.travel_regularly_trips}} viagens regulares. &lt;/h4&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">err_future_date</t>
   </si>
   <si>
@@ -3153,12 +3231,30 @@
     <t xml:space="preserve">Enter a date between 1 and 31. </t>
   </si>
   <si>
+    <t xml:space="preserve">Ingiza tahere (siku) kati ya 1 na 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insira uma data entre 1 e 31.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enter a month between 1 and 12. </t>
   </si>
   <si>
+    <t xml:space="preserve">Ingiza mwezi kati ya 1 na 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insira um mes entre 1 e 12</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enter a year between 1920 and 2021. </t>
   </si>
   <si>
+    <t xml:space="preserve">Ingiza mwaka kati ya 1920 na 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insira um ano entre 1920 e 2021.</t>
+  </si>
+  <si>
     <t xml:space="preserve">date_cons</t>
   </si>
   <si>
@@ -3199,6 +3295,12 @@
   </si>
   <si>
     <t xml:space="preserve">Select from today/tomorrow, enter a date, or ‘Don’t Know’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chagua kuanzia leo / kesho, ingiza tarehe, au 'Sijui'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selecione hoje / amanhã, insira uma data ou ‘Não sei’</t>
   </si>
   <si>
     <t xml:space="preserve">1. Given name:</t>
@@ -4523,7 +4625,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4581,14 +4683,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4705,11 +4799,11 @@
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.02734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.69"/>
   </cols>
@@ -5756,11 +5850,11 @@
   </sheetPr>
   <dimension ref="A1:Q1016"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.02734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.67"/>
@@ -7243,13 +7337,13 @@
   </sheetPr>
   <dimension ref="A1:Y1011"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C90" activeCellId="0" sqref="C90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.02734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.16"/>
@@ -11035,11 +11129,11 @@
   </sheetPr>
   <dimension ref="A1:Y763"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.02734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.79"/>
@@ -29463,11 +29557,11 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.02734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.04"/>
@@ -30603,13 +30697,13 @@
   </sheetPr>
   <dimension ref="A1:D353"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B344" activeCellId="0" sqref="B344"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.40234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="37.56"/>
@@ -31500,18 +31594,18 @@
         <v>594</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>155</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="C65" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>595</v>
+      <c r="C65" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31519,13 +31613,13 @@
         <v>156</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31533,7 +31627,7 @@
         <v>158</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>593</v>
@@ -31542,18 +31636,18 @@
         <v>594</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>159</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>600</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>600</v>
+        <v>602</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31561,13 +31655,13 @@
         <v>160</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31575,13 +31669,13 @@
         <v>161</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31589,13 +31683,13 @@
         <v>163</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31606,7 +31700,7 @@
         <v>164</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>164</v>
@@ -31617,13 +31711,13 @@
         <v>165</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31631,13 +31725,13 @@
         <v>166</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31648,10 +31742,10 @@
         <v>167</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31659,13 +31753,13 @@
         <v>168</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31673,13 +31767,13 @@
         <v>169</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31687,13 +31781,13 @@
         <v>170</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31701,13 +31795,13 @@
         <v>171</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31715,13 +31809,13 @@
         <v>172</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31729,13 +31823,13 @@
         <v>173</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31743,13 +31837,13 @@
         <v>175</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31757,13 +31851,13 @@
         <v>176</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31774,10 +31868,10 @@
         <v>178</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31788,10 +31882,10 @@
         <v>179</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31802,10 +31896,10 @@
         <v>180</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31816,10 +31910,10 @@
         <v>181</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31830,10 +31924,10 @@
         <v>182</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31847,7 +31941,7 @@
         <v>183</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31858,10 +31952,10 @@
         <v>184</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31872,10 +31966,10 @@
         <v>185</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31886,10 +31980,10 @@
         <v>186</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31900,10 +31994,10 @@
         <v>187</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31914,10 +32008,10 @@
         <v>189</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31928,10 +32022,10 @@
         <v>190</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31942,10 +32036,10 @@
         <v>191</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31956,10 +32050,10 @@
         <v>192</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31967,13 +32061,13 @@
         <v>194</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31981,13 +32075,13 @@
         <v>195</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31995,13 +32089,13 @@
         <v>197</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32009,13 +32103,13 @@
         <v>198</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32023,13 +32117,13 @@
         <v>199</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32040,10 +32134,10 @@
         <v>201</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32054,10 +32148,10 @@
         <v>202</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32068,10 +32162,10 @@
         <v>203</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32082,10 +32176,10 @@
         <v>204</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32096,10 +32190,10 @@
         <v>206</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32110,10 +32204,10 @@
         <v>207</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32124,10 +32218,10 @@
         <v>208</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32135,13 +32229,13 @@
         <v>210</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32149,13 +32243,13 @@
         <v>211</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32163,13 +32257,13 @@
         <v>212</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32177,13 +32271,13 @@
         <v>213</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32191,13 +32285,13 @@
         <v>214</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32205,13 +32299,13 @@
         <v>215</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32219,13 +32313,13 @@
         <v>216</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32233,13 +32327,13 @@
         <v>217</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32247,13 +32341,13 @@
         <v>218</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32261,13 +32355,13 @@
         <v>219</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32275,13 +32369,13 @@
         <v>220</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32289,13 +32383,13 @@
         <v>221</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32303,13 +32397,13 @@
         <v>222</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32317,13 +32411,13 @@
         <v>223</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32331,13 +32425,13 @@
         <v>225</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32345,13 +32439,13 @@
         <v>226</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32362,7 +32456,7 @@
         <v>228</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>228</v>
@@ -32376,10 +32470,10 @@
         <v>229</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32390,10 +32484,10 @@
         <v>230</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32401,13 +32495,13 @@
         <v>231</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32418,10 +32512,10 @@
         <v>233</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32432,10 +32526,10 @@
         <v>234</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32443,13 +32537,13 @@
         <v>235</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32460,10 +32554,10 @@
         <v>236</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32474,10 +32568,10 @@
         <v>237</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32485,13 +32579,13 @@
         <v>238</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32499,13 +32593,13 @@
         <v>239</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32513,13 +32607,13 @@
         <v>241</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32527,13 +32621,13 @@
         <v>242</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32541,13 +32635,13 @@
         <v>243</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32555,13 +32649,13 @@
         <v>244</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32569,13 +32663,13 @@
         <v>246</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32583,13 +32677,13 @@
         <v>247</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32597,13 +32691,13 @@
         <v>248</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32611,13 +32705,13 @@
         <v>249</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32625,13 +32719,13 @@
         <v>250</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32639,13 +32733,13 @@
         <v>251</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32653,13 +32747,13 @@
         <v>252</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32667,13 +32761,13 @@
         <v>253</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32681,13 +32775,13 @@
         <v>254</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32695,13 +32789,13 @@
         <v>255</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32709,13 +32803,13 @@
         <v>256</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32723,13 +32817,13 @@
         <v>257</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32737,13 +32831,13 @@
         <v>258</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32751,13 +32845,13 @@
         <v>259</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32765,13 +32859,13 @@
         <v>260</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32779,13 +32873,13 @@
         <v>262</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32793,13 +32887,13 @@
         <v>263</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32810,10 +32904,10 @@
         <v>265</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32824,10 +32918,10 @@
         <v>266</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32838,10 +32932,10 @@
         <v>267</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32852,10 +32946,10 @@
         <v>268</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32866,10 +32960,10 @@
         <v>270</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32880,10 +32974,10 @@
         <v>271</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32894,10 +32988,10 @@
         <v>272</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32908,10 +33002,10 @@
         <v>273</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32922,10 +33016,10 @@
         <v>274</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32950,10 +33044,10 @@
         <v>279</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32975,13 +33069,13 @@
         <v>281</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32995,7 +33089,7 @@
         <v>282</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33003,13 +33097,13 @@
         <v>283</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33020,7 +33114,7 @@
         <v>284</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>284</v>
@@ -33034,10 +33128,10 @@
         <v>285</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33048,7 +33142,7 @@
         <v>286</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>286</v>
@@ -33062,7 +33156,7 @@
         <v>287</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>287</v>
@@ -33073,13 +33167,13 @@
         <v>289</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33090,10 +33184,10 @@
         <v>290</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33101,13 +33195,13 @@
         <v>291</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33118,10 +33212,10 @@
         <v>292</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33132,10 +33226,10 @@
         <v>293</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33143,13 +33237,13 @@
         <v>294</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33160,10 +33254,10 @@
         <v>295</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33171,13 +33265,13 @@
         <v>296</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33185,13 +33279,13 @@
         <v>297</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33199,13 +33293,13 @@
         <v>298</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33213,13 +33307,13 @@
         <v>299</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33227,13 +33321,13 @@
         <v>300</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33241,13 +33335,13 @@
         <v>301</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33255,13 +33349,13 @@
         <v>302</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33271,72 +33365,72 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33346,100 +33440,100 @@
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33450,7 +33544,7 @@
         <v>33</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="C206" s="0" t="s">
         <v>593</v>
@@ -33464,13 +33558,13 @@
         <v>44</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33478,13 +33572,13 @@
         <v>50</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33492,27 +33586,27 @@
         <v>72</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>956</v>
-      </c>
-      <c r="C210" s="8" t="s">
-        <v>956</v>
-      </c>
-      <c r="D210" s="8" t="s">
-        <v>956</v>
+        <v>960</v>
+      </c>
+      <c r="C210" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="D210" s="0" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33520,223 +33614,223 @@
         <v>323</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>958</v>
+        <v>964</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>960</v>
+        <v>966</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>961</v>
-      </c>
-      <c r="C212" s="8" t="s">
-        <v>961</v>
-      </c>
-      <c r="D212" s="8" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>967</v>
+      </c>
+      <c r="C212" s="0" t="s">
+        <v>968</v>
+      </c>
+      <c r="D212" s="0" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>963</v>
-      </c>
-      <c r="C213" s="8" t="s">
-        <v>963</v>
-      </c>
-      <c r="D213" s="8" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>971</v>
+      </c>
+      <c r="C213" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="D213" s="0" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>964</v>
+        <v>974</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>965</v>
-      </c>
-      <c r="C214" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="D214" s="8" t="s">
-        <v>965</v>
+        <v>975</v>
+      </c>
+      <c r="C214" s="0" t="s">
+        <v>976</v>
+      </c>
+      <c r="D214" s="0" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="46.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>966</v>
+        <v>978</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>967</v>
+        <v>979</v>
       </c>
       <c r="C215" s="13" t="s">
-        <v>968</v>
+        <v>980</v>
       </c>
       <c r="D215" s="13" t="s">
-        <v>969</v>
+        <v>981</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="46.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>970</v>
+        <v>982</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>971</v>
+        <v>983</v>
       </c>
       <c r="C216" s="13" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
       <c r="D216" s="13" t="s">
-        <v>973</v>
+        <v>985</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>974</v>
+        <v>986</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>975</v>
+        <v>987</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>976</v>
+        <v>988</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>977</v>
+        <v>989</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>978</v>
+        <v>990</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>979</v>
+        <v>991</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>980</v>
+        <v>992</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>981</v>
+        <v>993</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>982</v>
+        <v>994</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>983</v>
+        <v>995</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>984</v>
+        <v>996</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>985</v>
+        <v>997</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>986</v>
+        <v>998</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>987</v>
+        <v>999</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>988</v>
+        <v>1000</v>
       </c>
       <c r="D220" s="0" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>990</v>
+        <v>1002</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>991</v>
+        <v>1003</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>991</v>
+        <v>1003</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>992</v>
+        <v>1004</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>993</v>
-      </c>
-      <c r="C222" s="8" t="s">
-        <v>993</v>
-      </c>
-      <c r="D222" s="8" t="s">
-        <v>993</v>
+        <v>1005</v>
+      </c>
+      <c r="C222" s="0" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D222" s="0" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>994</v>
+        <v>1008</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>995</v>
+        <v>1009</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>995</v>
+        <v>1009</v>
       </c>
       <c r="D223" s="0" t="s">
-        <v>995</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>996</v>
+        <v>1010</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>997</v>
+        <v>1011</v>
       </c>
       <c r="C224" s="13" t="s">
-        <v>998</v>
+        <v>1012</v>
       </c>
       <c r="D224" s="13" t="s">
-        <v>999</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>1000</v>
+        <v>1014</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>1001</v>
+        <v>1015</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>1002</v>
+        <v>1016</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>1003</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>1004</v>
+        <v>1018</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>1005</v>
+        <v>1019</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>1006</v>
+        <v>1020</v>
       </c>
       <c r="D226" s="0" t="s">
-        <v>1007</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33744,133 +33838,139 @@
         <v>27</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>1008</v>
+        <v>1022</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>1009</v>
+        <v>1023</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>1010</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>1011</v>
+        <v>1025</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1026</v>
+      </c>
+      <c r="C228" s="0" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D228" s="0" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>1013</v>
+        <v>1029</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C229" s="8" t="s">
-        <v>1014</v>
+        <v>1030</v>
+      </c>
+      <c r="C229" s="0" t="s">
+        <v>1031</v>
       </c>
       <c r="D229" s="0" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>1016</v>
+        <v>1033</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C230" s="8" t="s">
-        <v>1017</v>
+        <v>1034</v>
+      </c>
+      <c r="C230" s="0" t="s">
+        <v>1035</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>1019</v>
+        <v>1037</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C231" s="8" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D231" s="8" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1038</v>
+      </c>
+      <c r="C231" s="0" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D231" s="0" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>1021</v>
+        <v>1041</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C232" s="8" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D232" s="8" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1042</v>
+      </c>
+      <c r="C232" s="0" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D232" s="0" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>1023</v>
+        <v>1045</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C233" s="8" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D233" s="8" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1046</v>
+      </c>
+      <c r="C233" s="0" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D233" s="0" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>1025</v>
+        <v>1049</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C234" s="8" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D234" s="8" t="s">
-        <v>1026</v>
+        <v>1050</v>
+      </c>
+      <c r="C234" s="0" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D234" s="0" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>1027</v>
+        <v>1053</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>1028</v>
+        <v>1054</v>
       </c>
       <c r="C235" s="13" t="s">
-        <v>1029</v>
+        <v>1055</v>
       </c>
       <c r="D235" s="13" t="s">
-        <v>1030</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="47.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>1031</v>
+        <v>1057</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>1032</v>
+        <v>1058</v>
       </c>
       <c r="C236" s="13" t="s">
-        <v>1033</v>
+        <v>1059</v>
       </c>
       <c r="D236" s="13" t="s">
-        <v>1034</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33878,13 +33978,13 @@
         <v>26</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>1035</v>
+        <v>1061</v>
       </c>
       <c r="C238" s="13" t="s">
-        <v>1036</v>
+        <v>1062</v>
       </c>
       <c r="D238" s="13" t="s">
-        <v>1037</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="32.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -33892,111 +33992,111 @@
         <v>30</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>1038</v>
+        <v>1064</v>
       </c>
       <c r="C239" s="13" t="s">
-        <v>1039</v>
+        <v>1065</v>
       </c>
       <c r="D239" s="13" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
         <v>34</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C240" s="8" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D240" s="8" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1067</v>
+      </c>
+      <c r="C240" s="0" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D240" s="0" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
         <v>45</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C241" s="8" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D241" s="8" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1070</v>
+      </c>
+      <c r="C241" s="0" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D241" s="0" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
         <v>51</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C242" s="8" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D242" s="8" t="s">
-        <v>1043</v>
+        <v>1073</v>
+      </c>
+      <c r="C242" s="0" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D242" s="0" t="s">
+        <v>1075</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>1044</v>
+        <v>1076</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>1045</v>
+        <v>1077</v>
       </c>
       <c r="C243" s="13" t="s">
-        <v>1046</v>
+        <v>1078</v>
       </c>
       <c r="D243" s="13" t="s">
-        <v>1047</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>1048</v>
+        <v>1080</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>1049</v>
+        <v>1081</v>
       </c>
       <c r="C244" s="13" t="s">
-        <v>1050</v>
+        <v>1082</v>
       </c>
       <c r="D244" s="13" t="s">
-        <v>1051</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>1052</v>
+        <v>1084</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>1053</v>
+        <v>1085</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>1054</v>
+        <v>1086</v>
       </c>
       <c r="D245" s="13" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>1056</v>
+        <v>1088</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C246" s="8" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D246" s="8" t="s">
-        <v>1057</v>
+        <v>1089</v>
+      </c>
+      <c r="C246" s="0" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D246" s="0" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34004,13 +34104,13 @@
         <v>24</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>1058</v>
+        <v>1092</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>1059</v>
+        <v>1093</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>1060</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34018,13 +34118,13 @@
         <v>28</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>1061</v>
+        <v>1095</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>1062</v>
+        <v>1096</v>
       </c>
       <c r="D250" s="0" t="s">
-        <v>1063</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34032,13 +34132,13 @@
         <v>32</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>1064</v>
+        <v>1098</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>1065</v>
+        <v>1099</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>1066</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34046,13 +34146,13 @@
         <v>60</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>1067</v>
+        <v>1101</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>1068</v>
+        <v>1102</v>
       </c>
       <c r="D252" s="0" t="s">
-        <v>1069</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34060,13 +34160,13 @@
         <v>67</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>1070</v>
+        <v>1104</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>1071</v>
+        <v>1105</v>
       </c>
       <c r="D253" s="0" t="s">
-        <v>1072</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34074,13 +34174,13 @@
         <v>69</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>1073</v>
+        <v>1107</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>1074</v>
+        <v>1108</v>
       </c>
       <c r="D254" s="0" t="s">
-        <v>1075</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34088,1361 +34188,1361 @@
         <v>70</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>1076</v>
+        <v>1110</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>1077</v>
+        <v>1111</v>
       </c>
       <c r="D255" s="0" t="s">
-        <v>1078</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>1080</v>
+        <v>1114</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>1081</v>
+        <v>1115</v>
       </c>
       <c r="D256" s="0" t="s">
-        <v>1082</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>1083</v>
+        <v>1117</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>1084</v>
+        <v>1118</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>1085</v>
+        <v>1119</v>
       </c>
       <c r="D257" s="0" t="s">
-        <v>1086</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>1087</v>
+        <v>1121</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>1088</v>
+        <v>1122</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>1089</v>
+        <v>1123</v>
       </c>
       <c r="D258" s="0" t="s">
-        <v>1090</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>1091</v>
+        <v>1125</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>1092</v>
+        <v>1126</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>1093</v>
+        <v>1127</v>
       </c>
       <c r="D259" s="0" t="s">
-        <v>1094</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>1095</v>
+        <v>1129</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>1096</v>
+        <v>1130</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>1097</v>
+        <v>1131</v>
       </c>
       <c r="D260" s="0" t="s">
-        <v>1098</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>1099</v>
+        <v>1133</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>1100</v>
+        <v>1134</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>1101</v>
+        <v>1135</v>
       </c>
       <c r="D261" s="0" t="s">
-        <v>1102</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>1103</v>
+        <v>1137</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>1104</v>
+        <v>1138</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>1105</v>
+        <v>1139</v>
       </c>
       <c r="D262" s="0" t="s">
-        <v>1106</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>1107</v>
+        <v>1141</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>1108</v>
+        <v>1142</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>1109</v>
+        <v>1143</v>
       </c>
       <c r="D263" s="0" t="s">
-        <v>1110</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>1111</v>
+        <v>1145</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>1112</v>
+        <v>1146</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>1113</v>
+        <v>1147</v>
       </c>
       <c r="D264" s="0" t="s">
-        <v>1114</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>1115</v>
+        <v>1149</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>1116</v>
+        <v>1150</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>1117</v>
+        <v>1151</v>
       </c>
       <c r="D265" s="0" t="s">
-        <v>1118</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>1119</v>
+        <v>1153</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>1120</v>
+        <v>1154</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>1121</v>
+        <v>1155</v>
       </c>
       <c r="D266" s="0" t="s">
-        <v>1122</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>1123</v>
+        <v>1157</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>1124</v>
+        <v>1158</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>1125</v>
+        <v>1159</v>
       </c>
       <c r="D267" s="0" t="s">
-        <v>1126</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>1127</v>
+        <v>1161</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>1076</v>
+        <v>1110</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>1128</v>
+        <v>1162</v>
       </c>
       <c r="D268" s="0" t="s">
-        <v>1129</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>1130</v>
+        <v>1164</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>1131</v>
+        <v>1165</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>1131</v>
+        <v>1165</v>
       </c>
       <c r="D269" s="0" t="s">
-        <v>1131</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>1132</v>
+        <v>1166</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>1133</v>
+        <v>1167</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>1134</v>
+        <v>1168</v>
       </c>
       <c r="D270" s="0" t="s">
-        <v>1135</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>1136</v>
+        <v>1170</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>1137</v>
+        <v>1171</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>1138</v>
+        <v>1172</v>
       </c>
       <c r="D271" s="0" t="s">
-        <v>1139</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>1140</v>
+        <v>1174</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>1141</v>
+        <v>1175</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>1142</v>
+        <v>1176</v>
       </c>
       <c r="D272" s="0" t="s">
-        <v>1143</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>1144</v>
+        <v>1178</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>1145</v>
+        <v>1179</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>1146</v>
+        <v>1180</v>
       </c>
       <c r="D273" s="0" t="s">
-        <v>1147</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>1148</v>
+        <v>1182</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>1149</v>
+        <v>1183</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>1150</v>
+        <v>1184</v>
       </c>
       <c r="D274" s="0" t="s">
-        <v>1151</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>1152</v>
+        <v>1186</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>1153</v>
+        <v>1187</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>1154</v>
+        <v>1188</v>
       </c>
       <c r="D275" s="0" t="s">
-        <v>1155</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>1156</v>
+        <v>1190</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>1076</v>
+        <v>1110</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>1128</v>
+        <v>1162</v>
       </c>
       <c r="D276" s="0" t="s">
-        <v>1129</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>1157</v>
+        <v>1191</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>1158</v>
+        <v>1192</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>1159</v>
+        <v>1193</v>
       </c>
       <c r="D277" s="0" t="s">
-        <v>1160</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>1161</v>
+        <v>1195</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>1162</v>
+        <v>1196</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>1163</v>
+        <v>1197</v>
       </c>
       <c r="D278" s="0" t="s">
-        <v>1164</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>1165</v>
+        <v>1199</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>1166</v>
+        <v>1200</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>1167</v>
+        <v>1201</v>
       </c>
       <c r="D279" s="0" t="s">
-        <v>1168</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>1169</v>
+        <v>1203</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>1170</v>
+        <v>1204</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>1171</v>
+        <v>1205</v>
       </c>
       <c r="D280" s="0" t="s">
-        <v>1172</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>1173</v>
+        <v>1207</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>1174</v>
+        <v>1208</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>1175</v>
+        <v>1209</v>
       </c>
       <c r="D281" s="0" t="s">
-        <v>1176</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>1177</v>
+        <v>1211</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>1178</v>
+        <v>1212</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>1179</v>
+        <v>1213</v>
       </c>
       <c r="D282" s="0" t="s">
-        <v>1180</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>1181</v>
+        <v>1215</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>1182</v>
+        <v>1216</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>1183</v>
+        <v>1217</v>
       </c>
       <c r="D283" s="0" t="s">
-        <v>1184</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>1185</v>
+        <v>1219</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>1186</v>
+        <v>1220</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>1187</v>
+        <v>1221</v>
       </c>
       <c r="D284" s="0" t="s">
-        <v>1188</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>1189</v>
+        <v>1223</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>1190</v>
+        <v>1224</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>1191</v>
+        <v>1225</v>
       </c>
       <c r="D285" s="0" t="s">
-        <v>1192</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>1193</v>
+        <v>1227</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>1194</v>
+        <v>1228</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>1195</v>
+        <v>1229</v>
       </c>
       <c r="D286" s="0" t="s">
-        <v>1196</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>1197</v>
+        <v>1231</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>1198</v>
+        <v>1232</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>1199</v>
+        <v>1233</v>
       </c>
       <c r="D287" s="0" t="s">
-        <v>1200</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>1201</v>
+        <v>1235</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>1202</v>
+        <v>1236</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>1203</v>
+        <v>1237</v>
       </c>
       <c r="D288" s="0" t="s">
-        <v>1204</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>1205</v>
+        <v>1239</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>1206</v>
+        <v>1240</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>1207</v>
+        <v>1241</v>
       </c>
       <c r="D289" s="0" t="s">
-        <v>1208</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>1209</v>
+        <v>1243</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>1210</v>
+        <v>1244</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>1211</v>
+        <v>1245</v>
       </c>
       <c r="D291" s="0" t="s">
-        <v>1212</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="2" t="s">
-        <v>1213</v>
+        <v>1247</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>1214</v>
+        <v>1248</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>1215</v>
+        <v>1249</v>
       </c>
       <c r="D292" s="0" t="s">
-        <v>1216</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="2" t="s">
-        <v>1217</v>
+        <v>1251</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>1218</v>
+        <v>1252</v>
       </c>
       <c r="C293" s="0" t="s">
-        <v>1219</v>
+        <v>1253</v>
       </c>
       <c r="D293" s="0" t="s">
-        <v>1220</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="2" t="s">
-        <v>1221</v>
+        <v>1255</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>1222</v>
+        <v>1256</v>
       </c>
       <c r="C294" s="0" t="s">
-        <v>1223</v>
+        <v>1257</v>
       </c>
       <c r="D294" s="0" t="s">
-        <v>1224</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="2" t="s">
-        <v>1225</v>
+        <v>1259</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>1226</v>
+        <v>1260</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>1227</v>
+        <v>1261</v>
       </c>
       <c r="D295" s="0" t="s">
-        <v>1228</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>1229</v>
+        <v>1263</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>1230</v>
+        <v>1264</v>
       </c>
       <c r="C296" s="0" t="s">
-        <v>1231</v>
+        <v>1265</v>
       </c>
       <c r="D296" s="0" t="s">
-        <v>1232</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>1233</v>
+        <v>1267</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>1234</v>
+        <v>1268</v>
       </c>
       <c r="C297" s="0" t="s">
-        <v>1235</v>
+        <v>1269</v>
       </c>
       <c r="D297" s="0" t="s">
-        <v>1236</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>1237</v>
+        <v>1271</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>1238</v>
+        <v>1272</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>1239</v>
+        <v>1273</v>
       </c>
       <c r="D298" s="0" t="s">
-        <v>1240</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>1241</v>
+        <v>1275</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>1242</v>
+        <v>1276</v>
       </c>
       <c r="C299" s="0" t="s">
-        <v>1243</v>
+        <v>1277</v>
       </c>
       <c r="D299" s="0" t="s">
-        <v>1244</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>1245</v>
+        <v>1279</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>1246</v>
+        <v>1280</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>1247</v>
+        <v>1281</v>
       </c>
       <c r="D300" s="0" t="s">
-        <v>1248</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
-        <v>1249</v>
+        <v>1283</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>1250</v>
+        <v>1284</v>
       </c>
       <c r="C301" s="0" t="s">
-        <v>1251</v>
+        <v>1285</v>
       </c>
       <c r="D301" s="0" t="s">
-        <v>1252</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
-        <v>1253</v>
+        <v>1287</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>1254</v>
+        <v>1288</v>
       </c>
       <c r="C302" s="0" t="s">
-        <v>1255</v>
+        <v>1289</v>
       </c>
       <c r="D302" s="0" t="s">
-        <v>1256</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>1257</v>
+        <v>1291</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>1258</v>
+        <v>1292</v>
       </c>
       <c r="C303" s="0" t="s">
-        <v>1259</v>
+        <v>1293</v>
       </c>
       <c r="D303" s="0" t="s">
-        <v>1260</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>1261</v>
+        <v>1295</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>1262</v>
+        <v>1296</v>
       </c>
       <c r="C304" s="0" t="s">
-        <v>1263</v>
+        <v>1297</v>
       </c>
       <c r="D304" s="0" t="s">
-        <v>1264</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>1265</v>
+        <v>1299</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>1266</v>
+        <v>1300</v>
       </c>
       <c r="C305" s="0" t="s">
-        <v>1267</v>
+        <v>1301</v>
       </c>
       <c r="D305" s="0" t="s">
-        <v>1268</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
-        <v>1269</v>
+        <v>1303</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>1270</v>
+        <v>1304</v>
       </c>
       <c r="C306" s="0" t="s">
-        <v>1271</v>
+        <v>1305</v>
       </c>
       <c r="D306" s="0" t="s">
-        <v>1272</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>1273</v>
+        <v>1307</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>1274</v>
+        <v>1308</v>
       </c>
       <c r="C307" s="0" t="s">
-        <v>1275</v>
+        <v>1309</v>
       </c>
       <c r="D307" s="0" t="s">
-        <v>1276</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>1277</v>
+        <v>1311</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>1278</v>
+        <v>1312</v>
       </c>
       <c r="C308" s="0" t="s">
-        <v>1279</v>
+        <v>1313</v>
       </c>
       <c r="D308" s="0" t="s">
-        <v>1280</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
-        <v>1281</v>
+        <v>1315</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>1282</v>
+        <v>1316</v>
       </c>
       <c r="C309" s="0" t="s">
-        <v>1283</v>
+        <v>1317</v>
       </c>
       <c r="D309" s="0" t="s">
-        <v>1284</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>1285</v>
+        <v>1319</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>1286</v>
+        <v>1320</v>
       </c>
       <c r="C310" s="0" t="s">
-        <v>1287</v>
+        <v>1321</v>
       </c>
       <c r="D310" s="0" t="s">
-        <v>1288</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
-        <v>1289</v>
+        <v>1323</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>1290</v>
+        <v>1324</v>
       </c>
       <c r="C311" s="0" t="s">
-        <v>1291</v>
+        <v>1325</v>
       </c>
       <c r="D311" s="0" t="s">
-        <v>1292</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>1293</v>
+        <v>1327</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>1294</v>
+        <v>1328</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>1295</v>
+        <v>1329</v>
       </c>
       <c r="D312" s="0" t="s">
-        <v>1296</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>1297</v>
+        <v>1331</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>1298</v>
+        <v>1332</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>1299</v>
+        <v>1333</v>
       </c>
       <c r="D313" s="0" t="s">
-        <v>1300</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
-        <v>1301</v>
+        <v>1335</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>1302</v>
+        <v>1336</v>
       </c>
       <c r="C314" s="0" t="s">
-        <v>1303</v>
+        <v>1337</v>
       </c>
       <c r="D314" s="0" t="s">
-        <v>1304</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
-        <v>1305</v>
+        <v>1339</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>1306</v>
+        <v>1340</v>
       </c>
       <c r="C315" s="0" t="s">
-        <v>1307</v>
+        <v>1341</v>
       </c>
       <c r="D315" s="0" t="s">
-        <v>1308</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
-        <v>1309</v>
+        <v>1343</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>1310</v>
+        <v>1344</v>
       </c>
       <c r="C316" s="0" t="s">
-        <v>1311</v>
+        <v>1345</v>
       </c>
       <c r="D316" s="0" t="s">
-        <v>1312</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
-        <v>1313</v>
+        <v>1347</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>1314</v>
+        <v>1348</v>
       </c>
       <c r="C317" s="0" t="s">
-        <v>1315</v>
+        <v>1349</v>
       </c>
       <c r="D317" s="0" t="s">
-        <v>1316</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
-        <v>1317</v>
+        <v>1351</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>1318</v>
+        <v>1352</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>1319</v>
+        <v>1353</v>
       </c>
       <c r="D318" s="0" t="s">
-        <v>1320</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
-        <v>1321</v>
+        <v>1355</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>1322</v>
+        <v>1356</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>1323</v>
+        <v>1357</v>
       </c>
       <c r="D319" s="0" t="s">
-        <v>1324</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
-        <v>1325</v>
+        <v>1359</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>1326</v>
+        <v>1360</v>
       </c>
       <c r="C320" s="0" t="s">
-        <v>1327</v>
+        <v>1361</v>
       </c>
       <c r="D320" s="0" t="s">
-        <v>1328</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
-        <v>1329</v>
+        <v>1363</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>1330</v>
+        <v>1364</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>1331</v>
+        <v>1365</v>
       </c>
       <c r="D321" s="0" t="s">
-        <v>1332</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
-        <v>1333</v>
+        <v>1367</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>1334</v>
+        <v>1368</v>
       </c>
       <c r="C322" s="0" t="s">
-        <v>1335</v>
+        <v>1369</v>
       </c>
       <c r="D322" s="0" t="s">
-        <v>1336</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
-        <v>1337</v>
+        <v>1371</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>1338</v>
+        <v>1372</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>1339</v>
+        <v>1373</v>
       </c>
       <c r="D323" s="0" t="s">
-        <v>1340</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
-        <v>1341</v>
+        <v>1375</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>1342</v>
+        <v>1376</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>1343</v>
+        <v>1377</v>
       </c>
       <c r="D324" s="0" t="s">
-        <v>1344</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
-        <v>1345</v>
+        <v>1379</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>1346</v>
+        <v>1380</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>1347</v>
+        <v>1381</v>
       </c>
       <c r="D325" s="0" t="s">
-        <v>1348</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
-        <v>1349</v>
+        <v>1383</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>1350</v>
+        <v>1384</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>1351</v>
+        <v>1385</v>
       </c>
       <c r="D326" s="0" t="s">
-        <v>1352</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
-        <v>1353</v>
+        <v>1387</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>1354</v>
+        <v>1388</v>
       </c>
       <c r="C327" s="0" t="s">
-        <v>1355</v>
+        <v>1389</v>
       </c>
       <c r="D327" s="0" t="s">
-        <v>1356</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
-        <v>1357</v>
+        <v>1391</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>1358</v>
+        <v>1392</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>1359</v>
+        <v>1393</v>
       </c>
       <c r="D328" s="0" t="s">
-        <v>1360</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
-        <v>1361</v>
+        <v>1395</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>1362</v>
+        <v>1396</v>
       </c>
       <c r="C329" s="0" t="s">
-        <v>1363</v>
+        <v>1397</v>
       </c>
       <c r="D329" s="0" t="s">
-        <v>1364</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
-        <v>1365</v>
+        <v>1399</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>1366</v>
+        <v>1400</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>1367</v>
+        <v>1401</v>
       </c>
       <c r="D330" s="0" t="s">
-        <v>1368</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
-        <v>1369</v>
+        <v>1403</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>1370</v>
+        <v>1404</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>1371</v>
+        <v>1405</v>
       </c>
       <c r="D331" s="0" t="s">
-        <v>1372</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
-        <v>1373</v>
+        <v>1407</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>1374</v>
+        <v>1408</v>
       </c>
       <c r="C332" s="0" t="s">
-        <v>1375</v>
+        <v>1409</v>
       </c>
       <c r="D332" s="0" t="s">
-        <v>1376</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
-        <v>1377</v>
+        <v>1411</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>1378</v>
+        <v>1412</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>1379</v>
+        <v>1413</v>
       </c>
       <c r="D333" s="0" t="s">
-        <v>1380</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
-        <v>1381</v>
+        <v>1415</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>1382</v>
+        <v>1416</v>
       </c>
       <c r="C334" s="0" t="s">
-        <v>1383</v>
+        <v>1417</v>
       </c>
       <c r="D334" s="0" t="s">
-        <v>1384</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
-        <v>1385</v>
+        <v>1419</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>1386</v>
+        <v>1420</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>1387</v>
+        <v>1421</v>
       </c>
       <c r="D335" s="0" t="s">
-        <v>1388</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
-        <v>1389</v>
+        <v>1423</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>1390</v>
+        <v>1424</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>1391</v>
+        <v>1425</v>
       </c>
       <c r="D336" s="0" t="s">
-        <v>1392</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
-        <v>1393</v>
+        <v>1427</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>1394</v>
+        <v>1428</v>
       </c>
       <c r="C337" s="0" t="s">
-        <v>1395</v>
+        <v>1429</v>
       </c>
       <c r="D337" s="0" t="s">
-        <v>1396</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
-        <v>1397</v>
+        <v>1431</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>1398</v>
+        <v>1432</v>
       </c>
       <c r="C339" s="13" t="s">
-        <v>1399</v>
+        <v>1433</v>
       </c>
       <c r="D339" s="13" t="s">
-        <v>1400</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
-        <v>1401</v>
+        <v>1435</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>1402</v>
+        <v>1436</v>
       </c>
       <c r="C340" s="13" t="s">
-        <v>1403</v>
+        <v>1437</v>
       </c>
       <c r="D340" s="13" t="s">
-        <v>1404</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
-        <v>1405</v>
+        <v>1439</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>1406</v>
+        <v>1440</v>
       </c>
       <c r="C341" s="13" t="s">
-        <v>1407</v>
+        <v>1441</v>
       </c>
       <c r="D341" s="13" t="s">
-        <v>1408</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
-        <v>1409</v>
+        <v>1443</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>1410</v>
+        <v>1444</v>
       </c>
       <c r="C342" s="13" t="s">
-        <v>1411</v>
+        <v>1445</v>
       </c>
       <c r="D342" s="13" t="s">
-        <v>1412</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
-        <v>1413</v>
+        <v>1447</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>1414</v>
+        <v>1448</v>
       </c>
       <c r="C343" s="13" t="s">
-        <v>1415</v>
+        <v>1449</v>
       </c>
       <c r="D343" s="13" t="s">
-        <v>1416</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
-        <v>1417</v>
+        <v>1451</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>1418</v>
+        <v>1452</v>
       </c>
       <c r="C344" s="13" t="s">
-        <v>1419</v>
+        <v>1453</v>
       </c>
       <c r="D344" s="13" t="s">
-        <v>1420</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
-        <v>1421</v>
+        <v>1455</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>1422</v>
+        <v>1456</v>
       </c>
       <c r="C345" s="13" t="s">
-        <v>1423</v>
+        <v>1457</v>
       </c>
       <c r="D345" s="13" t="s">
-        <v>1424</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
-        <v>1425</v>
+        <v>1459</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>1426</v>
+        <v>1460</v>
       </c>
       <c r="C346" s="13" t="s">
-        <v>1427</v>
+        <v>1461</v>
       </c>
       <c r="D346" s="13" t="s">
-        <v>1428</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
-        <v>1429</v>
+        <v>1463</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>1430</v>
+        <v>1464</v>
       </c>
       <c r="C347" s="13" t="s">
-        <v>1431</v>
+        <v>1465</v>
       </c>
       <c r="D347" s="13" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="16.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
-        <v>1433</v>
+        <v>1467</v>
       </c>
       <c r="B348" s="14" t="s">
-        <v>1434</v>
+        <v>1468</v>
       </c>
       <c r="C348" s="13" t="s">
-        <v>1435</v>
+        <v>1469</v>
       </c>
       <c r="D348" s="13" t="s">
-        <v>1436</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
-        <v>1437</v>
+        <v>1471</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>1438</v>
-      </c>
-      <c r="C349" s="15" t="s">
-        <v>1439</v>
-      </c>
-      <c r="D349" s="16" t="s">
-        <v>1440</v>
+        <v>1472</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D349" s="4" t="s">
+        <v>1474</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="4" t="s">
-        <v>1441</v>
+        <v>1475</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C350" s="15" t="s">
-        <v>1443</v>
-      </c>
-      <c r="D350" s="15" t="s">
-        <v>1444</v>
+        <v>1476</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>1478</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
-        <v>1445</v>
+        <v>1479</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>1446</v>
+        <v>1480</v>
       </c>
       <c r="C351" s="13" t="s">
-        <v>1046</v>
+        <v>1078</v>
       </c>
       <c r="D351" s="13" t="s">
-        <v>1047</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
-        <v>1447</v>
+        <v>1481</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>1448</v>
+        <v>1482</v>
       </c>
       <c r="C352" s="13" t="s">
-        <v>1050</v>
+        <v>1082</v>
       </c>
       <c r="D352" s="13" t="s">
-        <v>1051</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
-        <v>1449</v>
+        <v>1483</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>1450</v>
+        <v>1484</v>
       </c>
       <c r="C353" s="13" t="s">
-        <v>1054</v>
+        <v>1086</v>
       </c>
       <c r="D353" s="13" t="s">
-        <v>1055</v>
+        <v>1087</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:D1 B206:B236 C66:D66 B249:D257 B261:D261 B264:D289 B349:B1048576 C206:D214 C217:D223 C291:D338 D354:D1048576 C350:D350 C225:D234 C349 D349 C352:C1048576 B291:B347">
+  <conditionalFormatting sqref="B1:D1 B211:B236 C66:D66 B249:D257 B261:D261 B264:D289 B349:B1048576 C223:D223 C291:D338 D354:D1048576 C350:D350 C349 D349 C352:C1048576 B291:B347 C225:D227 C211:D211 C217:D221 B206:D209">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
@@ -35452,7 +35552,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B349:B1048576 C237:D237 C217:D223 C247:D338 D354:D1048576 C350:D350 C237 C240:D242 C225:D234 C244:C338 D246 C349 D349 C352:C1048576 C1:D214 B1:B347">
+  <conditionalFormatting sqref="B349:B1048576 C237:D237 C223:D223 C247:D338 D354:D1048576 C350:D350 C237 C247:C338 C349 D349 C352:C1048576 B211:B347 C1:D64 C66:D67 C244:C245 C225:D227 C211:D211 C217:D221 B1:B209 C69:D209">
     <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>

--- a/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2570" uniqueCount="1485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2570" uniqueCount="1483">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -1815,12 +1815,12 @@
     <t xml:space="preserve">Week(s) ago</t>
   </si>
   <si>
+    <t xml:space="preserve">Semana(s) atrás</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wiki zilizopita</t>
   </si>
   <si>
-    <t xml:space="preserve">Semana(s) atrás</t>
-  </si>
-  <si>
     <t xml:space="preserve">Month(s) ago</t>
   </si>
   <si>
@@ -1836,12 +1836,12 @@
     <t xml:space="preserve">Week(s)</t>
   </si>
   <si>
+    <t xml:space="preserve">Semana (s)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wiki</t>
   </si>
   <si>
-    <t xml:space="preserve">Semana (s)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Month(s)</t>
   </si>
   <si>
@@ -2907,13 +2907,7 @@
     <t xml:space="preserve">hh_id_note</t>
   </si>
   <si>
-    <t xml:space="preserve">Household Identification {{data.hh_id}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utambulisho wa Kaya {{data.hh_id}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identificação do agregado{{data.hh_id}}</t>
+    <t xml:space="preserve">Household ID: {{data.hh_id}}</t>
   </si>
   <si>
     <t xml:space="preserve">Date</t>
@@ -2931,36 +2925,36 @@
     <t xml:space="preserve">or enter number </t>
   </si>
   <si>
+    <t xml:space="preserve">ou digite um número</t>
+  </si>
+  <si>
     <t xml:space="preserve">au ingiza namba</t>
   </si>
   <si>
-    <t xml:space="preserve">ou digite um número</t>
-  </si>
-  <si>
     <t xml:space="preserve">days_weeks_months_years</t>
   </si>
   <si>
     <t xml:space="preserve">Days/Weeks/Months/Years </t>
   </si>
   <si>
+    <t xml:space="preserve">Dias / semanas / meses / anos</t>
+  </si>
+  <si>
     <t xml:space="preserve">Siku/Wiki/Mwezi/Mwaka</t>
   </si>
   <si>
-    <t xml:space="preserve">Dias / semanas / meses / anos</t>
-  </si>
-  <si>
     <t xml:space="preserve">days_weeks_months_dk</t>
   </si>
   <si>
     <t xml:space="preserve">Days/Weeks/Months Ago or Don't Know</t>
   </si>
   <si>
+    <t xml:space="preserve">Dias / semanas / meses atrás ou não sei</t>
+  </si>
+  <si>
     <t xml:space="preserve">Siku/Wiki/Mwezi/Mwaka zilizopita au Sijui</t>
   </si>
   <si>
-    <t xml:space="preserve">Dias / semanas / meses atrás ou não sei</t>
-  </si>
-  <si>
     <t xml:space="preserve">err_death_date</t>
   </si>
   <si>
@@ -3045,12 +3039,12 @@
     <t xml:space="preserve">Snake Bite details</t>
   </si>
   <si>
+    <t xml:space="preserve">Detalhes da mordida de cobra</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maelezo kuhusu kuumwa na nyoka</t>
   </si>
   <si>
-    <t xml:space="preserve">Detalhes da mordida de cobra</t>
-  </si>
-  <si>
     <t xml:space="preserve">name_id</t>
   </si>
   <si>
@@ -3108,84 +3102,84 @@
     <t xml:space="preserve">Section to be filled out for households that were not part of the minicensus</t>
   </si>
   <si>
+    <t xml:space="preserve">Secção a ser preenchida para famílias que não faziam parte do minicenso.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sehemu inayojazwa kwa kaya ambazo hazikuwa sehemu ya Minicensus</t>
   </si>
   <si>
-    <t xml:space="preserve">Secção a ser preenchida para famílias que não faziam parte do minicenso.</t>
-  </si>
-  <si>
     <t xml:space="preserve">err_no_consent</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;span style="color:red"&gt;You can't continue the survey if the informed consent has not been signed&lt;/span&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;span style = "color: red"&gt; Você não pode continuar a pesquisa se o consentimento informado não foi assinado &lt;/span&gt; </t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;span style="color:red"&gt;Huwezi kusonga mbele hadi fomu ya idhini iwe imesainiwa.&lt;/span&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;span style = "color: red"&gt; Você não pode continuar a pesquisa se o consentimento informado não foi assinado &lt;/span&gt; </t>
-  </si>
-  <si>
     <t xml:space="preserve">err_no_assent</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;span style="color:red"&gt;You can't continue the survey if the assent has not been signed&lt;/span&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;span style = "color: red"&gt; Você não pode continuar a pesquisa se o consentimento não foi assinado &lt;/span&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;span style="color:red"&gt;Huwezi kusonga mbele hadi fomu ya idhini (assent) iwe imesainiwa.&lt;/span&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;span style = "color: red"&gt; Você não pode continuar a pesquisa se o consentimento não foi assinado &lt;/span&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">w_father_alive</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;span style="color:red"&gt;You indicated that the participant is the son/daughter of the household head, who is male, but that the participant's father is no longer alive or neither parent is alive. Please verify.&lt;/span&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;span style = "color: red"&gt; Você indicou que o participante é filho / filha do chefe da família, que é do sexo masculino, mas que o pai do participante não está mais vivo ou nenhum dos pais está vivo. Verifique. &lt;/span&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;span style = "color: red"&gt; Umeonyesha kwamba mshiriki ni mtoto wa kiume/binti wa mkuu wa kaya, ambaye ni wa kiume, lakini baba wa mshiriki hayupo hai tena au hakuna mzazi yoyote wa mshiriki yupo hai. Tafadhali thibitisha. &lt;/span&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;span style = "color: red"&gt; Você indicou que o participante é filho / filha do chefe da família, que é do sexo masculino, mas que o pai do participante não está mais vivo ou nenhum dos pais está vivo. Verifique. &lt;/span&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">w_mother_alive</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;span style="color:red"&gt;You indicated that the participant is the son/daughter of the household head, who is female, but that the participant's mother is no longer alive or that neither parent is alive. Please verify.&lt;/span&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;span style = "color: red"&gt; Você indicou que o participante é filho / filha do chefe da família, que é mulher, mas que a mãe do participante não está mais viva ou que nenhum dos pais está vivo. Verifique. &lt;/span&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;span style = "color: red"&gt; Umeonyesha kwamba mshiriki ni mtoto wa kiume/binti wa mkuu wa kaya, ambaye ni wa kike, lakini mama wa mshiriki hayupo hai tena au hakuna mzazi yoyote wa mshiriki yupo hai. Tafadhali thibitisha. &lt;/span&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;span style = "color: red"&gt; Você indicou que o participante é filho / filha do chefe da família, que é mulher, mas que a mãe do participante não está mais viva ou que nenhum dos pais está vivo. Verifique. &lt;/span&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">w_father_mother_alive</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;span style="color:red"&gt;You indicated that the participant is the son/daughter of the household head but that neither of his/her parents are alive. Please verify responses.&lt;/span&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;span style = "color: red"&gt; Você indicou que o participante é filho / filha do chefe da família, mas nenhum de seus pais está vivo. Verifique as respostas. &lt;/span&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;span style = "color: red"&gt; Umeonyesha kwamba mshiriki ni mtoto wa kiume/binti wa mkuu wa kaya lakini hakuna mzazi yoyote wa mshiriki yupo hai. Tafadhali thibitisha. &lt;/span&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;span style = "color: red"&gt; Você indicou que o participante é filho / filha do chefe da família, mas nenhum de seus pais está vivo. Verifique as respostas. &lt;/span&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">travel_prompt</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;h4&gt;You will be prompted to answer questions about the {{data.travel_regularly_trips}} regular trips.&lt;/h4&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;h4&gt; Você deverá responder a perguntas sobre as {{data.travel_regularly_trips}} viagens regulares. &lt;/h4&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;h4&gt; Utaombwa kujibu maswali kuhusu safari za kawaida za {{data.travel_regularly_trips}}. &lt;/h4&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h4&gt; Você deverá responder a perguntas sobre as {{data.travel_regularly_trips}} viagens regulares. &lt;/h4&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">err_future_date</t>
   </si>
   <si>
@@ -3231,30 +3225,30 @@
     <t xml:space="preserve">Enter a date between 1 and 31. </t>
   </si>
   <si>
+    <t xml:space="preserve">Insira uma data entre 1 e 31.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ingiza tahere (siku) kati ya 1 na 31</t>
   </si>
   <si>
-    <t xml:space="preserve">Insira uma data entre 1 e 31.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Enter a month between 1 and 12. </t>
   </si>
   <si>
+    <t xml:space="preserve">Insira um mes entre 1 e 12</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ingiza mwezi kati ya 1 na 12</t>
   </si>
   <si>
-    <t xml:space="preserve">Insira um mes entre 1 e 12</t>
-  </si>
-  <si>
     <t xml:space="preserve">Enter a year between 1920 and 2021. </t>
   </si>
   <si>
+    <t xml:space="preserve">Insira um ano entre 1920 e 2021.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ingiza mwaka kati ya 1920 na 2021</t>
   </si>
   <si>
-    <t xml:space="preserve">Insira um ano entre 1920 e 2021.</t>
-  </si>
-  <si>
     <t xml:space="preserve">date_cons</t>
   </si>
   <si>
@@ -3297,10 +3291,10 @@
     <t xml:space="preserve">Select from today/tomorrow, enter a date, or ‘Don’t Know’</t>
   </si>
   <si>
+    <t xml:space="preserve">Selecione hoje / amanhã, insira uma data ou ‘Não sei’</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chagua kuanzia leo / kesho, ingiza tarehe, au 'Sijui'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selecione hoje / amanhã, insira uma data ou ‘Não sei’</t>
   </si>
   <si>
     <t xml:space="preserve">1. Given name:</t>
@@ -31629,10 +31623,10 @@
       <c r="B67" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="0" t="s">
         <v>593</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="0" t="s">
         <v>594</v>
       </c>
     </row>
@@ -33602,11 +33596,11 @@
       <c r="B210" s="0" t="s">
         <v>960</v>
       </c>
-      <c r="C210" s="0" t="s">
-        <v>961</v>
-      </c>
-      <c r="D210" s="0" t="s">
-        <v>962</v>
+      <c r="C210" s="8" t="s">
+        <v>960</v>
+      </c>
+      <c r="D210" s="8" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33614,223 +33608,223 @@
         <v>323</v>
       </c>
       <c r="B211" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="C211" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="D211" s="0" t="s">
         <v>963</v>
-      </c>
-      <c r="C211" s="0" t="s">
-        <v>964</v>
-      </c>
-      <c r="D211" s="0" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
+        <v>964</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>965</v>
+      </c>
+      <c r="C212" s="0" t="s">
         <v>966</v>
       </c>
-      <c r="B212" s="0" t="s">
+      <c r="D212" s="0" t="s">
         <v>967</v>
-      </c>
-      <c r="C212" s="0" t="s">
-        <v>968</v>
-      </c>
-      <c r="D212" s="0" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
+        <v>968</v>
+      </c>
+      <c r="B213" s="0" t="s">
+        <v>969</v>
+      </c>
+      <c r="C213" s="0" t="s">
         <v>970</v>
       </c>
-      <c r="B213" s="0" t="s">
+      <c r="D213" s="0" t="s">
         <v>971</v>
-      </c>
-      <c r="C213" s="0" t="s">
-        <v>972</v>
-      </c>
-      <c r="D213" s="0" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>973</v>
+      </c>
+      <c r="C214" s="0" t="s">
         <v>974</v>
       </c>
-      <c r="B214" s="0" t="s">
+      <c r="D214" s="0" t="s">
         <v>975</v>
-      </c>
-      <c r="C214" s="0" t="s">
-        <v>976</v>
-      </c>
-      <c r="D214" s="0" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="46.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
+        <v>976</v>
+      </c>
+      <c r="B215" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="C215" s="13" t="s">
         <v>978</v>
       </c>
-      <c r="B215" s="0" t="s">
+      <c r="D215" s="13" t="s">
         <v>979</v>
-      </c>
-      <c r="C215" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="D215" s="13" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="46.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="C216" s="13" t="s">
         <v>982</v>
       </c>
-      <c r="B216" s="0" t="s">
+      <c r="D216" s="13" t="s">
         <v>983</v>
-      </c>
-      <c r="C216" s="13" t="s">
-        <v>984</v>
-      </c>
-      <c r="D216" s="13" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
+        <v>984</v>
+      </c>
+      <c r="B217" s="0" t="s">
+        <v>985</v>
+      </c>
+      <c r="C217" s="0" t="s">
         <v>986</v>
       </c>
-      <c r="B217" s="0" t="s">
+      <c r="D217" s="0" t="s">
         <v>987</v>
-      </c>
-      <c r="C217" s="0" t="s">
-        <v>988</v>
-      </c>
-      <c r="D217" s="0" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="B218" s="0" t="s">
+        <v>989</v>
+      </c>
+      <c r="C218" s="0" t="s">
         <v>990</v>
       </c>
-      <c r="B218" s="0" t="s">
+      <c r="D218" s="0" t="s">
         <v>991</v>
-      </c>
-      <c r="C218" s="0" t="s">
-        <v>992</v>
-      </c>
-      <c r="D218" s="0" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="B219" s="0" t="s">
+        <v>993</v>
+      </c>
+      <c r="C219" s="0" t="s">
         <v>994</v>
       </c>
-      <c r="B219" s="0" t="s">
+      <c r="D219" s="0" t="s">
         <v>995</v>
-      </c>
-      <c r="C219" s="0" t="s">
-        <v>996</v>
-      </c>
-      <c r="D219" s="0" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>997</v>
+      </c>
+      <c r="C220" s="0" t="s">
         <v>998</v>
       </c>
-      <c r="B220" s="0" t="s">
+      <c r="D220" s="0" t="s">
         <v>999</v>
-      </c>
-      <c r="C220" s="0" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D220" s="0" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B222" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C222" s="0" t="s">
         <v>1004</v>
       </c>
-      <c r="B222" s="0" t="s">
+      <c r="D222" s="0" t="s">
         <v>1005</v>
-      </c>
-      <c r="C222" s="0" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D222" s="0" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D223" s="0" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B224" s="0" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C224" s="13" t="s">
         <v>1010</v>
       </c>
-      <c r="B224" s="0" t="s">
+      <c r="D224" s="13" t="s">
         <v>1011</v>
-      </c>
-      <c r="C224" s="13" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D224" s="13" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B225" s="0" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C225" s="2" t="s">
         <v>1014</v>
       </c>
-      <c r="B225" s="0" t="s">
+      <c r="D225" s="2" t="s">
         <v>1015</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B226" s="0" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C226" s="0" t="s">
         <v>1018</v>
       </c>
-      <c r="B226" s="0" t="s">
+      <c r="D226" s="0" t="s">
         <v>1019</v>
-      </c>
-      <c r="C226" s="0" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D226" s="0" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33838,139 +33832,139 @@
         <v>27</v>
       </c>
       <c r="B227" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C227" s="0" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D227" s="0" t="s">
         <v>1022</v>
-      </c>
-      <c r="C227" s="0" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D227" s="0" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B228" s="0" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C228" s="0" t="s">
         <v>1025</v>
       </c>
-      <c r="B228" s="0" t="s">
+      <c r="D228" s="0" t="s">
         <v>1026</v>
-      </c>
-      <c r="C228" s="0" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D228" s="0" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B229" s="0" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C229" s="0" t="s">
         <v>1029</v>
       </c>
-      <c r="B229" s="0" t="s">
+      <c r="D229" s="0" t="s">
         <v>1030</v>
-      </c>
-      <c r="C229" s="0" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D229" s="0" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B230" s="0" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C230" s="0" t="s">
         <v>1033</v>
       </c>
-      <c r="B230" s="0" t="s">
+      <c r="D230" s="0" t="s">
         <v>1034</v>
-      </c>
-      <c r="C230" s="0" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D230" s="0" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B231" s="0" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C231" s="0" t="s">
         <v>1037</v>
       </c>
-      <c r="B231" s="0" t="s">
+      <c r="D231" s="0" t="s">
         <v>1038</v>
-      </c>
-      <c r="C231" s="0" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D231" s="0" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B232" s="0" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C232" s="0" t="s">
         <v>1041</v>
       </c>
-      <c r="B232" s="0" t="s">
+      <c r="D232" s="0" t="s">
         <v>1042</v>
-      </c>
-      <c r="C232" s="0" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D232" s="0" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B233" s="0" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C233" s="0" t="s">
         <v>1045</v>
       </c>
-      <c r="B233" s="0" t="s">
+      <c r="D233" s="0" t="s">
         <v>1046</v>
-      </c>
-      <c r="C233" s="0" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D233" s="0" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B234" s="0" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C234" s="0" t="s">
         <v>1049</v>
       </c>
-      <c r="B234" s="0" t="s">
+      <c r="D234" s="0" t="s">
         <v>1050</v>
-      </c>
-      <c r="C234" s="0" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D234" s="0" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B235" s="0" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C235" s="13" t="s">
         <v>1053</v>
       </c>
-      <c r="B235" s="0" t="s">
+      <c r="D235" s="13" t="s">
         <v>1054</v>
-      </c>
-      <c r="C235" s="13" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D235" s="13" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="47.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B236" s="0" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C236" s="13" t="s">
         <v>1057</v>
       </c>
-      <c r="B236" s="0" t="s">
+      <c r="D236" s="13" t="s">
         <v>1058</v>
-      </c>
-      <c r="C236" s="13" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D236" s="13" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33978,13 +33972,13 @@
         <v>26</v>
       </c>
       <c r="B238" s="0" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C238" s="13" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D238" s="13" t="s">
         <v>1061</v>
-      </c>
-      <c r="C238" s="13" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D238" s="13" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="32.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -33992,13 +33986,13 @@
         <v>30</v>
       </c>
       <c r="B239" s="0" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C239" s="13" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D239" s="13" t="s">
         <v>1064</v>
-      </c>
-      <c r="C239" s="13" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D239" s="13" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34006,13 +34000,13 @@
         <v>34</v>
       </c>
       <c r="B240" s="0" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C240" s="0" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D240" s="0" t="s">
         <v>1067</v>
-      </c>
-      <c r="C240" s="0" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D240" s="0" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34020,13 +34014,13 @@
         <v>45</v>
       </c>
       <c r="B241" s="0" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C241" s="0" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D241" s="0" t="s">
         <v>1070</v>
-      </c>
-      <c r="C241" s="0" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D241" s="0" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34034,69 +34028,69 @@
         <v>51</v>
       </c>
       <c r="B242" s="0" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C242" s="0" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D242" s="0" t="s">
         <v>1073</v>
-      </c>
-      <c r="C242" s="0" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D242" s="0" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B243" s="0" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C243" s="13" t="s">
         <v>1076</v>
       </c>
-      <c r="B243" s="0" t="s">
+      <c r="D243" s="13" t="s">
         <v>1077</v>
-      </c>
-      <c r="C243" s="13" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D243" s="13" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B244" s="0" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C244" s="13" t="s">
         <v>1080</v>
       </c>
-      <c r="B244" s="0" t="s">
+      <c r="D244" s="13" t="s">
         <v>1081</v>
-      </c>
-      <c r="C244" s="13" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D244" s="13" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B245" s="0" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C245" s="13" t="s">
         <v>1084</v>
       </c>
-      <c r="B245" s="0" t="s">
+      <c r="D245" s="13" t="s">
         <v>1085</v>
-      </c>
-      <c r="C245" s="13" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D245" s="13" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B246" s="0" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C246" s="0" t="s">
         <v>1088</v>
       </c>
-      <c r="B246" s="0" t="s">
+      <c r="D246" s="0" t="s">
         <v>1089</v>
-      </c>
-      <c r="C246" s="0" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D246" s="0" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34104,13 +34098,13 @@
         <v>24</v>
       </c>
       <c r="B249" s="0" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C249" s="0" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D249" s="0" t="s">
         <v>1092</v>
-      </c>
-      <c r="C249" s="0" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D249" s="0" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34118,13 +34112,13 @@
         <v>28</v>
       </c>
       <c r="B250" s="0" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C250" s="0" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D250" s="0" t="s">
         <v>1095</v>
-      </c>
-      <c r="C250" s="0" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D250" s="0" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34132,13 +34126,13 @@
         <v>32</v>
       </c>
       <c r="B251" s="0" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C251" s="0" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D251" s="0" t="s">
         <v>1098</v>
-      </c>
-      <c r="C251" s="0" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D251" s="0" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34146,13 +34140,13 @@
         <v>60</v>
       </c>
       <c r="B252" s="0" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C252" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D252" s="0" t="s">
         <v>1101</v>
-      </c>
-      <c r="C252" s="0" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D252" s="0" t="s">
-        <v>1103</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34160,13 +34154,13 @@
         <v>67</v>
       </c>
       <c r="B253" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C253" s="0" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D253" s="0" t="s">
         <v>1104</v>
-      </c>
-      <c r="C253" s="0" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D253" s="0" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34174,13 +34168,13 @@
         <v>69</v>
       </c>
       <c r="B254" s="0" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C254" s="0" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D254" s="0" t="s">
         <v>1107</v>
-      </c>
-      <c r="C254" s="0" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D254" s="0" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34188,1371 +34182,1371 @@
         <v>70</v>
       </c>
       <c r="B255" s="0" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C255" s="0" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D255" s="0" t="s">
         <v>1110</v>
-      </c>
-      <c r="C255" s="0" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D255" s="0" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B256" s="0" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C256" s="0" t="s">
         <v>1113</v>
       </c>
-      <c r="B256" s="0" t="s">
+      <c r="D256" s="0" t="s">
         <v>1114</v>
-      </c>
-      <c r="C256" s="0" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D256" s="0" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B257" s="0" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C257" s="0" t="s">
         <v>1117</v>
       </c>
-      <c r="B257" s="0" t="s">
+      <c r="D257" s="0" t="s">
         <v>1118</v>
-      </c>
-      <c r="C257" s="0" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D257" s="0" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B258" s="0" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C258" s="0" t="s">
         <v>1121</v>
       </c>
-      <c r="B258" s="0" t="s">
+      <c r="D258" s="0" t="s">
         <v>1122</v>
-      </c>
-      <c r="C258" s="0" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D258" s="0" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B259" s="0" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C259" s="0" t="s">
         <v>1125</v>
       </c>
-      <c r="B259" s="0" t="s">
+      <c r="D259" s="0" t="s">
         <v>1126</v>
-      </c>
-      <c r="C259" s="0" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D259" s="0" t="s">
-        <v>1128</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B260" s="0" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C260" s="0" t="s">
         <v>1129</v>
       </c>
-      <c r="B260" s="0" t="s">
+      <c r="D260" s="0" t="s">
         <v>1130</v>
-      </c>
-      <c r="C260" s="0" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D260" s="0" t="s">
-        <v>1132</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B261" s="0" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C261" s="0" t="s">
         <v>1133</v>
       </c>
-      <c r="B261" s="0" t="s">
+      <c r="D261" s="0" t="s">
         <v>1134</v>
-      </c>
-      <c r="C261" s="0" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D261" s="0" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B262" s="0" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C262" s="0" t="s">
         <v>1137</v>
       </c>
-      <c r="B262" s="0" t="s">
+      <c r="D262" s="0" t="s">
         <v>1138</v>
-      </c>
-      <c r="C262" s="0" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D262" s="0" t="s">
-        <v>1140</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B263" s="0" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C263" s="0" t="s">
         <v>1141</v>
       </c>
-      <c r="B263" s="0" t="s">
+      <c r="D263" s="0" t="s">
         <v>1142</v>
-      </c>
-      <c r="C263" s="0" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D263" s="0" t="s">
-        <v>1144</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B264" s="0" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C264" s="0" t="s">
         <v>1145</v>
       </c>
-      <c r="B264" s="0" t="s">
+      <c r="D264" s="0" t="s">
         <v>1146</v>
-      </c>
-      <c r="C264" s="0" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D264" s="0" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B265" s="0" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C265" s="0" t="s">
         <v>1149</v>
       </c>
-      <c r="B265" s="0" t="s">
+      <c r="D265" s="0" t="s">
         <v>1150</v>
-      </c>
-      <c r="C265" s="0" t="s">
-        <v>1151</v>
-      </c>
-      <c r="D265" s="0" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B266" s="0" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C266" s="0" t="s">
         <v>1153</v>
       </c>
-      <c r="B266" s="0" t="s">
+      <c r="D266" s="0" t="s">
         <v>1154</v>
-      </c>
-      <c r="C266" s="0" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D266" s="0" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B267" s="0" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C267" s="0" t="s">
         <v>1157</v>
       </c>
-      <c r="B267" s="0" t="s">
+      <c r="D267" s="0" t="s">
         <v>1158</v>
-      </c>
-      <c r="C267" s="0" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D267" s="0" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B268" s="0" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C268" s="0" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D268" s="0" t="s">
         <v>1161</v>
-      </c>
-      <c r="B268" s="0" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C268" s="0" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D268" s="0" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="D269" s="0" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B270" s="0" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C270" s="0" t="s">
         <v>1166</v>
       </c>
-      <c r="B270" s="0" t="s">
+      <c r="D270" s="0" t="s">
         <v>1167</v>
-      </c>
-      <c r="C270" s="0" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D270" s="0" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B271" s="0" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C271" s="0" t="s">
         <v>1170</v>
       </c>
-      <c r="B271" s="0" t="s">
+      <c r="D271" s="0" t="s">
         <v>1171</v>
-      </c>
-      <c r="C271" s="0" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D271" s="0" t="s">
-        <v>1173</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B272" s="0" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C272" s="0" t="s">
         <v>1174</v>
       </c>
-      <c r="B272" s="0" t="s">
+      <c r="D272" s="0" t="s">
         <v>1175</v>
-      </c>
-      <c r="C272" s="0" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D272" s="0" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B273" s="0" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C273" s="0" t="s">
         <v>1178</v>
       </c>
-      <c r="B273" s="0" t="s">
+      <c r="D273" s="0" t="s">
         <v>1179</v>
-      </c>
-      <c r="C273" s="0" t="s">
-        <v>1180</v>
-      </c>
-      <c r="D273" s="0" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B274" s="0" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C274" s="0" t="s">
         <v>1182</v>
       </c>
-      <c r="B274" s="0" t="s">
+      <c r="D274" s="0" t="s">
         <v>1183</v>
-      </c>
-      <c r="C274" s="0" t="s">
-        <v>1184</v>
-      </c>
-      <c r="D274" s="0" t="s">
-        <v>1185</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B275" s="0" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C275" s="0" t="s">
         <v>1186</v>
       </c>
-      <c r="B275" s="0" t="s">
+      <c r="D275" s="0" t="s">
         <v>1187</v>
-      </c>
-      <c r="C275" s="0" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D275" s="0" t="s">
-        <v>1189</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="D276" s="0" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B277" s="0" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C277" s="0" t="s">
         <v>1191</v>
       </c>
-      <c r="B277" s="0" t="s">
+      <c r="D277" s="0" t="s">
         <v>1192</v>
-      </c>
-      <c r="C277" s="0" t="s">
-        <v>1193</v>
-      </c>
-      <c r="D277" s="0" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B278" s="0" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C278" s="0" t="s">
         <v>1195</v>
       </c>
-      <c r="B278" s="0" t="s">
+      <c r="D278" s="0" t="s">
         <v>1196</v>
-      </c>
-      <c r="C278" s="0" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D278" s="0" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B279" s="0" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C279" s="0" t="s">
         <v>1199</v>
       </c>
-      <c r="B279" s="0" t="s">
+      <c r="D279" s="0" t="s">
         <v>1200</v>
-      </c>
-      <c r="C279" s="0" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D279" s="0" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B280" s="0" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C280" s="0" t="s">
         <v>1203</v>
       </c>
-      <c r="B280" s="0" t="s">
+      <c r="D280" s="0" t="s">
         <v>1204</v>
-      </c>
-      <c r="C280" s="0" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D280" s="0" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B281" s="0" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C281" s="0" t="s">
         <v>1207</v>
       </c>
-      <c r="B281" s="0" t="s">
+      <c r="D281" s="0" t="s">
         <v>1208</v>
-      </c>
-      <c r="C281" s="0" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D281" s="0" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B282" s="0" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C282" s="0" t="s">
         <v>1211</v>
       </c>
-      <c r="B282" s="0" t="s">
+      <c r="D282" s="0" t="s">
         <v>1212</v>
-      </c>
-      <c r="C282" s="0" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D282" s="0" t="s">
-        <v>1214</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B283" s="0" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C283" s="0" t="s">
         <v>1215</v>
       </c>
-      <c r="B283" s="0" t="s">
+      <c r="D283" s="0" t="s">
         <v>1216</v>
-      </c>
-      <c r="C283" s="0" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D283" s="0" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B284" s="0" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C284" s="0" t="s">
         <v>1219</v>
       </c>
-      <c r="B284" s="0" t="s">
+      <c r="D284" s="0" t="s">
         <v>1220</v>
-      </c>
-      <c r="C284" s="0" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D284" s="0" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B285" s="0" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C285" s="0" t="s">
         <v>1223</v>
       </c>
-      <c r="B285" s="0" t="s">
+      <c r="D285" s="0" t="s">
         <v>1224</v>
-      </c>
-      <c r="C285" s="0" t="s">
-        <v>1225</v>
-      </c>
-      <c r="D285" s="0" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B286" s="0" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C286" s="0" t="s">
         <v>1227</v>
       </c>
-      <c r="B286" s="0" t="s">
+      <c r="D286" s="0" t="s">
         <v>1228</v>
-      </c>
-      <c r="C286" s="0" t="s">
-        <v>1229</v>
-      </c>
-      <c r="D286" s="0" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B287" s="0" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C287" s="0" t="s">
         <v>1231</v>
       </c>
-      <c r="B287" s="0" t="s">
+      <c r="D287" s="0" t="s">
         <v>1232</v>
-      </c>
-      <c r="C287" s="0" t="s">
-        <v>1233</v>
-      </c>
-      <c r="D287" s="0" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B288" s="0" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C288" s="0" t="s">
         <v>1235</v>
       </c>
-      <c r="B288" s="0" t="s">
+      <c r="D288" s="0" t="s">
         <v>1236</v>
-      </c>
-      <c r="C288" s="0" t="s">
-        <v>1237</v>
-      </c>
-      <c r="D288" s="0" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B289" s="0" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C289" s="0" t="s">
         <v>1239</v>
       </c>
-      <c r="B289" s="0" t="s">
+      <c r="D289" s="0" t="s">
         <v>1240</v>
-      </c>
-      <c r="C289" s="0" t="s">
-        <v>1241</v>
-      </c>
-      <c r="D289" s="0" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B291" s="0" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C291" s="0" t="s">
         <v>1243</v>
       </c>
-      <c r="B291" s="0" t="s">
+      <c r="D291" s="0" t="s">
         <v>1244</v>
-      </c>
-      <c r="C291" s="0" t="s">
-        <v>1245</v>
-      </c>
-      <c r="D291" s="0" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B292" s="0" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C292" s="0" t="s">
         <v>1247</v>
       </c>
-      <c r="B292" s="0" t="s">
+      <c r="D292" s="0" t="s">
         <v>1248</v>
-      </c>
-      <c r="C292" s="0" t="s">
-        <v>1249</v>
-      </c>
-      <c r="D292" s="0" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B293" s="0" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C293" s="0" t="s">
         <v>1251</v>
       </c>
-      <c r="B293" s="0" t="s">
+      <c r="D293" s="0" t="s">
         <v>1252</v>
-      </c>
-      <c r="C293" s="0" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D293" s="0" t="s">
-        <v>1254</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B294" s="0" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C294" s="0" t="s">
         <v>1255</v>
       </c>
-      <c r="B294" s="0" t="s">
+      <c r="D294" s="0" t="s">
         <v>1256</v>
-      </c>
-      <c r="C294" s="0" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D294" s="0" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B295" s="0" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C295" s="0" t="s">
         <v>1259</v>
       </c>
-      <c r="B295" s="0" t="s">
+      <c r="D295" s="0" t="s">
         <v>1260</v>
-      </c>
-      <c r="C295" s="0" t="s">
-        <v>1261</v>
-      </c>
-      <c r="D295" s="0" t="s">
-        <v>1262</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B296" s="0" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C296" s="0" t="s">
         <v>1263</v>
       </c>
-      <c r="B296" s="0" t="s">
+      <c r="D296" s="0" t="s">
         <v>1264</v>
-      </c>
-      <c r="C296" s="0" t="s">
-        <v>1265</v>
-      </c>
-      <c r="D296" s="0" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B297" s="0" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C297" s="0" t="s">
         <v>1267</v>
       </c>
-      <c r="B297" s="0" t="s">
+      <c r="D297" s="0" t="s">
         <v>1268</v>
-      </c>
-      <c r="C297" s="0" t="s">
-        <v>1269</v>
-      </c>
-      <c r="D297" s="0" t="s">
-        <v>1270</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B298" s="0" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C298" s="0" t="s">
         <v>1271</v>
       </c>
-      <c r="B298" s="0" t="s">
+      <c r="D298" s="0" t="s">
         <v>1272</v>
-      </c>
-      <c r="C298" s="0" t="s">
-        <v>1273</v>
-      </c>
-      <c r="D298" s="0" t="s">
-        <v>1274</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B299" s="0" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C299" s="0" t="s">
         <v>1275</v>
       </c>
-      <c r="B299" s="0" t="s">
+      <c r="D299" s="0" t="s">
         <v>1276</v>
-      </c>
-      <c r="C299" s="0" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D299" s="0" t="s">
-        <v>1278</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B300" s="0" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C300" s="0" t="s">
         <v>1279</v>
       </c>
-      <c r="B300" s="0" t="s">
+      <c r="D300" s="0" t="s">
         <v>1280</v>
-      </c>
-      <c r="C300" s="0" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D300" s="0" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B301" s="0" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C301" s="0" t="s">
         <v>1283</v>
       </c>
-      <c r="B301" s="0" t="s">
+      <c r="D301" s="0" t="s">
         <v>1284</v>
-      </c>
-      <c r="C301" s="0" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D301" s="0" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B302" s="0" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C302" s="0" t="s">
         <v>1287</v>
       </c>
-      <c r="B302" s="0" t="s">
+      <c r="D302" s="0" t="s">
         <v>1288</v>
-      </c>
-      <c r="C302" s="0" t="s">
-        <v>1289</v>
-      </c>
-      <c r="D302" s="0" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B303" s="0" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C303" s="0" t="s">
         <v>1291</v>
       </c>
-      <c r="B303" s="0" t="s">
+      <c r="D303" s="0" t="s">
         <v>1292</v>
-      </c>
-      <c r="C303" s="0" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D303" s="0" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B304" s="0" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C304" s="0" t="s">
         <v>1295</v>
       </c>
-      <c r="B304" s="0" t="s">
+      <c r="D304" s="0" t="s">
         <v>1296</v>
-      </c>
-      <c r="C304" s="0" t="s">
-        <v>1297</v>
-      </c>
-      <c r="D304" s="0" t="s">
-        <v>1298</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B305" s="0" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C305" s="0" t="s">
         <v>1299</v>
       </c>
-      <c r="B305" s="0" t="s">
+      <c r="D305" s="0" t="s">
         <v>1300</v>
-      </c>
-      <c r="C305" s="0" t="s">
-        <v>1301</v>
-      </c>
-      <c r="D305" s="0" t="s">
-        <v>1302</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B306" s="0" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C306" s="0" t="s">
         <v>1303</v>
       </c>
-      <c r="B306" s="0" t="s">
+      <c r="D306" s="0" t="s">
         <v>1304</v>
-      </c>
-      <c r="C306" s="0" t="s">
-        <v>1305</v>
-      </c>
-      <c r="D306" s="0" t="s">
-        <v>1306</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B307" s="0" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C307" s="0" t="s">
         <v>1307</v>
       </c>
-      <c r="B307" s="0" t="s">
+      <c r="D307" s="0" t="s">
         <v>1308</v>
-      </c>
-      <c r="C307" s="0" t="s">
-        <v>1309</v>
-      </c>
-      <c r="D307" s="0" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B308" s="0" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C308" s="0" t="s">
         <v>1311</v>
       </c>
-      <c r="B308" s="0" t="s">
+      <c r="D308" s="0" t="s">
         <v>1312</v>
-      </c>
-      <c r="C308" s="0" t="s">
-        <v>1313</v>
-      </c>
-      <c r="D308" s="0" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B309" s="0" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C309" s="0" t="s">
         <v>1315</v>
       </c>
-      <c r="B309" s="0" t="s">
+      <c r="D309" s="0" t="s">
         <v>1316</v>
-      </c>
-      <c r="C309" s="0" t="s">
-        <v>1317</v>
-      </c>
-      <c r="D309" s="0" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B310" s="0" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C310" s="0" t="s">
         <v>1319</v>
       </c>
-      <c r="B310" s="0" t="s">
+      <c r="D310" s="0" t="s">
         <v>1320</v>
-      </c>
-      <c r="C310" s="0" t="s">
-        <v>1321</v>
-      </c>
-      <c r="D310" s="0" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B311" s="0" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C311" s="0" t="s">
         <v>1323</v>
       </c>
-      <c r="B311" s="0" t="s">
+      <c r="D311" s="0" t="s">
         <v>1324</v>
-      </c>
-      <c r="C311" s="0" t="s">
-        <v>1325</v>
-      </c>
-      <c r="D311" s="0" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B312" s="0" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C312" s="0" t="s">
         <v>1327</v>
       </c>
-      <c r="B312" s="0" t="s">
+      <c r="D312" s="0" t="s">
         <v>1328</v>
-      </c>
-      <c r="C312" s="0" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D312" s="0" t="s">
-        <v>1330</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B313" s="0" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C313" s="0" t="s">
         <v>1331</v>
       </c>
-      <c r="B313" s="0" t="s">
+      <c r="D313" s="0" t="s">
         <v>1332</v>
-      </c>
-      <c r="C313" s="0" t="s">
-        <v>1333</v>
-      </c>
-      <c r="D313" s="0" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B314" s="0" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C314" s="0" t="s">
         <v>1335</v>
       </c>
-      <c r="B314" s="0" t="s">
+      <c r="D314" s="0" t="s">
         <v>1336</v>
-      </c>
-      <c r="C314" s="0" t="s">
-        <v>1337</v>
-      </c>
-      <c r="D314" s="0" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B315" s="0" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C315" s="0" t="s">
         <v>1339</v>
       </c>
-      <c r="B315" s="0" t="s">
+      <c r="D315" s="0" t="s">
         <v>1340</v>
-      </c>
-      <c r="C315" s="0" t="s">
-        <v>1341</v>
-      </c>
-      <c r="D315" s="0" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B316" s="0" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C316" s="0" t="s">
         <v>1343</v>
       </c>
-      <c r="B316" s="0" t="s">
+      <c r="D316" s="0" t="s">
         <v>1344</v>
-      </c>
-      <c r="C316" s="0" t="s">
-        <v>1345</v>
-      </c>
-      <c r="D316" s="0" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B317" s="0" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C317" s="0" t="s">
         <v>1347</v>
       </c>
-      <c r="B317" s="0" t="s">
+      <c r="D317" s="0" t="s">
         <v>1348</v>
-      </c>
-      <c r="C317" s="0" t="s">
-        <v>1349</v>
-      </c>
-      <c r="D317" s="0" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B318" s="0" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C318" s="0" t="s">
         <v>1351</v>
       </c>
-      <c r="B318" s="0" t="s">
+      <c r="D318" s="0" t="s">
         <v>1352</v>
-      </c>
-      <c r="C318" s="0" t="s">
-        <v>1353</v>
-      </c>
-      <c r="D318" s="0" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B319" s="0" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C319" s="0" t="s">
         <v>1355</v>
       </c>
-      <c r="B319" s="0" t="s">
+      <c r="D319" s="0" t="s">
         <v>1356</v>
-      </c>
-      <c r="C319" s="0" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D319" s="0" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B320" s="0" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C320" s="0" t="s">
         <v>1359</v>
       </c>
-      <c r="B320" s="0" t="s">
+      <c r="D320" s="0" t="s">
         <v>1360</v>
-      </c>
-      <c r="C320" s="0" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D320" s="0" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B321" s="0" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C321" s="0" t="s">
         <v>1363</v>
       </c>
-      <c r="B321" s="0" t="s">
+      <c r="D321" s="0" t="s">
         <v>1364</v>
-      </c>
-      <c r="C321" s="0" t="s">
-        <v>1365</v>
-      </c>
-      <c r="D321" s="0" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B322" s="0" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C322" s="0" t="s">
         <v>1367</v>
       </c>
-      <c r="B322" s="0" t="s">
+      <c r="D322" s="0" t="s">
         <v>1368</v>
-      </c>
-      <c r="C322" s="0" t="s">
-        <v>1369</v>
-      </c>
-      <c r="D322" s="0" t="s">
-        <v>1370</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B323" s="0" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C323" s="0" t="s">
         <v>1371</v>
       </c>
-      <c r="B323" s="0" t="s">
+      <c r="D323" s="0" t="s">
         <v>1372</v>
-      </c>
-      <c r="C323" s="0" t="s">
-        <v>1373</v>
-      </c>
-      <c r="D323" s="0" t="s">
-        <v>1374</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B324" s="0" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C324" s="0" t="s">
         <v>1375</v>
       </c>
-      <c r="B324" s="0" t="s">
+      <c r="D324" s="0" t="s">
         <v>1376</v>
-      </c>
-      <c r="C324" s="0" t="s">
-        <v>1377</v>
-      </c>
-      <c r="D324" s="0" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B325" s="0" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C325" s="0" t="s">
         <v>1379</v>
       </c>
-      <c r="B325" s="0" t="s">
+      <c r="D325" s="0" t="s">
         <v>1380</v>
-      </c>
-      <c r="C325" s="0" t="s">
-        <v>1381</v>
-      </c>
-      <c r="D325" s="0" t="s">
-        <v>1382</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B326" s="0" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C326" s="0" t="s">
         <v>1383</v>
       </c>
-      <c r="B326" s="0" t="s">
+      <c r="D326" s="0" t="s">
         <v>1384</v>
-      </c>
-      <c r="C326" s="0" t="s">
-        <v>1385</v>
-      </c>
-      <c r="D326" s="0" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B327" s="0" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C327" s="0" t="s">
         <v>1387</v>
       </c>
-      <c r="B327" s="0" t="s">
+      <c r="D327" s="0" t="s">
         <v>1388</v>
-      </c>
-      <c r="C327" s="0" t="s">
-        <v>1389</v>
-      </c>
-      <c r="D327" s="0" t="s">
-        <v>1390</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B328" s="0" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C328" s="0" t="s">
         <v>1391</v>
       </c>
-      <c r="B328" s="0" t="s">
+      <c r="D328" s="0" t="s">
         <v>1392</v>
-      </c>
-      <c r="C328" s="0" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D328" s="0" t="s">
-        <v>1394</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B329" s="0" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C329" s="0" t="s">
         <v>1395</v>
       </c>
-      <c r="B329" s="0" t="s">
+      <c r="D329" s="0" t="s">
         <v>1396</v>
-      </c>
-      <c r="C329" s="0" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D329" s="0" t="s">
-        <v>1398</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B330" s="0" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C330" s="0" t="s">
         <v>1399</v>
       </c>
-      <c r="B330" s="0" t="s">
+      <c r="D330" s="0" t="s">
         <v>1400</v>
-      </c>
-      <c r="C330" s="0" t="s">
-        <v>1401</v>
-      </c>
-      <c r="D330" s="0" t="s">
-        <v>1402</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B331" s="0" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C331" s="0" t="s">
         <v>1403</v>
       </c>
-      <c r="B331" s="0" t="s">
+      <c r="D331" s="0" t="s">
         <v>1404</v>
-      </c>
-      <c r="C331" s="0" t="s">
-        <v>1405</v>
-      </c>
-      <c r="D331" s="0" t="s">
-        <v>1406</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B332" s="0" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C332" s="0" t="s">
         <v>1407</v>
       </c>
-      <c r="B332" s="0" t="s">
+      <c r="D332" s="0" t="s">
         <v>1408</v>
-      </c>
-      <c r="C332" s="0" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D332" s="0" t="s">
-        <v>1410</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B333" s="0" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C333" s="0" t="s">
         <v>1411</v>
       </c>
-      <c r="B333" s="0" t="s">
+      <c r="D333" s="0" t="s">
         <v>1412</v>
-      </c>
-      <c r="C333" s="0" t="s">
-        <v>1413</v>
-      </c>
-      <c r="D333" s="0" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B334" s="0" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C334" s="0" t="s">
         <v>1415</v>
       </c>
-      <c r="B334" s="0" t="s">
+      <c r="D334" s="0" t="s">
         <v>1416</v>
-      </c>
-      <c r="C334" s="0" t="s">
-        <v>1417</v>
-      </c>
-      <c r="D334" s="0" t="s">
-        <v>1418</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B335" s="0" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C335" s="0" t="s">
         <v>1419</v>
       </c>
-      <c r="B335" s="0" t="s">
+      <c r="D335" s="0" t="s">
         <v>1420</v>
-      </c>
-      <c r="C335" s="0" t="s">
-        <v>1421</v>
-      </c>
-      <c r="D335" s="0" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B336" s="0" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C336" s="0" t="s">
         <v>1423</v>
       </c>
-      <c r="B336" s="0" t="s">
+      <c r="D336" s="0" t="s">
         <v>1424</v>
-      </c>
-      <c r="C336" s="0" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D336" s="0" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B337" s="0" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C337" s="0" t="s">
         <v>1427</v>
       </c>
-      <c r="B337" s="0" t="s">
+      <c r="D337" s="0" t="s">
         <v>1428</v>
-      </c>
-      <c r="C337" s="0" t="s">
-        <v>1429</v>
-      </c>
-      <c r="D337" s="0" t="s">
-        <v>1430</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B339" s="0" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C339" s="13" t="s">
         <v>1431</v>
       </c>
-      <c r="B339" s="0" t="s">
+      <c r="D339" s="13" t="s">
         <v>1432</v>
-      </c>
-      <c r="C339" s="13" t="s">
-        <v>1433</v>
-      </c>
-      <c r="D339" s="13" t="s">
-        <v>1434</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B340" s="0" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C340" s="13" t="s">
         <v>1435</v>
       </c>
-      <c r="B340" s="0" t="s">
+      <c r="D340" s="13" t="s">
         <v>1436</v>
-      </c>
-      <c r="C340" s="13" t="s">
-        <v>1437</v>
-      </c>
-      <c r="D340" s="13" t="s">
-        <v>1438</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B341" s="0" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C341" s="13" t="s">
         <v>1439</v>
       </c>
-      <c r="B341" s="0" t="s">
+      <c r="D341" s="13" t="s">
         <v>1440</v>
-      </c>
-      <c r="C341" s="13" t="s">
-        <v>1441</v>
-      </c>
-      <c r="D341" s="13" t="s">
-        <v>1442</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B342" s="0" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C342" s="13" t="s">
         <v>1443</v>
       </c>
-      <c r="B342" s="0" t="s">
+      <c r="D342" s="13" t="s">
         <v>1444</v>
-      </c>
-      <c r="C342" s="13" t="s">
-        <v>1445</v>
-      </c>
-      <c r="D342" s="13" t="s">
-        <v>1446</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B343" s="0" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C343" s="13" t="s">
         <v>1447</v>
       </c>
-      <c r="B343" s="0" t="s">
+      <c r="D343" s="13" t="s">
         <v>1448</v>
-      </c>
-      <c r="C343" s="13" t="s">
-        <v>1449</v>
-      </c>
-      <c r="D343" s="13" t="s">
-        <v>1450</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B344" s="0" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C344" s="13" t="s">
         <v>1451</v>
       </c>
-      <c r="B344" s="0" t="s">
+      <c r="D344" s="13" t="s">
         <v>1452</v>
-      </c>
-      <c r="C344" s="13" t="s">
-        <v>1453</v>
-      </c>
-      <c r="D344" s="13" t="s">
-        <v>1454</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B345" s="0" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C345" s="13" t="s">
         <v>1455</v>
       </c>
-      <c r="B345" s="0" t="s">
+      <c r="D345" s="13" t="s">
         <v>1456</v>
-      </c>
-      <c r="C345" s="13" t="s">
-        <v>1457</v>
-      </c>
-      <c r="D345" s="13" t="s">
-        <v>1458</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B346" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C346" s="13" t="s">
         <v>1459</v>
       </c>
-      <c r="B346" s="0" t="s">
+      <c r="D346" s="13" t="s">
         <v>1460</v>
-      </c>
-      <c r="C346" s="13" t="s">
-        <v>1461</v>
-      </c>
-      <c r="D346" s="13" t="s">
-        <v>1462</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B347" s="0" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C347" s="13" t="s">
         <v>1463</v>
       </c>
-      <c r="B347" s="0" t="s">
+      <c r="D347" s="13" t="s">
         <v>1464</v>
-      </c>
-      <c r="C347" s="13" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D347" s="13" t="s">
-        <v>1466</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="16.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B348" s="14" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C348" s="13" t="s">
         <v>1467</v>
       </c>
-      <c r="B348" s="14" t="s">
+      <c r="D348" s="13" t="s">
         <v>1468</v>
-      </c>
-      <c r="C348" s="13" t="s">
-        <v>1469</v>
-      </c>
-      <c r="D348" s="13" t="s">
-        <v>1470</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B349" s="4" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C349" s="2" t="s">
         <v>1471</v>
       </c>
-      <c r="B349" s="4" t="s">
+      <c r="D349" s="4" t="s">
         <v>1472</v>
-      </c>
-      <c r="C349" s="2" t="s">
-        <v>1473</v>
-      </c>
-      <c r="D349" s="4" t="s">
-        <v>1474</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="4" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B350" s="0" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C350" s="2" t="s">
         <v>1475</v>
       </c>
-      <c r="B350" s="0" t="s">
+      <c r="D350" s="2" t="s">
         <v>1476</v>
-      </c>
-      <c r="C350" s="2" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D350" s="2" t="s">
-        <v>1478</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="C351" s="13" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="D351" s="13" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="C352" s="13" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D352" s="13" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="C353" s="13" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D353" s="13" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:D1 B211:B236 C66:D66 B249:D257 B261:D261 B264:D289 B349:B1048576 C223:D223 C291:D338 D354:D1048576 C350:D350 C349 D349 C352:C1048576 B291:B347 C225:D227 C211:D211 C217:D221 B206:D209">
+  <conditionalFormatting sqref="B1:D1 B206:B236 B249:D257 B261:D261 B264:D289 B349:B1048576 C206:D211 C223:D223 C291:D338 D354:D1048576 C350:D350 C225:D228 C349 D349 C352:C1048576 B291:B347 C217:D221">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D69:D79 C2:D10 C12:D64 C67:D67 C69:C79">
+  <conditionalFormatting sqref="D69:D79 C2:D10 C12:D64 C69:C79">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B349:B1048576 C237:D237 C223:D223 C247:D338 D354:D1048576 C350:D350 C237 C247:C338 C349 D349 C352:C1048576 B211:B347 C1:D64 C66:D67 C244:C245 C225:D227 C211:D211 C217:D221 B1:B209 C69:D209">
+  <conditionalFormatting sqref="B349:B1048576 C237:D237 C223:D223 C247:D338 D354:D1048576 C350:D350 C237 C225:D228 C247:C338 C349 D349 C352:C1048576 C69:D211 B1:B347 C1:D64 C217:D221 C244:C245">
     <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>

--- a/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2570" uniqueCount="1483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2570" uniqueCount="1489">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -2904,12 +2904,24 @@
     <t xml:space="preserve">Member ExtID</t>
   </si>
   <si>
+    <t xml:space="preserve">ExtID do membro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExtID ya Mshiriki</t>
+  </si>
+  <si>
     <t xml:space="preserve">hh_id_note</t>
   </si>
   <si>
     <t xml:space="preserve">Household ID: {{data.hh_id}}</t>
   </si>
   <si>
+    <t xml:space="preserve">Identificação do agregado: {{data.hh_id}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utambulisho wa Kaya: {{data.hh_id}}</t>
+  </si>
+  <si>
     <t xml:space="preserve">Date</t>
   </si>
   <si>
@@ -3031,6 +3043,12 @@
   </si>
   <si>
     <t xml:space="preserve">Assigned ExtID {{data.id}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExtID atribuido: {{data.id}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExtID {{data.id}} aliyopewa</t>
   </si>
   <si>
     <t xml:space="preserve">snake_bite_detail</t>
@@ -4483,7 +4501,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4532,6 +4550,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -4619,7 +4644,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4672,11 +4697,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4793,11 +4822,11 @@
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.1015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.69"/>
   </cols>
@@ -5844,11 +5873,11 @@
   </sheetPr>
   <dimension ref="A1:Q1016"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.67"/>
@@ -7331,13 +7360,13 @@
   </sheetPr>
   <dimension ref="A1:Y1011"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C90" activeCellId="0" sqref="C90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.16"/>
@@ -11123,11 +11152,11 @@
   </sheetPr>
   <dimension ref="A1:Y763"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.79"/>
@@ -29551,11 +29580,11 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.1015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.04"/>
@@ -30691,4863 +30720,4843 @@
   </sheetPr>
   <dimension ref="A1:D353"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D210" activeCellId="0" sqref="D210"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.40234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="37.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="35.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="13" width="37.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="13" width="11.4"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="13" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="13" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="13" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="13" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="13" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="13" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="13" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="13" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="13" t="s">
         <v>449</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="13" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="13" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="13" t="s">
         <v>455</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="13" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="13" t="s">
         <v>459</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="13" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="13" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="13" t="s">
         <v>465</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="13" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="13" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="13" t="s">
         <v>471</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="13" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="13" t="s">
         <v>473</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="13" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="13" t="s">
         <v>476</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="13" t="s">
         <v>477</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="13" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="13" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="13" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="13" t="s">
         <v>485</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="13" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="13" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="13" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="13" t="s">
         <v>493</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="13" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="13" t="s">
         <v>496</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="13" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="13" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="13" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="13" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="13" t="s">
         <v>505</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="13" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="13" t="s">
         <v>508</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="13" t="s">
         <v>509</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="13" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="13" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="13" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="13" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="13" t="s">
         <v>520</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="13" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="13" t="s">
         <v>522</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="13" t="s">
         <v>523</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="13" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="13" t="s">
         <v>525</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="13" t="s">
         <v>526</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="13" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="13" t="s">
         <v>528</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="13" t="s">
         <v>529</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="13" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="13" t="s">
         <v>531</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="13" t="s">
         <v>532</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="13" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="13" t="s">
         <v>535</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="13" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="13" t="s">
         <v>537</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="13" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="13" t="s">
         <v>540</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="13" t="s">
         <v>541</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="13" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="13" t="s">
         <v>543</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="13" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="13" t="s">
         <v>547</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="13" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="13" t="s">
         <v>549</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="13" t="s">
         <v>550</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="13" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="13" t="s">
         <v>552</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="13" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="13" t="s">
         <v>555</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="13" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="13" t="s">
         <v>557</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="13" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="13" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="13" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="13" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="13" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="13" t="s">
         <v>567</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="13" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="13" t="s">
         <v>569</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="13" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="13" t="s">
         <v>572</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="13" t="s">
         <v>573</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="13" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="13" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="13" t="s">
         <v>576</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="13" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="13" t="s">
         <v>578</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="13" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="13" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="13" t="s">
         <v>583</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="13" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="13" t="s">
         <v>586</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="13" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="13" t="s">
         <v>588</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="13" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="13" t="s">
         <v>590</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="13" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="13" t="s">
         <v>592</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="13" t="s">
         <v>593</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="13" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="13" t="s">
         <v>595</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" s="13" t="s">
         <v>596</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" s="13" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="13" t="s">
         <v>598</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" s="13" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="13" t="s">
         <v>601</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" s="13" t="s">
         <v>593</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" s="13" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="13" t="s">
         <v>602</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" s="13" t="s">
         <v>603</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" s="13" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="13" t="s">
         <v>605</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="13" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="13" t="s">
         <v>606</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="13" t="s">
         <v>607</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="13" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="13" t="s">
         <v>609</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="13" t="s">
         <v>610</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="13" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="13" t="s">
         <v>612</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="13" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="13" t="s">
         <v>614</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="13" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="13" t="s">
         <v>616</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="13" t="s">
         <v>617</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="13" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="13" t="s">
         <v>619</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="13" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="13" t="s">
         <v>621</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="13" t="s">
         <v>622</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="13" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="13" t="s">
         <v>624</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="13" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="13" t="s">
         <v>627</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="13" t="s">
         <v>628</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="13" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="13" t="s">
         <v>630</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="13" t="s">
         <v>631</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="13" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="13" t="s">
         <v>633</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="13" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="13" t="s">
         <v>636</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="13" t="s">
         <v>637</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="13" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="13" t="s">
         <v>639</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="13" t="s">
         <v>640</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="13" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="13" t="s">
         <v>642</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="13" t="s">
         <v>643</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="13" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="13" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="13" t="s">
         <v>647</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="13" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="13" t="s">
         <v>649</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="13" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="A87" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="13" t="s">
         <v>651</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="13" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="A88" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="13" t="s">
         <v>653</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="13" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="A89" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="13" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="A90" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="13" t="s">
         <v>656</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="13" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="13" t="s">
         <v>658</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="13" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="A92" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="13" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="A93" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="13" t="s">
         <v>662</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="13" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="A94" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="13" t="s">
         <v>664</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="13" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="A95" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="13" t="s">
         <v>666</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="13" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="A96" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="13" t="s">
         <v>668</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="13" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="A97" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="13" t="s">
         <v>670</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" s="13" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="A98" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="13" t="s">
         <v>673</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="13" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="A99" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="13" t="s">
         <v>675</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="13" t="s">
         <v>676</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="13" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="A100" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="13" t="s">
         <v>679</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="13" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="A101" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="13" t="s">
         <v>681</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="13" t="s">
         <v>682</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="13" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="A102" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="13" t="s">
         <v>684</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="13" t="s">
         <v>685</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="13" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="A103" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="13" t="s">
         <v>687</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="13" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="A104" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="13" t="s">
         <v>689</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" s="13" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="A105" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" s="13" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="A106" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="13" t="s">
         <v>693</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="13" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+      <c r="A107" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D107" s="13" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+      <c r="A108" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" s="13" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+      <c r="A109" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D109" s="13" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+      <c r="A110" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="13" t="s">
         <v>701</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D110" s="13" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+      <c r="A111" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="13" t="s">
         <v>705</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D111" s="13" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+      <c r="A112" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="13" t="s">
         <v>707</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D112" s="13" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+      <c r="A113" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="13" t="s">
         <v>710</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="13" t="s">
         <v>711</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D113" s="13" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+      <c r="A114" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="13" t="s">
         <v>713</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="13" t="s">
         <v>714</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D114" s="13" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+      <c r="A115" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="13" t="s">
         <v>716</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="13" t="s">
         <v>717</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D115" s="13" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+      <c r="A116" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="13" t="s">
         <v>719</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D116" s="13" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+      <c r="A117" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="13" t="s">
         <v>722</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="13" t="s">
         <v>723</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D117" s="13" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+      <c r="A118" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="13" t="s">
         <v>725</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="13" t="s">
         <v>726</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D118" s="13" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+      <c r="A119" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="13" t="s">
         <v>728</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="13" t="s">
         <v>729</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D119" s="13" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+      <c r="A120" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="13" t="s">
         <v>731</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="13" t="s">
         <v>732</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D120" s="13" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+      <c r="A121" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="13" t="s">
         <v>734</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="13" t="s">
         <v>735</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D121" s="13" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+      <c r="A122" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="13" t="s">
         <v>737</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="13" t="s">
         <v>738</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D122" s="13" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+      <c r="A123" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="13" t="s">
         <v>740</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="13" t="s">
         <v>741</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="D123" s="13" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+      <c r="A124" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="13" t="s">
         <v>743</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="13" t="s">
         <v>744</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D124" s="13" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
+      <c r="A125" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="13" t="s">
         <v>746</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="13" t="s">
         <v>747</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="D125" s="13" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+      <c r="A126" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="13" t="s">
         <v>749</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="D126" s="13" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+      <c r="A127" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="13" t="s">
         <v>750</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D127" s="13" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+      <c r="A128" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="13" t="s">
         <v>752</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D128" s="13" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+      <c r="A129" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="13" t="s">
         <v>754</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="13" t="s">
         <v>755</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D129" s="13" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+      <c r="A130" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="13" t="s">
         <v>757</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D130" s="13" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+      <c r="A131" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="13" t="s">
         <v>759</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D131" s="13" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+      <c r="A132" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="13" t="s">
         <v>761</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="13" t="s">
         <v>762</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D132" s="13" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+      <c r="A133" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="13" t="s">
         <v>764</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D133" s="13" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+      <c r="A134" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="13" t="s">
         <v>766</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D134" s="13" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+      <c r="A135" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="13" t="s">
         <v>768</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="13" t="s">
         <v>769</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="D135" s="13" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+      <c r="A136" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="13" t="s">
         <v>771</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="13" t="s">
         <v>772</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="D136" s="13" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+      <c r="A137" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="13" t="s">
         <v>774</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="13" t="s">
         <v>775</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="D137" s="13" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+      <c r="A138" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="13" t="s">
         <v>777</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="13" t="s">
         <v>778</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="D138" s="13" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+      <c r="A139" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="13" t="s">
         <v>780</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="13" t="s">
         <v>781</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="D139" s="13" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+      <c r="A140" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="13" t="s">
         <v>783</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="13" t="s">
         <v>784</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="D140" s="13" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+      <c r="A141" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="13" t="s">
         <v>786</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="13" t="s">
         <v>787</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="D141" s="13" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+      <c r="A142" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="13" t="s">
         <v>789</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="13" t="s">
         <v>790</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="D142" s="13" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+      <c r="A143" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="13" t="s">
         <v>792</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="13" t="s">
         <v>793</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="D143" s="13" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
+      <c r="A144" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="13" t="s">
         <v>795</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="13" t="s">
         <v>796</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D144" s="13" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
+      <c r="A145" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="13" t="s">
         <v>798</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="13" t="s">
         <v>799</v>
       </c>
-      <c r="D145" s="2" t="s">
+      <c r="D145" s="13" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
+      <c r="A146" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="13" t="s">
         <v>801</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="13" t="s">
         <v>802</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="D146" s="13" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
+      <c r="A147" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="13" t="s">
         <v>804</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="13" t="s">
         <v>805</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="D147" s="13" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
+      <c r="A148" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="13" t="s">
         <v>807</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="13" t="s">
         <v>808</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="D148" s="13" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
+      <c r="A149" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="13" t="s">
         <v>810</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="13" t="s">
         <v>811</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="D149" s="13" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
+      <c r="A150" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="13" t="s">
         <v>813</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="13" t="s">
         <v>814</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="D150" s="13" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
+      <c r="A151" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="13" t="s">
         <v>816</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="13" t="s">
         <v>817</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="D151" s="13" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
+      <c r="A152" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="13" t="s">
         <v>819</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="13" t="s">
         <v>820</v>
       </c>
-      <c r="D152" s="2" t="s">
+      <c r="D152" s="13" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
+      <c r="A153" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="13" t="s">
         <v>822</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="13" t="s">
         <v>823</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="D153" s="13" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
+      <c r="A154" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="13" t="s">
         <v>825</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="13" t="s">
         <v>826</v>
       </c>
-      <c r="D154" s="2" t="s">
+      <c r="D154" s="13" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
+      <c r="A155" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="13" t="s">
         <v>828</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="13" t="s">
         <v>829</v>
       </c>
-      <c r="D155" s="2" t="s">
+      <c r="D155" s="13" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
+      <c r="A156" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="13" t="s">
         <v>831</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="13" t="s">
         <v>832</v>
       </c>
-      <c r="D156" s="2" t="s">
+      <c r="D156" s="13" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
+      <c r="A157" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="13" t="s">
         <v>834</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="13" t="s">
         <v>835</v>
       </c>
-      <c r="D157" s="2" t="s">
+      <c r="D157" s="13" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
+      <c r="A158" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="13" t="s">
         <v>837</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="D158" s="13" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
+      <c r="A159" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="13" t="s">
         <v>839</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="D159" s="13" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
+      <c r="A160" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="13" t="s">
         <v>841</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="D160" s="13" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
+      <c r="A161" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="13" t="s">
         <v>843</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="D161" s="13" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
+      <c r="A162" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="13" t="s">
         <v>845</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D162" s="13" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
+      <c r="A163" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="13" t="s">
         <v>847</v>
       </c>
-      <c r="D163" s="2" t="s">
+      <c r="D163" s="13" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
+      <c r="A164" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="13" t="s">
         <v>849</v>
       </c>
-      <c r="D164" s="2" t="s">
+      <c r="D164" s="13" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
+      <c r="A165" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C165" s="13" t="s">
         <v>851</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="D165" s="13" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="s">
+      <c r="A166" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="13" t="s">
         <v>853</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="D166" s="13" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
+      <c r="A167" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="D167" s="2" t="s">
+      <c r="D167" s="13" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
+      <c r="A168" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="13" t="s">
         <v>855</v>
       </c>
-      <c r="D168" s="2" t="s">
+      <c r="D168" s="13" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
+      <c r="A169" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="D169" s="2" t="s">
+      <c r="D169" s="13" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
+      <c r="A170" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="13" t="s">
         <v>857</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="13" t="s">
         <v>858</v>
       </c>
-      <c r="D170" s="2" t="s">
+      <c r="D170" s="13" t="s">
         <v>859</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
+      <c r="A171" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="D171" s="2" t="s">
+      <c r="D171" s="13" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
+      <c r="A172" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="13" t="s">
         <v>861</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="13" t="s">
         <v>862</v>
       </c>
-      <c r="D172" s="2" t="s">
+      <c r="D172" s="13" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
+      <c r="A173" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="13" t="s">
         <v>864</v>
       </c>
-      <c r="D173" s="2" t="s">
+      <c r="D173" s="13" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
+      <c r="A174" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="13" t="s">
         <v>865</v>
       </c>
-      <c r="D174" s="2" t="s">
+      <c r="D174" s="13" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
+      <c r="A175" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C175" s="13" t="s">
         <v>867</v>
       </c>
-      <c r="D175" s="2" t="s">
+      <c r="D175" s="13" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
+      <c r="A176" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B176" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C176" s="13" t="s">
         <v>868</v>
       </c>
-      <c r="D176" s="2" t="s">
+      <c r="D176" s="13" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
+      <c r="A177" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="13" t="s">
         <v>869</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" s="13" t="s">
         <v>870</v>
       </c>
-      <c r="D177" s="2" t="s">
+      <c r="D177" s="13" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
+      <c r="A178" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" s="13" t="s">
         <v>872</v>
       </c>
-      <c r="D178" s="2" t="s">
+      <c r="D178" s="13" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
+      <c r="A179" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="13" t="s">
         <v>874</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C179" s="13" t="s">
         <v>875</v>
       </c>
-      <c r="D179" s="2" t="s">
+      <c r="D179" s="13" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
+      <c r="A180" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" s="13" t="s">
         <v>877</v>
       </c>
-      <c r="D180" s="2" t="s">
+      <c r="D180" s="13" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
+      <c r="A181" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B181" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" s="13" t="s">
         <v>879</v>
       </c>
-      <c r="D181" s="2" t="s">
+      <c r="D181" s="13" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
+      <c r="A182" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B182" s="13" t="s">
         <v>881</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C182" s="13" t="s">
         <v>882</v>
       </c>
-      <c r="D182" s="2" t="s">
+      <c r="D182" s="13" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="s">
+      <c r="A183" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" s="13" t="s">
         <v>884</v>
       </c>
-      <c r="D183" s="2" t="s">
+      <c r="D183" s="13" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="s">
+      <c r="A184" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" s="13" t="s">
         <v>886</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C184" s="13" t="s">
         <v>887</v>
       </c>
-      <c r="D184" s="2" t="s">
+      <c r="D184" s="13" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
+      <c r="A185" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B185" s="13" t="s">
         <v>889</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="C185" s="13" t="s">
         <v>890</v>
       </c>
-      <c r="D185" s="2" t="s">
+      <c r="D185" s="13" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="s">
+      <c r="A186" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B186" s="13" t="s">
         <v>892</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C186" s="13" t="s">
         <v>893</v>
       </c>
-      <c r="D186" s="2" t="s">
+      <c r="D186" s="13" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="s">
+      <c r="A187" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="13" t="s">
         <v>895</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" s="13" t="s">
         <v>896</v>
       </c>
-      <c r="D187" s="2" t="s">
+      <c r="D187" s="13" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="s">
+      <c r="A188" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="13" t="s">
         <v>898</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" s="13" t="s">
         <v>899</v>
       </c>
-      <c r="D188" s="2" t="s">
+      <c r="D188" s="13" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="s">
+      <c r="A189" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="13" t="s">
         <v>901</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" s="13" t="s">
         <v>902</v>
       </c>
-      <c r="D189" s="2" t="s">
+      <c r="D189" s="13" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="s">
+      <c r="A190" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="13" t="s">
         <v>904</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" s="13" t="s">
         <v>905</v>
       </c>
-      <c r="D190" s="2" t="s">
+      <c r="D190" s="13" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
-      <c r="D191" s="2"/>
-    </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="s">
+      <c r="A192" s="13" t="s">
         <v>907</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="13" t="s">
         <v>908</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" s="13" t="s">
         <v>909</v>
       </c>
-      <c r="D192" s="2" t="s">
+      <c r="D192" s="13" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="s">
+      <c r="A193" s="13" t="s">
         <v>911</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="13" t="s">
         <v>912</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C193" s="13" t="s">
         <v>913</v>
       </c>
-      <c r="D193" s="2" t="s">
+      <c r="D193" s="13" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="s">
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="13" t="s">
         <v>915</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" s="13" t="s">
         <v>916</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C194" s="13" t="s">
         <v>917</v>
       </c>
-      <c r="D194" s="2" t="s">
+      <c r="D194" s="13" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="s">
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="13" t="s">
         <v>919</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="13" t="s">
         <v>920</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C195" s="13" t="s">
         <v>921</v>
       </c>
-      <c r="D195" s="2" t="s">
+      <c r="D195" s="13" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="s">
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="13" t="s">
         <v>923</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" s="13" t="s">
         <v>924</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" s="13" t="s">
         <v>925</v>
       </c>
-      <c r="D196" s="2" t="s">
+      <c r="D196" s="13" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
-      <c r="D197" s="2"/>
-    </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="s">
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="13" t="s">
         <v>927</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B198" s="13" t="s">
         <v>928</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="C198" s="13" t="s">
         <v>929</v>
       </c>
-      <c r="D198" s="2" t="s">
+      <c r="D198" s="13" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="s">
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="13" t="s">
         <v>931</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B199" s="13" t="s">
         <v>932</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C199" s="13" t="s">
         <v>933</v>
       </c>
-      <c r="D199" s="2" t="s">
+      <c r="D199" s="13" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="13" t="s">
         <v>935</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" s="13" t="s">
         <v>936</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C200" s="13" t="s">
         <v>937</v>
       </c>
-      <c r="D200" s="2" t="s">
+      <c r="D200" s="13" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="s">
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="13" t="s">
         <v>939</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B201" s="13" t="s">
         <v>940</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="C201" s="13" t="s">
         <v>941</v>
       </c>
-      <c r="D201" s="2" t="s">
+      <c r="D201" s="13" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="13" t="s">
         <v>943</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B202" s="13" t="s">
         <v>944</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C202" s="13" t="s">
         <v>945</v>
       </c>
-      <c r="D202" s="2" t="s">
+      <c r="D202" s="13" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="s">
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="13" t="s">
         <v>947</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B203" s="13" t="s">
         <v>948</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C203" s="13" t="s">
         <v>949</v>
       </c>
-      <c r="D203" s="2" t="s">
+      <c r="D203" s="13" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="s">
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="13" t="s">
         <v>951</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B204" s="13" t="s">
         <v>952</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C204" s="13" t="s">
         <v>953</v>
       </c>
-      <c r="D204" s="2" t="s">
+      <c r="D204" s="13" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B205" s="2"/>
-    </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B206" s="0" t="s">
+      <c r="B206" s="13" t="s">
         <v>955</v>
       </c>
-      <c r="C206" s="0" t="s">
+      <c r="C206" s="13" t="s">
         <v>593</v>
       </c>
-      <c r="D206" s="0" t="s">
+      <c r="D206" s="13" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="s">
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B207" s="0" t="s">
+      <c r="B207" s="13" t="s">
         <v>956</v>
       </c>
-      <c r="C207" s="0" t="s">
+      <c r="C207" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="D207" s="0" t="s">
+      <c r="D207" s="13" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="s">
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B208" s="0" t="s">
+      <c r="B208" s="13" t="s">
         <v>957</v>
       </c>
-      <c r="C208" s="0" t="s">
+      <c r="C208" s="13" t="s">
         <v>607</v>
       </c>
-      <c r="D208" s="0" t="s">
+      <c r="D208" s="13" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0" t="s">
+      <c r="A209" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B209" s="0" t="s">
+      <c r="B209" s="13" t="s">
         <v>958</v>
       </c>
-      <c r="C209" s="8" t="s">
-        <v>958</v>
-      </c>
-      <c r="D209" s="8" t="s">
-        <v>958</v>
+      <c r="C209" s="13" t="s">
+        <v>959</v>
+      </c>
+      <c r="D209" s="13" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="s">
-        <v>959</v>
-      </c>
-      <c r="B210" s="0" t="s">
-        <v>960</v>
-      </c>
-      <c r="C210" s="8" t="s">
-        <v>960</v>
-      </c>
-      <c r="D210" s="8" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="s">
+      <c r="A210" s="13" t="s">
+        <v>961</v>
+      </c>
+      <c r="B210" s="13" t="s">
+        <v>962</v>
+      </c>
+      <c r="C210" s="13" t="s">
+        <v>963</v>
+      </c>
+      <c r="D210" s="13" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="B211" s="0" t="s">
-        <v>961</v>
-      </c>
-      <c r="C211" s="0" t="s">
-        <v>962</v>
-      </c>
-      <c r="D211" s="0" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
-        <v>964</v>
-      </c>
-      <c r="B212" s="0" t="s">
+      <c r="B211" s="13" t="s">
         <v>965</v>
       </c>
-      <c r="C212" s="0" t="s">
+      <c r="C211" s="13" t="s">
         <v>966</v>
       </c>
-      <c r="D212" s="0" t="s">
+      <c r="D211" s="13" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="s">
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="13" t="s">
         <v>968</v>
       </c>
-      <c r="B213" s="0" t="s">
+      <c r="B212" s="13" t="s">
         <v>969</v>
       </c>
-      <c r="C213" s="0" t="s">
+      <c r="C212" s="13" t="s">
         <v>970</v>
       </c>
-      <c r="D213" s="0" t="s">
+      <c r="D212" s="13" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="s">
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="13" t="s">
         <v>972</v>
       </c>
-      <c r="B214" s="0" t="s">
+      <c r="B213" s="13" t="s">
         <v>973</v>
       </c>
-      <c r="C214" s="0" t="s">
+      <c r="C213" s="13" t="s">
         <v>974</v>
       </c>
-      <c r="D214" s="0" t="s">
+      <c r="D213" s="13" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="46.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0" t="s">
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="13" t="s">
         <v>976</v>
       </c>
-      <c r="B215" s="0" t="s">
+      <c r="B214" s="13" t="s">
         <v>977</v>
       </c>
-      <c r="C215" s="13" t="s">
+      <c r="C214" s="13" t="s">
         <v>978</v>
       </c>
-      <c r="D215" s="13" t="s">
+      <c r="D214" s="13" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="46.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="s">
+    <row r="215" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="13" t="s">
         <v>980</v>
       </c>
-      <c r="B216" s="0" t="s">
+      <c r="B215" s="13" t="s">
         <v>981</v>
       </c>
-      <c r="C216" s="13" t="s">
+      <c r="C215" s="14" t="s">
         <v>982</v>
       </c>
-      <c r="D216" s="13" t="s">
+      <c r="D215" s="14" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0" t="s">
+    <row r="216" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="13" t="s">
         <v>984</v>
       </c>
-      <c r="B217" s="0" t="s">
+      <c r="B216" s="13" t="s">
         <v>985</v>
       </c>
-      <c r="C217" s="0" t="s">
+      <c r="C216" s="14" t="s">
         <v>986</v>
       </c>
-      <c r="D217" s="0" t="s">
+      <c r="D216" s="14" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0" t="s">
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="13" t="s">
         <v>988</v>
       </c>
-      <c r="B218" s="0" t="s">
+      <c r="B217" s="13" t="s">
         <v>989</v>
       </c>
-      <c r="C218" s="0" t="s">
+      <c r="C217" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="D218" s="0" t="s">
+      <c r="D217" s="13" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="0" t="s">
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="13" t="s">
         <v>992</v>
       </c>
-      <c r="B219" s="0" t="s">
+      <c r="B218" s="13" t="s">
         <v>993</v>
       </c>
-      <c r="C219" s="0" t="s">
+      <c r="C218" s="13" t="s">
         <v>994</v>
       </c>
-      <c r="D219" s="0" t="s">
+      <c r="D218" s="13" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0" t="s">
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="13" t="s">
         <v>996</v>
       </c>
-      <c r="B220" s="0" t="s">
+      <c r="B219" s="13" t="s">
         <v>997</v>
       </c>
-      <c r="C220" s="0" t="s">
+      <c r="C219" s="13" t="s">
         <v>998</v>
       </c>
-      <c r="D220" s="0" t="s">
+      <c r="D219" s="13" t="s">
         <v>999</v>
       </c>
     </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="13" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B220" s="13" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C220" s="13" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D220" s="13" t="s">
+        <v>1003</v>
+      </c>
+    </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B221" s="0" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C221" s="8" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D221" s="8" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B222" s="0" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C222" s="0" t="s">
+      <c r="A221" s="13" t="s">
         <v>1004</v>
       </c>
-      <c r="D222" s="0" t="s">
+      <c r="B221" s="13" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="s">
+      <c r="C221" s="14" t="s">
         <v>1006</v>
       </c>
-      <c r="B223" s="0" t="s">
+      <c r="D221" s="14" t="s">
         <v>1007</v>
       </c>
-      <c r="C223" s="0" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D223" s="0" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="s">
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="13" t="s">
         <v>1008</v>
       </c>
-      <c r="B224" s="0" t="s">
+      <c r="B222" s="13" t="s">
         <v>1009</v>
       </c>
-      <c r="C224" s="13" t="s">
+      <c r="C222" s="13" t="s">
         <v>1010</v>
       </c>
-      <c r="D224" s="13" t="s">
+      <c r="D222" s="13" t="s">
         <v>1011</v>
       </c>
     </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="13" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B223" s="13" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C223" s="13" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D223" s="13" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="13" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B224" s="13" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C224" s="14" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D224" s="14" t="s">
+        <v>1017</v>
+      </c>
+    </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B225" s="0" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B226" s="0" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C226" s="0" t="s">
+      <c r="A225" s="13" t="s">
         <v>1018</v>
       </c>
-      <c r="D226" s="0" t="s">
+      <c r="B225" s="13" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0" t="s">
+      <c r="C225" s="13" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D225" s="13" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="13" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B226" s="13" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C226" s="13" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D226" s="13" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B227" s="0" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C227" s="0" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D227" s="0" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B228" s="0" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C228" s="0" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D228" s="0" t="s">
+      <c r="B227" s="13" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="s">
+      <c r="C227" s="13" t="s">
         <v>1027</v>
       </c>
-      <c r="B229" s="0" t="s">
+      <c r="D227" s="13" t="s">
         <v>1028</v>
       </c>
-      <c r="C229" s="0" t="s">
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="13" t="s">
         <v>1029</v>
       </c>
-      <c r="D229" s="0" t="s">
+      <c r="B228" s="13" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0" t="s">
+      <c r="C228" s="13" t="s">
         <v>1031</v>
       </c>
-      <c r="B230" s="0" t="s">
+      <c r="D228" s="13" t="s">
         <v>1032</v>
       </c>
-      <c r="C230" s="0" t="s">
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="13" t="s">
         <v>1033</v>
       </c>
-      <c r="D230" s="0" t="s">
+      <c r="B229" s="13" t="s">
         <v>1034</v>
       </c>
-    </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="0" t="s">
+      <c r="C229" s="13" t="s">
         <v>1035</v>
       </c>
-      <c r="B231" s="0" t="s">
+      <c r="D229" s="13" t="s">
         <v>1036</v>
       </c>
-      <c r="C231" s="0" t="s">
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="13" t="s">
         <v>1037</v>
       </c>
-      <c r="D231" s="0" t="s">
+      <c r="B230" s="13" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="0" t="s">
+      <c r="C230" s="13" t="s">
         <v>1039</v>
       </c>
-      <c r="B232" s="0" t="s">
+      <c r="D230" s="13" t="s">
         <v>1040</v>
       </c>
-      <c r="C232" s="0" t="s">
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="13" t="s">
         <v>1041</v>
       </c>
-      <c r="D232" s="0" t="s">
+      <c r="B231" s="13" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="0" t="s">
+      <c r="C231" s="13" t="s">
         <v>1043</v>
       </c>
-      <c r="B233" s="0" t="s">
+      <c r="D231" s="13" t="s">
         <v>1044</v>
       </c>
-      <c r="C233" s="0" t="s">
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="13" t="s">
         <v>1045</v>
       </c>
-      <c r="D233" s="0" t="s">
+      <c r="B232" s="13" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="0" t="s">
+      <c r="C232" s="13" t="s">
         <v>1047</v>
       </c>
-      <c r="B234" s="0" t="s">
+      <c r="D232" s="13" t="s">
         <v>1048</v>
       </c>
-      <c r="C234" s="0" t="s">
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="13" t="s">
         <v>1049</v>
       </c>
-      <c r="D234" s="0" t="s">
+      <c r="B233" s="13" t="s">
         <v>1050</v>
       </c>
+      <c r="C233" s="13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D233" s="13" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="13" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B234" s="13" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C234" s="13" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D234" s="13" t="s">
+        <v>1056</v>
+      </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="0" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B235" s="0" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C235" s="13" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D235" s="13" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="47.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="0" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B236" s="0" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C236" s="13" t="s">
+      <c r="A235" s="13" t="s">
         <v>1057</v>
       </c>
-      <c r="D236" s="13" t="s">
+      <c r="B235" s="13" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="238" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="0" t="s">
+      <c r="C235" s="14" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D235" s="14" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="13" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B236" s="13" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C236" s="14" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D236" s="14" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B238" s="0" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C238" s="13" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D238" s="13" t="s">
-        <v>1061</v>
+      <c r="B238" s="13" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C238" s="14" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D238" s="14" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="32.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A239" s="0" t="s">
+      <c r="A239" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B239" s="0" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C239" s="13" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D239" s="13" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="0" t="s">
+      <c r="B239" s="13" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C239" s="14" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D239" s="14" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B240" s="0" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C240" s="0" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D240" s="0" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="0" t="s">
+      <c r="B240" s="13" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C240" s="13" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D240" s="13" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B241" s="0" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C241" s="0" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D241" s="0" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="0" t="s">
+      <c r="B241" s="13" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C241" s="13" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D241" s="13" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B242" s="0" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C242" s="0" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D242" s="0" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="0" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B243" s="0" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C243" s="13" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D243" s="13" t="s">
+      <c r="B242" s="13" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="244" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="0" t="s">
+      <c r="C242" s="13" t="s">
         <v>1078</v>
       </c>
-      <c r="B244" s="0" t="s">
+      <c r="D242" s="13" t="s">
         <v>1079</v>
       </c>
-      <c r="C244" s="13" t="s">
+    </row>
+    <row r="243" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="13" t="s">
         <v>1080</v>
       </c>
-      <c r="D244" s="13" t="s">
+      <c r="B243" s="13" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="245" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="0" t="s">
+      <c r="C243" s="14" t="s">
         <v>1082</v>
       </c>
-      <c r="B245" s="0" t="s">
+      <c r="D243" s="14" t="s">
         <v>1083</v>
       </c>
-      <c r="C245" s="13" t="s">
+    </row>
+    <row r="244" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="13" t="s">
         <v>1084</v>
       </c>
-      <c r="D245" s="13" t="s">
+      <c r="B244" s="13" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="0" t="s">
+      <c r="C244" s="14" t="s">
         <v>1086</v>
       </c>
-      <c r="B246" s="0" t="s">
+      <c r="D244" s="14" t="s">
         <v>1087</v>
       </c>
-      <c r="C246" s="0" t="s">
+    </row>
+    <row r="245" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="13" t="s">
         <v>1088</v>
       </c>
-      <c r="D246" s="0" t="s">
+      <c r="B245" s="13" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="0" t="s">
+      <c r="C245" s="14" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D245" s="14" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="13" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B246" s="13" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C246" s="13" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D246" s="13" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B249" s="0" t="s">
+      <c r="B249" s="13" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C249" s="13" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D249" s="13" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B250" s="13" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C250" s="13" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D250" s="13" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B251" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C251" s="13" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D251" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B252" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C252" s="13" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D252" s="13" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B253" s="13" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C253" s="13" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D253" s="13" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B254" s="13" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C254" s="13" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D254" s="13" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B255" s="13" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C255" s="13" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D255" s="13" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="13" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B256" s="13" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C256" s="13" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D256" s="13" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="13" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B257" s="13" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C257" s="13" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D257" s="13" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="13" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B258" s="13" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C258" s="13" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D258" s="13" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="13" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B259" s="13" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C259" s="13" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D259" s="13" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="13" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B260" s="13" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C260" s="13" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D260" s="13" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="13" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B261" s="13" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C261" s="13" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D261" s="13" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="13" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B262" s="13" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C262" s="13" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D262" s="13" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="13" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B263" s="13" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C263" s="13" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D263" s="13" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="13" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B264" s="13" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C264" s="13" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D264" s="13" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="13" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B265" s="13" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C265" s="13" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D265" s="13" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="13" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B266" s="13" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C266" s="13" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D266" s="13" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="13" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B267" s="13" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C267" s="13" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D267" s="13" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="13" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B268" s="13" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C268" s="13" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D268" s="13" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="13" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B269" s="13" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C269" s="13" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D269" s="13" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="13" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B270" s="13" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C270" s="13" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D270" s="13" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="13" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B271" s="13" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C271" s="13" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D271" s="13" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="13" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B272" s="13" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C272" s="13" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D272" s="13" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="13" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B273" s="13" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C273" s="13" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D273" s="13" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="13" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B274" s="13" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C274" s="13" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D274" s="13" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="13" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B275" s="13" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C275" s="13" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D275" s="13" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="13" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B276" s="13" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C276" s="13" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D276" s="13" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="13" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B277" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C277" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D277" s="13" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="13" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B278" s="13" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C278" s="13" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D278" s="13" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="13" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B279" s="13" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C279" s="13" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D279" s="13" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="13" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B280" s="13" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C280" s="13" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D280" s="13" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="13" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B281" s="13" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C281" s="13" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D281" s="13" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="13" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B282" s="13" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C282" s="13" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D282" s="13" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="13" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B283" s="13" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C283" s="13" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D283" s="13" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="13" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B284" s="13" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C284" s="13" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D284" s="13" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="13" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B285" s="13" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C285" s="13" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D285" s="13" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="13" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B286" s="13" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C286" s="13" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D286" s="13" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="13" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B287" s="13" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C287" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D287" s="13" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="13" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B288" s="13" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C288" s="13" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D288" s="13" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="13" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B289" s="13" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C289" s="13" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D289" s="13" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="13" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B291" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C291" s="13" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D291" s="13" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="13" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B292" s="13" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C292" s="13" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D292" s="13" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="13" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B293" s="13" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C293" s="13" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D293" s="13" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="13" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B294" s="13" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C294" s="13" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D294" s="13" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="13" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B295" s="13" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C295" s="13" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D295" s="13" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="13" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B296" s="13" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C296" s="13" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D296" s="13" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="13" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B297" s="13" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C297" s="13" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D297" s="13" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="13" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B298" s="13" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C298" s="13" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D298" s="13" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="13" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B299" s="13" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C299" s="13" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D299" s="13" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="13" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B300" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C300" s="13" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D300" s="13" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="13" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B301" s="13" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C301" s="13" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D301" s="13" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="13" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B302" s="13" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C302" s="13" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D302" s="13" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="13" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B303" s="13" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C303" s="13" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D303" s="13" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="13" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B304" s="13" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C304" s="13" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D304" s="13" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="13" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B305" s="13" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C305" s="13" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D305" s="13" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="13" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B306" s="13" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C306" s="13" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D306" s="13" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="13" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B307" s="13" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C307" s="13" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D307" s="13" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="13" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B308" s="13" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C308" s="13" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D308" s="13" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="13" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B309" s="13" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C309" s="13" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D309" s="13" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="13" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B310" s="13" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C310" s="13" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D310" s="13" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="13" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B311" s="13" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C311" s="13" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D311" s="13" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="13" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B312" s="13" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C312" s="13" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D312" s="13" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="13" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B313" s="13" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C313" s="13" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D313" s="13" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="13" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B314" s="13" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C314" s="13" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D314" s="13" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="13" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B315" s="13" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C315" s="13" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D315" s="13" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="13" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B316" s="13" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C316" s="13" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D316" s="13" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="13" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B317" s="13" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C317" s="13" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D317" s="13" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="13" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B318" s="13" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C318" s="13" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D318" s="13" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="13" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B319" s="13" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C319" s="13" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D319" s="13" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="13" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B320" s="13" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C320" s="13" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D320" s="13" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="13" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B321" s="13" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C321" s="13" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D321" s="13" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="13" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B322" s="13" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C322" s="13" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D322" s="13" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="13" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B323" s="13" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C323" s="13" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D323" s="13" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="13" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B324" s="13" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C324" s="13" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D324" s="13" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="13" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B325" s="13" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C325" s="13" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D325" s="13" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="13" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B326" s="13" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C326" s="13" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D326" s="13" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="13" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B327" s="13" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C327" s="13" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D327" s="13" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="13" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B328" s="13" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C328" s="13" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D328" s="13" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="13" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B329" s="13" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C329" s="13" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D329" s="13" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="13" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B330" s="13" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C330" s="13" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D330" s="13" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="13" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B331" s="13" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C331" s="13" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D331" s="13" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="13" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B332" s="13" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C332" s="13" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D332" s="13" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="13" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B333" s="13" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C333" s="13" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D333" s="13" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="13" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B334" s="13" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C334" s="13" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D334" s="13" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="13" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B335" s="13" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C335" s="13" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D335" s="13" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="13" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B336" s="13" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C336" s="13" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D336" s="13" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="13" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B337" s="13" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C337" s="13" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D337" s="13" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="13" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B339" s="13" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C339" s="14" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D339" s="14" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="13" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B340" s="13" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C340" s="14" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D340" s="14" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="13" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B341" s="13" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C341" s="14" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D341" s="14" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="13" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B342" s="13" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C342" s="14" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D342" s="14" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="13" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B343" s="13" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C343" s="14" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D343" s="14" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="13" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B344" s="13" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C344" s="14" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D344" s="14" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="13" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B345" s="13" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C345" s="14" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D345" s="14" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="13" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B346" s="13" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C346" s="14" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D346" s="14" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="13" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B347" s="13" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C347" s="14" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D347" s="14" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="16.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A348" s="13" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B348" s="15" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C348" s="14" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D348" s="14" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="13" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B349" s="13" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C349" s="13" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D349" s="13" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="13" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B350" s="13" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C350" s="13" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D350" s="13" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="13" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B351" s="13" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C351" s="14" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D351" s="14" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="13" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B352" s="13" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C352" s="14" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D352" s="14" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="13" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B353" s="13" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C353" s="14" t="s">
         <v>1090</v>
       </c>
-      <c r="C249" s="0" t="s">
+      <c r="D353" s="14" t="s">
         <v>1091</v>
       </c>
-      <c r="D249" s="0" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B250" s="0" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C250" s="0" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D250" s="0" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B251" s="0" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C251" s="0" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D251" s="0" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B252" s="0" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C252" s="0" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D252" s="0" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B253" s="0" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C253" s="0" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D253" s="0" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B254" s="0" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C254" s="0" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D254" s="0" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B255" s="0" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C255" s="0" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D255" s="0" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="0" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B256" s="0" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C256" s="0" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D256" s="0" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="0" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B257" s="0" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C257" s="0" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D257" s="0" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="0" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B258" s="0" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C258" s="0" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D258" s="0" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="0" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B259" s="0" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C259" s="0" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D259" s="0" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="0" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B260" s="0" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C260" s="0" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D260" s="0" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="0" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B261" s="0" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C261" s="0" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D261" s="0" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="0" t="s">
-        <v>1135</v>
-      </c>
-      <c r="B262" s="0" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C262" s="0" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D262" s="0" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="0" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B263" s="0" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C263" s="0" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D263" s="0" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="0" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B264" s="0" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C264" s="0" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D264" s="0" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="0" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B265" s="0" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C265" s="0" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D265" s="0" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="0" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B266" s="0" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C266" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D266" s="0" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="0" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B267" s="0" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C267" s="0" t="s">
-        <v>1157</v>
-      </c>
-      <c r="D267" s="0" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="0" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B268" s="0" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C268" s="0" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D268" s="0" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="0" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B269" s="0" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C269" s="0" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D269" s="0" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="0" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B270" s="0" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C270" s="0" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D270" s="0" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="0" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B271" s="0" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C271" s="0" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D271" s="0" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="0" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B272" s="0" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C272" s="0" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D272" s="0" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="0" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B273" s="0" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C273" s="0" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D273" s="0" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="0" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B274" s="0" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C274" s="0" t="s">
-        <v>1182</v>
-      </c>
-      <c r="D274" s="0" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="0" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B275" s="0" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C275" s="0" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D275" s="0" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="0" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B276" s="0" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C276" s="0" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D276" s="0" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="0" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B277" s="0" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C277" s="0" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D277" s="0" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="0" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B278" s="0" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C278" s="0" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D278" s="0" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="0" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B279" s="0" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C279" s="0" t="s">
-        <v>1199</v>
-      </c>
-      <c r="D279" s="0" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="0" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B280" s="0" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C280" s="0" t="s">
-        <v>1203</v>
-      </c>
-      <c r="D280" s="0" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="0" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B281" s="0" t="s">
-        <v>1206</v>
-      </c>
-      <c r="C281" s="0" t="s">
-        <v>1207</v>
-      </c>
-      <c r="D281" s="0" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="0" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B282" s="0" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C282" s="0" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D282" s="0" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="0" t="s">
-        <v>1213</v>
-      </c>
-      <c r="B283" s="0" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C283" s="0" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D283" s="0" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="0" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B284" s="0" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C284" s="0" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D284" s="0" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="0" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B285" s="0" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C285" s="0" t="s">
-        <v>1223</v>
-      </c>
-      <c r="D285" s="0" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="0" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B286" s="0" t="s">
-        <v>1226</v>
-      </c>
-      <c r="C286" s="0" t="s">
-        <v>1227</v>
-      </c>
-      <c r="D286" s="0" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="0" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B287" s="0" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C287" s="0" t="s">
-        <v>1231</v>
-      </c>
-      <c r="D287" s="0" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="0" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B288" s="0" t="s">
-        <v>1234</v>
-      </c>
-      <c r="C288" s="0" t="s">
-        <v>1235</v>
-      </c>
-      <c r="D288" s="0" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="0" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B289" s="0" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C289" s="0" t="s">
-        <v>1239</v>
-      </c>
-      <c r="D289" s="0" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="0" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B291" s="0" t="s">
-        <v>1242</v>
-      </c>
-      <c r="C291" s="0" t="s">
-        <v>1243</v>
-      </c>
-      <c r="D291" s="0" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="2" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B292" s="0" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C292" s="0" t="s">
-        <v>1247</v>
-      </c>
-      <c r="D292" s="0" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="2" t="s">
-        <v>1249</v>
-      </c>
-      <c r="B293" s="0" t="s">
-        <v>1250</v>
-      </c>
-      <c r="C293" s="0" t="s">
-        <v>1251</v>
-      </c>
-      <c r="D293" s="0" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="2" t="s">
-        <v>1253</v>
-      </c>
-      <c r="B294" s="0" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C294" s="0" t="s">
-        <v>1255</v>
-      </c>
-      <c r="D294" s="0" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="2" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B295" s="0" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C295" s="0" t="s">
-        <v>1259</v>
-      </c>
-      <c r="D295" s="0" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="0" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B296" s="0" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C296" s="0" t="s">
-        <v>1263</v>
-      </c>
-      <c r="D296" s="0" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="0" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B297" s="0" t="s">
-        <v>1266</v>
-      </c>
-      <c r="C297" s="0" t="s">
-        <v>1267</v>
-      </c>
-      <c r="D297" s="0" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="0" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B298" s="0" t="s">
-        <v>1270</v>
-      </c>
-      <c r="C298" s="0" t="s">
-        <v>1271</v>
-      </c>
-      <c r="D298" s="0" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="0" t="s">
-        <v>1273</v>
-      </c>
-      <c r="B299" s="0" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C299" s="0" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D299" s="0" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="0" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B300" s="0" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C300" s="0" t="s">
-        <v>1279</v>
-      </c>
-      <c r="D300" s="0" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="0" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B301" s="0" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C301" s="0" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D301" s="0" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="0" t="s">
-        <v>1285</v>
-      </c>
-      <c r="B302" s="0" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C302" s="0" t="s">
-        <v>1287</v>
-      </c>
-      <c r="D302" s="0" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="0" t="s">
-        <v>1289</v>
-      </c>
-      <c r="B303" s="0" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C303" s="0" t="s">
-        <v>1291</v>
-      </c>
-      <c r="D303" s="0" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="0" t="s">
-        <v>1293</v>
-      </c>
-      <c r="B304" s="0" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C304" s="0" t="s">
-        <v>1295</v>
-      </c>
-      <c r="D304" s="0" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="0" t="s">
-        <v>1297</v>
-      </c>
-      <c r="B305" s="0" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C305" s="0" t="s">
-        <v>1299</v>
-      </c>
-      <c r="D305" s="0" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="0" t="s">
-        <v>1301</v>
-      </c>
-      <c r="B306" s="0" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C306" s="0" t="s">
-        <v>1303</v>
-      </c>
-      <c r="D306" s="0" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="0" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B307" s="0" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C307" s="0" t="s">
-        <v>1307</v>
-      </c>
-      <c r="D307" s="0" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="0" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B308" s="0" t="s">
-        <v>1310</v>
-      </c>
-      <c r="C308" s="0" t="s">
-        <v>1311</v>
-      </c>
-      <c r="D308" s="0" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="0" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B309" s="0" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C309" s="0" t="s">
-        <v>1315</v>
-      </c>
-      <c r="D309" s="0" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="0" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B310" s="0" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C310" s="0" t="s">
-        <v>1319</v>
-      </c>
-      <c r="D310" s="0" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="0" t="s">
-        <v>1321</v>
-      </c>
-      <c r="B311" s="0" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C311" s="0" t="s">
-        <v>1323</v>
-      </c>
-      <c r="D311" s="0" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="0" t="s">
-        <v>1325</v>
-      </c>
-      <c r="B312" s="0" t="s">
-        <v>1326</v>
-      </c>
-      <c r="C312" s="0" t="s">
-        <v>1327</v>
-      </c>
-      <c r="D312" s="0" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="0" t="s">
-        <v>1329</v>
-      </c>
-      <c r="B313" s="0" t="s">
-        <v>1330</v>
-      </c>
-      <c r="C313" s="0" t="s">
-        <v>1331</v>
-      </c>
-      <c r="D313" s="0" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="0" t="s">
-        <v>1333</v>
-      </c>
-      <c r="B314" s="0" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C314" s="0" t="s">
-        <v>1335</v>
-      </c>
-      <c r="D314" s="0" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="0" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B315" s="0" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C315" s="0" t="s">
-        <v>1339</v>
-      </c>
-      <c r="D315" s="0" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="0" t="s">
-        <v>1341</v>
-      </c>
-      <c r="B316" s="0" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C316" s="0" t="s">
-        <v>1343</v>
-      </c>
-      <c r="D316" s="0" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="0" t="s">
-        <v>1345</v>
-      </c>
-      <c r="B317" s="0" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C317" s="0" t="s">
-        <v>1347</v>
-      </c>
-      <c r="D317" s="0" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="0" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B318" s="0" t="s">
-        <v>1350</v>
-      </c>
-      <c r="C318" s="0" t="s">
-        <v>1351</v>
-      </c>
-      <c r="D318" s="0" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="0" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B319" s="0" t="s">
-        <v>1354</v>
-      </c>
-      <c r="C319" s="0" t="s">
-        <v>1355</v>
-      </c>
-      <c r="D319" s="0" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="0" t="s">
-        <v>1357</v>
-      </c>
-      <c r="B320" s="0" t="s">
-        <v>1358</v>
-      </c>
-      <c r="C320" s="0" t="s">
-        <v>1359</v>
-      </c>
-      <c r="D320" s="0" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="0" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B321" s="0" t="s">
-        <v>1362</v>
-      </c>
-      <c r="C321" s="0" t="s">
-        <v>1363</v>
-      </c>
-      <c r="D321" s="0" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="0" t="s">
-        <v>1365</v>
-      </c>
-      <c r="B322" s="0" t="s">
-        <v>1366</v>
-      </c>
-      <c r="C322" s="0" t="s">
-        <v>1367</v>
-      </c>
-      <c r="D322" s="0" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="0" t="s">
-        <v>1369</v>
-      </c>
-      <c r="B323" s="0" t="s">
-        <v>1370</v>
-      </c>
-      <c r="C323" s="0" t="s">
-        <v>1371</v>
-      </c>
-      <c r="D323" s="0" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="0" t="s">
-        <v>1373</v>
-      </c>
-      <c r="B324" s="0" t="s">
-        <v>1374</v>
-      </c>
-      <c r="C324" s="0" t="s">
-        <v>1375</v>
-      </c>
-      <c r="D324" s="0" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="0" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B325" s="0" t="s">
-        <v>1378</v>
-      </c>
-      <c r="C325" s="0" t="s">
-        <v>1379</v>
-      </c>
-      <c r="D325" s="0" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="0" t="s">
-        <v>1381</v>
-      </c>
-      <c r="B326" s="0" t="s">
-        <v>1382</v>
-      </c>
-      <c r="C326" s="0" t="s">
-        <v>1383</v>
-      </c>
-      <c r="D326" s="0" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="0" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B327" s="0" t="s">
-        <v>1386</v>
-      </c>
-      <c r="C327" s="0" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D327" s="0" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="0" t="s">
-        <v>1389</v>
-      </c>
-      <c r="B328" s="0" t="s">
-        <v>1390</v>
-      </c>
-      <c r="C328" s="0" t="s">
-        <v>1391</v>
-      </c>
-      <c r="D328" s="0" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="0" t="s">
-        <v>1393</v>
-      </c>
-      <c r="B329" s="0" t="s">
-        <v>1394</v>
-      </c>
-      <c r="C329" s="0" t="s">
-        <v>1395</v>
-      </c>
-      <c r="D329" s="0" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="0" t="s">
-        <v>1397</v>
-      </c>
-      <c r="B330" s="0" t="s">
-        <v>1398</v>
-      </c>
-      <c r="C330" s="0" t="s">
-        <v>1399</v>
-      </c>
-      <c r="D330" s="0" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="0" t="s">
-        <v>1401</v>
-      </c>
-      <c r="B331" s="0" t="s">
-        <v>1402</v>
-      </c>
-      <c r="C331" s="0" t="s">
-        <v>1403</v>
-      </c>
-      <c r="D331" s="0" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="0" t="s">
-        <v>1405</v>
-      </c>
-      <c r="B332" s="0" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C332" s="0" t="s">
-        <v>1407</v>
-      </c>
-      <c r="D332" s="0" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="0" t="s">
-        <v>1409</v>
-      </c>
-      <c r="B333" s="0" t="s">
-        <v>1410</v>
-      </c>
-      <c r="C333" s="0" t="s">
-        <v>1411</v>
-      </c>
-      <c r="D333" s="0" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="0" t="s">
-        <v>1413</v>
-      </c>
-      <c r="B334" s="0" t="s">
-        <v>1414</v>
-      </c>
-      <c r="C334" s="0" t="s">
-        <v>1415</v>
-      </c>
-      <c r="D334" s="0" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="0" t="s">
-        <v>1417</v>
-      </c>
-      <c r="B335" s="0" t="s">
-        <v>1418</v>
-      </c>
-      <c r="C335" s="0" t="s">
-        <v>1419</v>
-      </c>
-      <c r="D335" s="0" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="0" t="s">
-        <v>1421</v>
-      </c>
-      <c r="B336" s="0" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C336" s="0" t="s">
-        <v>1423</v>
-      </c>
-      <c r="D336" s="0" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="0" t="s">
-        <v>1425</v>
-      </c>
-      <c r="B337" s="0" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C337" s="0" t="s">
-        <v>1427</v>
-      </c>
-      <c r="D337" s="0" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="339" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="0" t="s">
-        <v>1429</v>
-      </c>
-      <c r="B339" s="0" t="s">
-        <v>1430</v>
-      </c>
-      <c r="C339" s="13" t="s">
-        <v>1431</v>
-      </c>
-      <c r="D339" s="13" t="s">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="340" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="0" t="s">
-        <v>1433</v>
-      </c>
-      <c r="B340" s="0" t="s">
-        <v>1434</v>
-      </c>
-      <c r="C340" s="13" t="s">
-        <v>1435</v>
-      </c>
-      <c r="D340" s="13" t="s">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="341" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="0" t="s">
-        <v>1437</v>
-      </c>
-      <c r="B341" s="0" t="s">
-        <v>1438</v>
-      </c>
-      <c r="C341" s="13" t="s">
-        <v>1439</v>
-      </c>
-      <c r="D341" s="13" t="s">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="342" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="0" t="s">
-        <v>1441</v>
-      </c>
-      <c r="B342" s="0" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C342" s="13" t="s">
-        <v>1443</v>
-      </c>
-      <c r="D342" s="13" t="s">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="343" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="0" t="s">
-        <v>1445</v>
-      </c>
-      <c r="B343" s="0" t="s">
-        <v>1446</v>
-      </c>
-      <c r="C343" s="13" t="s">
-        <v>1447</v>
-      </c>
-      <c r="D343" s="13" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="344" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="0" t="s">
-        <v>1449</v>
-      </c>
-      <c r="B344" s="0" t="s">
-        <v>1450</v>
-      </c>
-      <c r="C344" s="13" t="s">
-        <v>1451</v>
-      </c>
-      <c r="D344" s="13" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="345" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="0" t="s">
-        <v>1453</v>
-      </c>
-      <c r="B345" s="0" t="s">
-        <v>1454</v>
-      </c>
-      <c r="C345" s="13" t="s">
-        <v>1455</v>
-      </c>
-      <c r="D345" s="13" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="346" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="0" t="s">
-        <v>1457</v>
-      </c>
-      <c r="B346" s="0" t="s">
-        <v>1458</v>
-      </c>
-      <c r="C346" s="13" t="s">
-        <v>1459</v>
-      </c>
-      <c r="D346" s="13" t="s">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="347" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="0" t="s">
-        <v>1461</v>
-      </c>
-      <c r="B347" s="0" t="s">
-        <v>1462</v>
-      </c>
-      <c r="C347" s="13" t="s">
-        <v>1463</v>
-      </c>
-      <c r="D347" s="13" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="348" customFormat="false" ht="16.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A348" s="0" t="s">
-        <v>1465</v>
-      </c>
-      <c r="B348" s="14" t="s">
-        <v>1466</v>
-      </c>
-      <c r="C348" s="13" t="s">
-        <v>1467</v>
-      </c>
-      <c r="D348" s="13" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="0" t="s">
-        <v>1469</v>
-      </c>
-      <c r="B349" s="4" t="s">
-        <v>1470</v>
-      </c>
-      <c r="C349" s="2" t="s">
-        <v>1471</v>
-      </c>
-      <c r="D349" s="4" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="4" t="s">
-        <v>1473</v>
-      </c>
-      <c r="B350" s="0" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C350" s="2" t="s">
-        <v>1475</v>
-      </c>
-      <c r="D350" s="2" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="351" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="0" t="s">
-        <v>1477</v>
-      </c>
-      <c r="B351" s="0" t="s">
-        <v>1478</v>
-      </c>
-      <c r="C351" s="13" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D351" s="13" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="352" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="0" t="s">
-        <v>1479</v>
-      </c>
-      <c r="B352" s="0" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C352" s="13" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D352" s="13" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="353" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="0" t="s">
-        <v>1481</v>
-      </c>
-      <c r="B353" s="0" t="s">
-        <v>1482</v>
-      </c>
-      <c r="C353" s="13" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D353" s="13" t="s">
-        <v>1085</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:D1 B206:B236 B249:D257 B261:D261 B264:D289 B349:B1048576 C206:D211 C223:D223 C291:D338 D354:D1048576 C350:D350 C225:D228 C349 D349 C352:C1048576 B291:B347 C217:D221">
+  <conditionalFormatting sqref="B1:D1 B249:D257 B261:D261 B264:D289 B349:B1048576 C69:D211 C223:D223 C247:D338 D354:D1048576 C349:D350 C225:D228 C352:C1048576 B1:B347 C217:D220 C237:D237 C1:D64 C244:C245">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D69:D79 C2:D10 C12:D64 C69:C79">
+  <conditionalFormatting sqref="C69:D79 C2:D10 C12:D64">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B349:B1048576 C237:D237 C223:D223 C247:D338 D354:D1048576 C350:D350 C237 C225:D228 C247:C338 C349 D349 C352:C1048576 C69:D211 B1:B347 C1:D64 C217:D221 C244:C245">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2570" uniqueCount="1489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2572" uniqueCount="1491">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -2989,6 +2989,12 @@
   </si>
   <si>
     <t xml:space="preserve">Data da emigracão não pode ser no futuro &lt;br&gt; Data da emigracao não pode ser antes de Outubro de 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">err_emigrate_date_multiple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You only need to identify one time (date OR enter an integer OR select 'Don't Know')</t>
   </si>
   <si>
     <t xml:space="preserve">death_va_note</t>
@@ -4501,7 +4507,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4559,13 +4565,26 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Cascadia mono semilight"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFF7D1D5"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -4619,7 +4638,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4643,8 +4662,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4669,10 +4691,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4693,7 +4711,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4705,18 +4727,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Bad" xfId="20"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -4826,7 +4853,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.1171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.69"/>
   </cols>
@@ -5877,7 +5904,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.1171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.67"/>
@@ -7366,7 +7393,7 @@
       <selection pane="bottomLeft" activeCell="C90" activeCellId="0" sqref="C90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.1171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.16"/>
@@ -11156,7 +11183,7 @@
       <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.1171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.79"/>
@@ -29584,7 +29611,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.1171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.04"/>
@@ -30718,15 +30745,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D353"/>
+  <dimension ref="A1:D354"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D210" activeCellId="0" sqref="D210"/>
+      <selection pane="bottomLeft" activeCell="B217" activeCellId="0" sqref="B217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="35.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="13" width="37.56"/>
@@ -33708,694 +33735,690 @@
       <c r="B217" s="13" t="s">
         <v>989</v>
       </c>
-      <c r="C217" s="13" t="s">
-        <v>990</v>
-      </c>
-      <c r="D217" s="13" t="s">
-        <v>991</v>
-      </c>
+      <c r="C217" s="15"/>
+      <c r="D217" s="15"/>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="13" t="s">
+        <v>990</v>
+      </c>
+      <c r="B218" s="13" t="s">
+        <v>991</v>
+      </c>
+      <c r="C218" s="13" t="s">
         <v>992</v>
       </c>
-      <c r="B218" s="13" t="s">
+      <c r="D218" s="13" t="s">
         <v>993</v>
-      </c>
-      <c r="C218" s="13" t="s">
-        <v>994</v>
-      </c>
-      <c r="D218" s="13" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="13" t="s">
+        <v>994</v>
+      </c>
+      <c r="B219" s="13" t="s">
+        <v>995</v>
+      </c>
+      <c r="C219" s="13" t="s">
         <v>996</v>
       </c>
-      <c r="B219" s="13" t="s">
+      <c r="D219" s="13" t="s">
         <v>997</v>
-      </c>
-      <c r="C219" s="13" t="s">
-        <v>998</v>
-      </c>
-      <c r="D219" s="13" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="13" t="s">
+        <v>998</v>
+      </c>
+      <c r="B220" s="13" t="s">
+        <v>999</v>
+      </c>
+      <c r="C220" s="13" t="s">
         <v>1000</v>
       </c>
-      <c r="B220" s="13" t="s">
+      <c r="D220" s="13" t="s">
         <v>1001</v>
-      </c>
-      <c r="C220" s="13" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D220" s="13" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="13" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B221" s="13" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C221" s="13" t="s">
         <v>1004</v>
       </c>
-      <c r="B221" s="13" t="s">
+      <c r="D221" s="13" t="s">
         <v>1005</v>
-      </c>
-      <c r="C221" s="14" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D221" s="14" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="13" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B222" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C222" s="14" t="s">
         <v>1008</v>
       </c>
-      <c r="B222" s="13" t="s">
+      <c r="D222" s="14" t="s">
         <v>1009</v>
-      </c>
-      <c r="C222" s="13" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D222" s="13" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="13" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B223" s="13" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C223" s="13" t="s">
         <v>1012</v>
-      </c>
-      <c r="B223" s="13" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C223" s="13" t="s">
-        <v>1013</v>
       </c>
       <c r="D223" s="13" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="13" t="s">
         <v>1014</v>
       </c>
       <c r="B224" s="13" t="s">
         <v>1015</v>
       </c>
-      <c r="C224" s="14" t="s">
+      <c r="C224" s="13" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D224" s="13" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="13" t="s">
         <v>1016</v>
       </c>
-      <c r="D224" s="14" t="s">
+      <c r="B225" s="13" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="13" t="s">
+      <c r="C225" s="14" t="s">
         <v>1018</v>
       </c>
-      <c r="B225" s="13" t="s">
+      <c r="D225" s="14" t="s">
         <v>1019</v>
-      </c>
-      <c r="C225" s="13" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D225" s="13" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="13" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B226" s="13" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C226" s="13" t="s">
         <v>1022</v>
       </c>
-      <c r="B226" s="13" t="s">
+      <c r="D226" s="13" t="s">
         <v>1023</v>
-      </c>
-      <c r="C226" s="13" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D226" s="13" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="13" t="s">
-        <v>27</v>
+        <v>1024</v>
       </c>
       <c r="B227" s="13" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C227" s="13" t="s">
         <v>1026</v>
       </c>
-      <c r="C227" s="13" t="s">
+      <c r="D227" s="13" t="s">
         <v>1027</v>
-      </c>
-      <c r="D227" s="13" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B228" s="13" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C228" s="13" t="s">
         <v>1029</v>
       </c>
-      <c r="B228" s="13" t="s">
+      <c r="D228" s="13" t="s">
         <v>1030</v>
-      </c>
-      <c r="C228" s="13" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D228" s="13" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="13" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B229" s="13" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C229" s="13" t="s">
         <v>1033</v>
       </c>
-      <c r="B229" s="13" t="s">
+      <c r="D229" s="13" t="s">
         <v>1034</v>
-      </c>
-      <c r="C229" s="13" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D229" s="13" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B230" s="13" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C230" s="13" t="s">
         <v>1037</v>
       </c>
-      <c r="B230" s="13" t="s">
+      <c r="D230" s="13" t="s">
         <v>1038</v>
-      </c>
-      <c r="C230" s="13" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D230" s="13" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="13" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B231" s="13" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C231" s="13" t="s">
         <v>1041</v>
       </c>
-      <c r="B231" s="13" t="s">
+      <c r="D231" s="13" t="s">
         <v>1042</v>
-      </c>
-      <c r="C231" s="13" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D231" s="13" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="13" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B232" s="13" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C232" s="13" t="s">
         <v>1045</v>
       </c>
-      <c r="B232" s="13" t="s">
+      <c r="D232" s="13" t="s">
         <v>1046</v>
-      </c>
-      <c r="C232" s="13" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D232" s="13" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="13" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B233" s="13" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C233" s="13" t="s">
         <v>1049</v>
       </c>
-      <c r="B233" s="13" t="s">
+      <c r="D233" s="13" t="s">
         <v>1050</v>
-      </c>
-      <c r="C233" s="13" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D233" s="13" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B234" s="13" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C234" s="13" t="s">
         <v>1053</v>
       </c>
-      <c r="B234" s="13" t="s">
+      <c r="D234" s="13" t="s">
         <v>1054</v>
-      </c>
-      <c r="C234" s="13" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D234" s="13" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="13" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B235" s="13" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C235" s="13" t="s">
         <v>1057</v>
       </c>
-      <c r="B235" s="13" t="s">
+      <c r="D235" s="13" t="s">
         <v>1058</v>
       </c>
-      <c r="C235" s="14" t="s">
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="13" t="s">
         <v>1059</v>
       </c>
-      <c r="D235" s="14" t="s">
+      <c r="B236" s="13" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="236" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="13" t="s">
+      <c r="C236" s="14" t="s">
         <v>1061</v>
       </c>
-      <c r="B236" s="13" t="s">
+      <c r="D236" s="14" t="s">
         <v>1062</v>
       </c>
-      <c r="C236" s="14" t="s">
+    </row>
+    <row r="237" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="13" t="s">
         <v>1063</v>
       </c>
-      <c r="D236" s="14" t="s">
+      <c r="B237" s="13" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="13" t="s">
+      <c r="C237" s="14" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D237" s="14" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B238" s="13" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C238" s="14" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D238" s="14" t="s">
+      <c r="B239" s="13" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="239" customFormat="false" ht="32.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A239" s="13" t="s">
+      <c r="C239" s="14" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D239" s="14" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="32.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A240" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B239" s="13" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C239" s="14" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D239" s="14" t="s">
+      <c r="B240" s="13" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B240" s="13" t="s">
+      <c r="C240" s="14" t="s">
         <v>1071</v>
       </c>
-      <c r="C240" s="13" t="s">
+      <c r="D240" s="14" t="s">
         <v>1072</v>
-      </c>
-      <c r="D240" s="13" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="13" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B241" s="13" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C241" s="13" t="s">
         <v>1074</v>
       </c>
-      <c r="C241" s="13" t="s">
+      <c r="D241" s="13" t="s">
         <v>1075</v>
-      </c>
-      <c r="D241" s="13" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B242" s="13" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C242" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D242" s="13" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B242" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C242" s="13" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D242" s="13" t="s">
+      <c r="B243" s="13" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="243" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="13" t="s">
+      <c r="C243" s="13" t="s">
         <v>1080</v>
       </c>
-      <c r="B243" s="13" t="s">
+      <c r="D243" s="13" t="s">
         <v>1081</v>
-      </c>
-      <c r="C243" s="14" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D243" s="14" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="13" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B244" s="13" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C244" s="14" t="s">
         <v>1084</v>
       </c>
-      <c r="B244" s="13" t="s">
+      <c r="D244" s="14" t="s">
         <v>1085</v>
-      </c>
-      <c r="C244" s="14" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D244" s="14" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="13" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B245" s="13" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C245" s="14" t="s">
         <v>1088</v>
       </c>
-      <c r="B245" s="13" t="s">
+      <c r="D245" s="14" t="s">
         <v>1089</v>
       </c>
-      <c r="C245" s="14" t="s">
+    </row>
+    <row r="246" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="13" t="s">
         <v>1090</v>
       </c>
-      <c r="D245" s="14" t="s">
+      <c r="B246" s="13" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="13" t="s">
+      <c r="C246" s="14" t="s">
         <v>1092</v>
       </c>
-      <c r="B246" s="13" t="s">
+      <c r="D246" s="14" t="s">
         <v>1093</v>
       </c>
-      <c r="C246" s="13" t="s">
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="13" t="s">
         <v>1094</v>
       </c>
-      <c r="D246" s="13" t="s">
+      <c r="B247" s="13" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B249" s="13" t="s">
+      <c r="C247" s="13" t="s">
         <v>1096</v>
       </c>
-      <c r="C249" s="13" t="s">
+      <c r="D247" s="13" t="s">
         <v>1097</v>
-      </c>
-      <c r="D249" s="13" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B250" s="13" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C250" s="13" t="s">
         <v>1099</v>
       </c>
-      <c r="C250" s="13" t="s">
+      <c r="D250" s="13" t="s">
         <v>1100</v>
-      </c>
-      <c r="D250" s="13" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B251" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C251" s="13" t="s">
         <v>1102</v>
       </c>
-      <c r="C251" s="13" t="s">
+      <c r="D251" s="13" t="s">
         <v>1103</v>
-      </c>
-      <c r="D251" s="13" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="13" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B252" s="13" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C252" s="13" t="s">
         <v>1105</v>
       </c>
-      <c r="C252" s="13" t="s">
+      <c r="D252" s="13" t="s">
         <v>1106</v>
-      </c>
-      <c r="D252" s="13" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="13" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B253" s="13" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C253" s="13" t="s">
         <v>1108</v>
       </c>
-      <c r="C253" s="13" t="s">
+      <c r="D253" s="13" t="s">
         <v>1109</v>
-      </c>
-      <c r="D253" s="13" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B254" s="13" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C254" s="13" t="s">
         <v>1111</v>
       </c>
-      <c r="C254" s="13" t="s">
+      <c r="D254" s="13" t="s">
         <v>1112</v>
-      </c>
-      <c r="D254" s="13" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B255" s="13" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C255" s="13" t="s">
         <v>1114</v>
       </c>
-      <c r="C255" s="13" t="s">
+      <c r="D255" s="13" t="s">
         <v>1115</v>
-      </c>
-      <c r="D255" s="13" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B256" s="13" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C256" s="13" t="s">
         <v>1117</v>
       </c>
-      <c r="B256" s="13" t="s">
+      <c r="D256" s="13" t="s">
         <v>1118</v>
-      </c>
-      <c r="C256" s="13" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D256" s="13" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="13" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B257" s="13" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C257" s="13" t="s">
         <v>1121</v>
       </c>
-      <c r="B257" s="13" t="s">
+      <c r="D257" s="13" t="s">
         <v>1122</v>
-      </c>
-      <c r="C257" s="13" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D257" s="13" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="13" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B258" s="13" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C258" s="13" t="s">
         <v>1125</v>
       </c>
-      <c r="B258" s="13" t="s">
+      <c r="D258" s="13" t="s">
         <v>1126</v>
-      </c>
-      <c r="C258" s="13" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D258" s="13" t="s">
-        <v>1128</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="13" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B259" s="13" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C259" s="13" t="s">
         <v>1129</v>
       </c>
-      <c r="B259" s="13" t="s">
+      <c r="D259" s="13" t="s">
         <v>1130</v>
-      </c>
-      <c r="C259" s="13" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D259" s="13" t="s">
-        <v>1132</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="13" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B260" s="13" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C260" s="13" t="s">
         <v>1133</v>
       </c>
-      <c r="B260" s="13" t="s">
+      <c r="D260" s="13" t="s">
         <v>1134</v>
-      </c>
-      <c r="C260" s="13" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D260" s="13" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="13" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B261" s="13" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C261" s="13" t="s">
         <v>1137</v>
       </c>
-      <c r="B261" s="13" t="s">
+      <c r="D261" s="13" t="s">
         <v>1138</v>
-      </c>
-      <c r="C261" s="13" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D261" s="13" t="s">
-        <v>1140</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="13" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B262" s="13" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C262" s="13" t="s">
         <v>1141</v>
       </c>
-      <c r="B262" s="13" t="s">
+      <c r="D262" s="13" t="s">
         <v>1142</v>
-      </c>
-      <c r="C262" s="13" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D262" s="13" t="s">
-        <v>1144</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="13" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B263" s="13" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C263" s="13" t="s">
         <v>1145</v>
       </c>
-      <c r="B263" s="13" t="s">
+      <c r="D263" s="13" t="s">
         <v>1146</v>
-      </c>
-      <c r="C263" s="13" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D263" s="13" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="13" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B264" s="13" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C264" s="13" t="s">
         <v>1149</v>
       </c>
-      <c r="B264" s="13" t="s">
+      <c r="D264" s="13" t="s">
         <v>1150</v>
-      </c>
-      <c r="C264" s="13" t="s">
-        <v>1151</v>
-      </c>
-      <c r="D264" s="13" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="13" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B265" s="13" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C265" s="13" t="s">
         <v>1153</v>
       </c>
-      <c r="B265" s="13" t="s">
+      <c r="D265" s="13" t="s">
         <v>1154</v>
-      </c>
-      <c r="C265" s="13" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D265" s="13" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="13" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B266" s="13" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C266" s="13" t="s">
         <v>1157</v>
       </c>
-      <c r="B266" s="13" t="s">
+      <c r="D266" s="13" t="s">
         <v>1158</v>
-      </c>
-      <c r="C266" s="13" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D266" s="13" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="13" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B267" s="13" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C267" s="13" t="s">
         <v>1161</v>
       </c>
-      <c r="B267" s="13" t="s">
+      <c r="D267" s="13" t="s">
         <v>1162</v>
-      </c>
-      <c r="C267" s="13" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D267" s="13" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="13" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B268" s="13" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C268" s="13" t="s">
         <v>1165</v>
       </c>
-      <c r="B268" s="13" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C268" s="13" t="s">
+      <c r="D268" s="13" t="s">
         <v>1166</v>
-      </c>
-      <c r="D268" s="13" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="13" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B269" s="13" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C269" s="13" t="s">
         <v>1168</v>
-      </c>
-      <c r="B269" s="13" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C269" s="13" t="s">
-        <v>1169</v>
       </c>
       <c r="D269" s="13" t="s">
         <v>1169</v>
@@ -34409,1116 +34432,1116 @@
         <v>1171</v>
       </c>
       <c r="C270" s="13" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D270" s="13" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="13" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B271" s="13" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C271" s="13" t="s">
         <v>1174</v>
       </c>
-      <c r="B271" s="13" t="s">
+      <c r="D271" s="13" t="s">
         <v>1175</v>
-      </c>
-      <c r="C271" s="13" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D271" s="13" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="13" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B272" s="13" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C272" s="13" t="s">
         <v>1178</v>
       </c>
-      <c r="B272" s="13" t="s">
+      <c r="D272" s="13" t="s">
         <v>1179</v>
-      </c>
-      <c r="C272" s="13" t="s">
-        <v>1180</v>
-      </c>
-      <c r="D272" s="13" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="13" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B273" s="13" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C273" s="13" t="s">
         <v>1182</v>
       </c>
-      <c r="B273" s="13" t="s">
+      <c r="D273" s="13" t="s">
         <v>1183</v>
-      </c>
-      <c r="C273" s="13" t="s">
-        <v>1184</v>
-      </c>
-      <c r="D273" s="13" t="s">
-        <v>1185</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="13" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B274" s="13" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C274" s="13" t="s">
         <v>1186</v>
       </c>
-      <c r="B274" s="13" t="s">
+      <c r="D274" s="13" t="s">
         <v>1187</v>
-      </c>
-      <c r="C274" s="13" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D274" s="13" t="s">
-        <v>1189</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="13" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B275" s="13" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C275" s="13" t="s">
         <v>1190</v>
       </c>
-      <c r="B275" s="13" t="s">
+      <c r="D275" s="13" t="s">
         <v>1191</v>
-      </c>
-      <c r="C275" s="13" t="s">
-        <v>1192</v>
-      </c>
-      <c r="D275" s="13" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="13" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B276" s="13" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C276" s="13" t="s">
         <v>1194</v>
       </c>
-      <c r="B276" s="13" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C276" s="13" t="s">
-        <v>1166</v>
-      </c>
       <c r="D276" s="13" t="s">
-        <v>1167</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="13" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B277" s="13" t="s">
-        <v>1196</v>
+        <v>1116</v>
       </c>
       <c r="C277" s="13" t="s">
-        <v>1197</v>
+        <v>1168</v>
       </c>
       <c r="D277" s="13" t="s">
-        <v>1198</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B278" s="13" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C278" s="13" t="s">
         <v>1199</v>
       </c>
-      <c r="B278" s="13" t="s">
+      <c r="D278" s="13" t="s">
         <v>1200</v>
-      </c>
-      <c r="C278" s="13" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D278" s="13" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="13" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B279" s="13" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C279" s="13" t="s">
         <v>1203</v>
       </c>
-      <c r="B279" s="13" t="s">
+      <c r="D279" s="13" t="s">
         <v>1204</v>
-      </c>
-      <c r="C279" s="13" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D279" s="13" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="13" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B280" s="13" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C280" s="13" t="s">
         <v>1207</v>
       </c>
-      <c r="B280" s="13" t="s">
+      <c r="D280" s="13" t="s">
         <v>1208</v>
-      </c>
-      <c r="C280" s="13" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D280" s="13" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="13" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B281" s="13" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C281" s="13" t="s">
         <v>1211</v>
       </c>
-      <c r="B281" s="13" t="s">
+      <c r="D281" s="13" t="s">
         <v>1212</v>
-      </c>
-      <c r="C281" s="13" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D281" s="13" t="s">
-        <v>1214</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="13" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B282" s="13" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C282" s="13" t="s">
         <v>1215</v>
       </c>
-      <c r="B282" s="13" t="s">
+      <c r="D282" s="13" t="s">
         <v>1216</v>
-      </c>
-      <c r="C282" s="13" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D282" s="13" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="13" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B283" s="13" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C283" s="13" t="s">
         <v>1219</v>
       </c>
-      <c r="B283" s="13" t="s">
+      <c r="D283" s="13" t="s">
         <v>1220</v>
-      </c>
-      <c r="C283" s="13" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D283" s="13" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="13" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B284" s="13" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C284" s="13" t="s">
         <v>1223</v>
       </c>
-      <c r="B284" s="13" t="s">
+      <c r="D284" s="13" t="s">
         <v>1224</v>
-      </c>
-      <c r="C284" s="13" t="s">
-        <v>1225</v>
-      </c>
-      <c r="D284" s="13" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="13" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B285" s="13" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C285" s="13" t="s">
         <v>1227</v>
       </c>
-      <c r="B285" s="13" t="s">
+      <c r="D285" s="13" t="s">
         <v>1228</v>
-      </c>
-      <c r="C285" s="13" t="s">
-        <v>1229</v>
-      </c>
-      <c r="D285" s="13" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="13" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B286" s="13" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C286" s="13" t="s">
         <v>1231</v>
       </c>
-      <c r="B286" s="13" t="s">
+      <c r="D286" s="13" t="s">
         <v>1232</v>
-      </c>
-      <c r="C286" s="13" t="s">
-        <v>1233</v>
-      </c>
-      <c r="D286" s="13" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="13" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B287" s="13" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C287" s="13" t="s">
         <v>1235</v>
       </c>
-      <c r="B287" s="13" t="s">
+      <c r="D287" s="13" t="s">
         <v>1236</v>
-      </c>
-      <c r="C287" s="13" t="s">
-        <v>1237</v>
-      </c>
-      <c r="D287" s="13" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B288" s="13" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C288" s="13" t="s">
         <v>1239</v>
       </c>
-      <c r="B288" s="13" t="s">
+      <c r="D288" s="13" t="s">
         <v>1240</v>
-      </c>
-      <c r="C288" s="13" t="s">
-        <v>1241</v>
-      </c>
-      <c r="D288" s="13" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="13" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B289" s="13" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C289" s="13" t="s">
         <v>1243</v>
       </c>
-      <c r="B289" s="13" t="s">
+      <c r="D289" s="13" t="s">
         <v>1244</v>
       </c>
-      <c r="C289" s="13" t="s">
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="13" t="s">
         <v>1245</v>
       </c>
-      <c r="D289" s="13" t="s">
+      <c r="B290" s="13" t="s">
         <v>1246</v>
       </c>
-    </row>
-    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="13" t="s">
+      <c r="C290" s="13" t="s">
         <v>1247</v>
       </c>
-      <c r="B291" s="13" t="s">
+      <c r="D290" s="13" t="s">
         <v>1248</v>
-      </c>
-      <c r="C291" s="13" t="s">
-        <v>1249</v>
-      </c>
-      <c r="D291" s="13" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="13" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B292" s="13" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C292" s="13" t="s">
         <v>1251</v>
       </c>
-      <c r="B292" s="13" t="s">
+      <c r="D292" s="13" t="s">
         <v>1252</v>
-      </c>
-      <c r="C292" s="13" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D292" s="13" t="s">
-        <v>1254</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="13" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B293" s="13" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C293" s="13" t="s">
         <v>1255</v>
       </c>
-      <c r="B293" s="13" t="s">
+      <c r="D293" s="13" t="s">
         <v>1256</v>
-      </c>
-      <c r="C293" s="13" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D293" s="13" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="13" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B294" s="13" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C294" s="13" t="s">
         <v>1259</v>
       </c>
-      <c r="B294" s="13" t="s">
+      <c r="D294" s="13" t="s">
         <v>1260</v>
-      </c>
-      <c r="C294" s="13" t="s">
-        <v>1261</v>
-      </c>
-      <c r="D294" s="13" t="s">
-        <v>1262</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="13" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B295" s="13" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C295" s="13" t="s">
         <v>1263</v>
       </c>
-      <c r="B295" s="13" t="s">
+      <c r="D295" s="13" t="s">
         <v>1264</v>
-      </c>
-      <c r="C295" s="13" t="s">
-        <v>1265</v>
-      </c>
-      <c r="D295" s="13" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="13" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B296" s="13" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C296" s="13" t="s">
         <v>1267</v>
       </c>
-      <c r="B296" s="13" t="s">
+      <c r="D296" s="13" t="s">
         <v>1268</v>
-      </c>
-      <c r="C296" s="13" t="s">
-        <v>1269</v>
-      </c>
-      <c r="D296" s="13" t="s">
-        <v>1270</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="13" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B297" s="13" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C297" s="13" t="s">
         <v>1271</v>
       </c>
-      <c r="B297" s="13" t="s">
+      <c r="D297" s="13" t="s">
         <v>1272</v>
-      </c>
-      <c r="C297" s="13" t="s">
-        <v>1273</v>
-      </c>
-      <c r="D297" s="13" t="s">
-        <v>1274</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="13" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B298" s="13" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C298" s="13" t="s">
         <v>1275</v>
       </c>
-      <c r="B298" s="13" t="s">
+      <c r="D298" s="13" t="s">
         <v>1276</v>
-      </c>
-      <c r="C298" s="13" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D298" s="13" t="s">
-        <v>1278</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="13" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B299" s="13" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C299" s="13" t="s">
         <v>1279</v>
       </c>
-      <c r="B299" s="13" t="s">
+      <c r="D299" s="13" t="s">
         <v>1280</v>
-      </c>
-      <c r="C299" s="13" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D299" s="13" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="13" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B300" s="13" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C300" s="13" t="s">
         <v>1283</v>
       </c>
-      <c r="B300" s="13" t="s">
+      <c r="D300" s="13" t="s">
         <v>1284</v>
-      </c>
-      <c r="C300" s="13" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D300" s="13" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="13" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B301" s="13" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C301" s="13" t="s">
         <v>1287</v>
       </c>
-      <c r="B301" s="13" t="s">
+      <c r="D301" s="13" t="s">
         <v>1288</v>
-      </c>
-      <c r="C301" s="13" t="s">
-        <v>1289</v>
-      </c>
-      <c r="D301" s="13" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="13" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B302" s="13" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C302" s="13" t="s">
         <v>1291</v>
       </c>
-      <c r="B302" s="13" t="s">
+      <c r="D302" s="13" t="s">
         <v>1292</v>
-      </c>
-      <c r="C302" s="13" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D302" s="13" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="13" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B303" s="13" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C303" s="13" t="s">
         <v>1295</v>
       </c>
-      <c r="B303" s="13" t="s">
+      <c r="D303" s="13" t="s">
         <v>1296</v>
-      </c>
-      <c r="C303" s="13" t="s">
-        <v>1297</v>
-      </c>
-      <c r="D303" s="13" t="s">
-        <v>1298</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="13" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B304" s="13" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C304" s="13" t="s">
         <v>1299</v>
       </c>
-      <c r="B304" s="13" t="s">
+      <c r="D304" s="13" t="s">
         <v>1300</v>
-      </c>
-      <c r="C304" s="13" t="s">
-        <v>1301</v>
-      </c>
-      <c r="D304" s="13" t="s">
-        <v>1302</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="13" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B305" s="13" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C305" s="13" t="s">
         <v>1303</v>
       </c>
-      <c r="B305" s="13" t="s">
+      <c r="D305" s="13" t="s">
         <v>1304</v>
-      </c>
-      <c r="C305" s="13" t="s">
-        <v>1305</v>
-      </c>
-      <c r="D305" s="13" t="s">
-        <v>1306</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="13" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B306" s="13" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C306" s="13" t="s">
         <v>1307</v>
       </c>
-      <c r="B306" s="13" t="s">
+      <c r="D306" s="13" t="s">
         <v>1308</v>
-      </c>
-      <c r="C306" s="13" t="s">
-        <v>1309</v>
-      </c>
-      <c r="D306" s="13" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="13" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B307" s="13" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C307" s="13" t="s">
         <v>1311</v>
       </c>
-      <c r="B307" s="13" t="s">
+      <c r="D307" s="13" t="s">
         <v>1312</v>
-      </c>
-      <c r="C307" s="13" t="s">
-        <v>1313</v>
-      </c>
-      <c r="D307" s="13" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="13" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B308" s="13" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C308" s="13" t="s">
         <v>1315</v>
       </c>
-      <c r="B308" s="13" t="s">
+      <c r="D308" s="13" t="s">
         <v>1316</v>
-      </c>
-      <c r="C308" s="13" t="s">
-        <v>1317</v>
-      </c>
-      <c r="D308" s="13" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="13" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B309" s="13" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C309" s="13" t="s">
         <v>1319</v>
       </c>
-      <c r="B309" s="13" t="s">
+      <c r="D309" s="13" t="s">
         <v>1320</v>
-      </c>
-      <c r="C309" s="13" t="s">
-        <v>1321</v>
-      </c>
-      <c r="D309" s="13" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="13" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B310" s="13" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C310" s="13" t="s">
         <v>1323</v>
       </c>
-      <c r="B310" s="13" t="s">
+      <c r="D310" s="13" t="s">
         <v>1324</v>
-      </c>
-      <c r="C310" s="13" t="s">
-        <v>1325</v>
-      </c>
-      <c r="D310" s="13" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="13" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B311" s="13" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C311" s="13" t="s">
         <v>1327</v>
       </c>
-      <c r="B311" s="13" t="s">
+      <c r="D311" s="13" t="s">
         <v>1328</v>
-      </c>
-      <c r="C311" s="13" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D311" s="13" t="s">
-        <v>1330</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="13" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B312" s="13" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C312" s="13" t="s">
         <v>1331</v>
       </c>
-      <c r="B312" s="13" t="s">
+      <c r="D312" s="13" t="s">
         <v>1332</v>
-      </c>
-      <c r="C312" s="13" t="s">
-        <v>1333</v>
-      </c>
-      <c r="D312" s="13" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="13" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B313" s="13" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C313" s="13" t="s">
         <v>1335</v>
       </c>
-      <c r="B313" s="13" t="s">
+      <c r="D313" s="13" t="s">
         <v>1336</v>
-      </c>
-      <c r="C313" s="13" t="s">
-        <v>1337</v>
-      </c>
-      <c r="D313" s="13" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="13" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B314" s="13" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C314" s="13" t="s">
         <v>1339</v>
       </c>
-      <c r="B314" s="13" t="s">
+      <c r="D314" s="13" t="s">
         <v>1340</v>
-      </c>
-      <c r="C314" s="13" t="s">
-        <v>1341</v>
-      </c>
-      <c r="D314" s="13" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="13" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B315" s="13" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C315" s="13" t="s">
         <v>1343</v>
       </c>
-      <c r="B315" s="13" t="s">
+      <c r="D315" s="13" t="s">
         <v>1344</v>
-      </c>
-      <c r="C315" s="13" t="s">
-        <v>1345</v>
-      </c>
-      <c r="D315" s="13" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="13" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B316" s="13" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C316" s="13" t="s">
         <v>1347</v>
       </c>
-      <c r="B316" s="13" t="s">
+      <c r="D316" s="13" t="s">
         <v>1348</v>
-      </c>
-      <c r="C316" s="13" t="s">
-        <v>1349</v>
-      </c>
-      <c r="D316" s="13" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="13" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B317" s="13" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C317" s="13" t="s">
         <v>1351</v>
       </c>
-      <c r="B317" s="13" t="s">
+      <c r="D317" s="13" t="s">
         <v>1352</v>
-      </c>
-      <c r="C317" s="13" t="s">
-        <v>1353</v>
-      </c>
-      <c r="D317" s="13" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="13" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B318" s="13" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C318" s="13" t="s">
         <v>1355</v>
       </c>
-      <c r="B318" s="13" t="s">
+      <c r="D318" s="13" t="s">
         <v>1356</v>
-      </c>
-      <c r="C318" s="13" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D318" s="13" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="13" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B319" s="13" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C319" s="13" t="s">
         <v>1359</v>
       </c>
-      <c r="B319" s="13" t="s">
+      <c r="D319" s="13" t="s">
         <v>1360</v>
-      </c>
-      <c r="C319" s="13" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D319" s="13" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="13" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B320" s="13" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C320" s="13" t="s">
         <v>1363</v>
       </c>
-      <c r="B320" s="13" t="s">
+      <c r="D320" s="13" t="s">
         <v>1364</v>
-      </c>
-      <c r="C320" s="13" t="s">
-        <v>1365</v>
-      </c>
-      <c r="D320" s="13" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="13" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B321" s="13" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C321" s="13" t="s">
         <v>1367</v>
       </c>
-      <c r="B321" s="13" t="s">
+      <c r="D321" s="13" t="s">
         <v>1368</v>
-      </c>
-      <c r="C321" s="13" t="s">
-        <v>1369</v>
-      </c>
-      <c r="D321" s="13" t="s">
-        <v>1370</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="13" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B322" s="13" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C322" s="13" t="s">
         <v>1371</v>
       </c>
-      <c r="B322" s="13" t="s">
+      <c r="D322" s="13" t="s">
         <v>1372</v>
-      </c>
-      <c r="C322" s="13" t="s">
-        <v>1373</v>
-      </c>
-      <c r="D322" s="13" t="s">
-        <v>1374</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="13" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B323" s="13" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C323" s="13" t="s">
         <v>1375</v>
       </c>
-      <c r="B323" s="13" t="s">
+      <c r="D323" s="13" t="s">
         <v>1376</v>
-      </c>
-      <c r="C323" s="13" t="s">
-        <v>1377</v>
-      </c>
-      <c r="D323" s="13" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="13" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B324" s="13" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C324" s="13" t="s">
         <v>1379</v>
       </c>
-      <c r="B324" s="13" t="s">
+      <c r="D324" s="13" t="s">
         <v>1380</v>
-      </c>
-      <c r="C324" s="13" t="s">
-        <v>1381</v>
-      </c>
-      <c r="D324" s="13" t="s">
-        <v>1382</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="13" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B325" s="13" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C325" s="13" t="s">
         <v>1383</v>
       </c>
-      <c r="B325" s="13" t="s">
+      <c r="D325" s="13" t="s">
         <v>1384</v>
-      </c>
-      <c r="C325" s="13" t="s">
-        <v>1385</v>
-      </c>
-      <c r="D325" s="13" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="13" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B326" s="13" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C326" s="13" t="s">
         <v>1387</v>
       </c>
-      <c r="B326" s="13" t="s">
+      <c r="D326" s="13" t="s">
         <v>1388</v>
-      </c>
-      <c r="C326" s="13" t="s">
-        <v>1389</v>
-      </c>
-      <c r="D326" s="13" t="s">
-        <v>1390</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="13" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B327" s="13" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C327" s="13" t="s">
         <v>1391</v>
       </c>
-      <c r="B327" s="13" t="s">
+      <c r="D327" s="13" t="s">
         <v>1392</v>
-      </c>
-      <c r="C327" s="13" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D327" s="13" t="s">
-        <v>1394</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="13" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B328" s="13" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C328" s="13" t="s">
         <v>1395</v>
       </c>
-      <c r="B328" s="13" t="s">
+      <c r="D328" s="13" t="s">
         <v>1396</v>
-      </c>
-      <c r="C328" s="13" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D328" s="13" t="s">
-        <v>1398</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="13" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B329" s="13" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C329" s="13" t="s">
         <v>1399</v>
       </c>
-      <c r="B329" s="13" t="s">
+      <c r="D329" s="13" t="s">
         <v>1400</v>
-      </c>
-      <c r="C329" s="13" t="s">
-        <v>1401</v>
-      </c>
-      <c r="D329" s="13" t="s">
-        <v>1402</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="13" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B330" s="13" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C330" s="13" t="s">
         <v>1403</v>
       </c>
-      <c r="B330" s="13" t="s">
+      <c r="D330" s="13" t="s">
         <v>1404</v>
-      </c>
-      <c r="C330" s="13" t="s">
-        <v>1405</v>
-      </c>
-      <c r="D330" s="13" t="s">
-        <v>1406</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="13" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B331" s="13" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C331" s="13" t="s">
         <v>1407</v>
       </c>
-      <c r="B331" s="13" t="s">
+      <c r="D331" s="13" t="s">
         <v>1408</v>
-      </c>
-      <c r="C331" s="13" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D331" s="13" t="s">
-        <v>1410</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="13" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B332" s="13" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C332" s="13" t="s">
         <v>1411</v>
       </c>
-      <c r="B332" s="13" t="s">
+      <c r="D332" s="13" t="s">
         <v>1412</v>
-      </c>
-      <c r="C332" s="13" t="s">
-        <v>1413</v>
-      </c>
-      <c r="D332" s="13" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="13" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B333" s="13" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C333" s="13" t="s">
         <v>1415</v>
       </c>
-      <c r="B333" s="13" t="s">
+      <c r="D333" s="13" t="s">
         <v>1416</v>
-      </c>
-      <c r="C333" s="13" t="s">
-        <v>1417</v>
-      </c>
-      <c r="D333" s="13" t="s">
-        <v>1418</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="13" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B334" s="13" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C334" s="13" t="s">
         <v>1419</v>
       </c>
-      <c r="B334" s="13" t="s">
+      <c r="D334" s="13" t="s">
         <v>1420</v>
-      </c>
-      <c r="C334" s="13" t="s">
-        <v>1421</v>
-      </c>
-      <c r="D334" s="13" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="13" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B335" s="13" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C335" s="13" t="s">
         <v>1423</v>
       </c>
-      <c r="B335" s="13" t="s">
+      <c r="D335" s="13" t="s">
         <v>1424</v>
-      </c>
-      <c r="C335" s="13" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D335" s="13" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="13" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B336" s="13" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C336" s="13" t="s">
         <v>1427</v>
       </c>
-      <c r="B336" s="13" t="s">
+      <c r="D336" s="13" t="s">
         <v>1428</v>
-      </c>
-      <c r="C336" s="13" t="s">
-        <v>1429</v>
-      </c>
-      <c r="D336" s="13" t="s">
-        <v>1430</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="13" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B337" s="13" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C337" s="13" t="s">
         <v>1431</v>
       </c>
-      <c r="B337" s="13" t="s">
+      <c r="D337" s="13" t="s">
         <v>1432</v>
       </c>
-      <c r="C337" s="13" t="s">
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="13" t="s">
         <v>1433</v>
       </c>
-      <c r="D337" s="13" t="s">
+      <c r="B338" s="13" t="s">
         <v>1434</v>
       </c>
-    </row>
-    <row r="339" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="13" t="s">
+      <c r="C338" s="13" t="s">
         <v>1435</v>
       </c>
-      <c r="B339" s="13" t="s">
+      <c r="D338" s="13" t="s">
         <v>1436</v>
-      </c>
-      <c r="C339" s="14" t="s">
-        <v>1437</v>
-      </c>
-      <c r="D339" s="14" t="s">
-        <v>1438</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="13" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B340" s="13" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C340" s="14" t="s">
         <v>1439</v>
       </c>
-      <c r="B340" s="13" t="s">
+      <c r="D340" s="14" t="s">
         <v>1440</v>
-      </c>
-      <c r="C340" s="14" t="s">
-        <v>1441</v>
-      </c>
-      <c r="D340" s="14" t="s">
-        <v>1442</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="13" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B341" s="13" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C341" s="14" t="s">
         <v>1443</v>
       </c>
-      <c r="B341" s="13" t="s">
+      <c r="D341" s="14" t="s">
         <v>1444</v>
       </c>
-      <c r="C341" s="14" t="s">
+    </row>
+    <row r="342" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="13" t="s">
         <v>1445</v>
       </c>
-      <c r="D341" s="14" t="s">
+      <c r="B342" s="13" t="s">
         <v>1446</v>
       </c>
-    </row>
-    <row r="342" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="13" t="s">
+      <c r="C342" s="14" t="s">
         <v>1447</v>
       </c>
-      <c r="B342" s="13" t="s">
+      <c r="D342" s="14" t="s">
         <v>1448</v>
-      </c>
-      <c r="C342" s="14" t="s">
-        <v>1449</v>
-      </c>
-      <c r="D342" s="14" t="s">
-        <v>1450</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="13" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B343" s="13" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C343" s="14" t="s">
         <v>1451</v>
       </c>
-      <c r="B343" s="13" t="s">
+      <c r="D343" s="14" t="s">
         <v>1452</v>
       </c>
-      <c r="C343" s="14" t="s">
+    </row>
+    <row r="344" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="13" t="s">
         <v>1453</v>
       </c>
-      <c r="D343" s="14" t="s">
+      <c r="B344" s="13" t="s">
         <v>1454</v>
       </c>
-    </row>
-    <row r="344" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="13" t="s">
+      <c r="C344" s="14" t="s">
         <v>1455</v>
       </c>
-      <c r="B344" s="13" t="s">
+      <c r="D344" s="14" t="s">
         <v>1456</v>
-      </c>
-      <c r="C344" s="14" t="s">
-        <v>1457</v>
-      </c>
-      <c r="D344" s="14" t="s">
-        <v>1458</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="13" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B345" s="13" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C345" s="14" t="s">
         <v>1459</v>
       </c>
-      <c r="B345" s="13" t="s">
+      <c r="D345" s="14" t="s">
         <v>1460</v>
-      </c>
-      <c r="C345" s="14" t="s">
-        <v>1461</v>
-      </c>
-      <c r="D345" s="14" t="s">
-        <v>1462</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B346" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C346" s="14" t="s">
         <v>1463</v>
       </c>
-      <c r="B346" s="13" t="s">
+      <c r="D346" s="14" t="s">
         <v>1464</v>
       </c>
-      <c r="C346" s="14" t="s">
+    </row>
+    <row r="347" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="13" t="s">
         <v>1465</v>
       </c>
-      <c r="D346" s="14" t="s">
+      <c r="B347" s="13" t="s">
         <v>1466</v>
       </c>
-    </row>
-    <row r="347" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="13" t="s">
+      <c r="C347" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="B347" s="13" t="s">
+      <c r="D347" s="14" t="s">
         <v>1468</v>
       </c>
-      <c r="C347" s="14" t="s">
+    </row>
+    <row r="348" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="13" t="s">
         <v>1469</v>
       </c>
-      <c r="D347" s="14" t="s">
+      <c r="B348" s="13" t="s">
         <v>1470</v>
       </c>
-    </row>
-    <row r="348" customFormat="false" ht="16.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A348" s="13" t="s">
+      <c r="C348" s="14" t="s">
         <v>1471</v>
       </c>
-      <c r="B348" s="15" t="s">
+      <c r="D348" s="14" t="s">
         <v>1472</v>
       </c>
-      <c r="C348" s="14" t="s">
+    </row>
+    <row r="349" customFormat="false" ht="16.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A349" s="13" t="s">
         <v>1473</v>
       </c>
-      <c r="D348" s="14" t="s">
+      <c r="B349" s="16" t="s">
         <v>1474</v>
       </c>
-    </row>
-    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="13" t="s">
+      <c r="C349" s="14" t="s">
         <v>1475</v>
       </c>
-      <c r="B349" s="13" t="s">
+      <c r="D349" s="14" t="s">
         <v>1476</v>
-      </c>
-      <c r="C349" s="13" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D349" s="13" t="s">
-        <v>1478</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="13" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B350" s="13" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C350" s="13" t="s">
         <v>1479</v>
       </c>
-      <c r="B350" s="13" t="s">
+      <c r="D350" s="13" t="s">
         <v>1480</v>
       </c>
-      <c r="C350" s="13" t="s">
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="13" t="s">
         <v>1481</v>
       </c>
-      <c r="D350" s="13" t="s">
+      <c r="B351" s="13" t="s">
         <v>1482</v>
       </c>
-    </row>
-    <row r="351" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="13" t="s">
+      <c r="C351" s="13" t="s">
         <v>1483</v>
       </c>
-      <c r="B351" s="13" t="s">
+      <c r="D351" s="13" t="s">
         <v>1484</v>
-      </c>
-      <c r="C351" s="14" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D351" s="14" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35529,10 +35552,10 @@
         <v>1486</v>
       </c>
       <c r="C352" s="14" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D352" s="14" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35543,14 +35566,28 @@
         <v>1488</v>
       </c>
       <c r="C353" s="14" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="D353" s="14" t="s">
-        <v>1091</v>
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="13" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B354" s="13" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C354" s="14" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D354" s="14" t="s">
+        <v>1093</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:D1 B249:D257 B261:D261 B264:D289 B349:B1048576 C69:D211 C223:D223 C247:D338 D354:D1048576 C349:D350 C225:D228 C352:C1048576 B1:B347 C217:D220 C237:D237 C1:D64 C244:C245">
+  <conditionalFormatting sqref="B1:D1 B250:D258 B262:D262 B265:D290 B350:B1048576 C69:D211 C224:D224 C248:D339 D355:D1048576 C350:D351 C226:D229 C353:C1048576 B1:B348 C218:D221 C238:D238 C1:D64 C245:C246">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>

--- a/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2572" uniqueCount="1491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2576" uniqueCount="1494">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -1932,18 +1932,18 @@
     <t xml:space="preserve">Masculino</t>
   </si>
   <si>
+    <t xml:space="preserve">Me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feminino</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ke</t>
   </si>
   <si>
-    <t xml:space="preserve">Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feminino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Me</t>
-  </si>
-  <si>
     <t xml:space="preserve">Within this district</t>
   </si>
   <si>
@@ -2562,6 +2562,15 @@
     <t xml:space="preserve">Jua linapochomoza</t>
   </si>
   <si>
+    <t xml:space="preserve">After sunrise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depois do nascer do sol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baada ya jua kuchomoza</t>
+  </si>
+  <si>
     <t xml:space="preserve">Antes do pôr-do-sol</t>
   </si>
   <si>
@@ -4050,7 +4059,7 @@
     <t xml:space="preserve">17b. Mshiriki huyu alifanyiwa kipimo cha malaria?</t>
   </si>
   <si>
-    <t xml:space="preserve">ind_q17b1</t>
+    <t xml:space="preserve">ind_q17bi</t>
   </si>
   <si>
     <t xml:space="preserve">17b(i). [If yes] Result of the malaria test</t>
@@ -4107,7 +4116,7 @@
     <t xml:space="preserve">19. O participante tem comichão? (Assinalar todas as opções que se apliquem)</t>
   </si>
   <si>
-    <t xml:space="preserve">19. Mshirika huyu anawashwa? (chagua yote yatakayo husika)</t>
+    <t xml:space="preserve">19. Mshiriki huyu anawashwa? (chagua yote yatakayo husika)</t>
   </si>
   <si>
     <t xml:space="preserve">ind_q20</t>
@@ -4529,6 +4538,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Cascadia mono semilight"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4563,13 +4579,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Cascadia mono semilight"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -4662,7 +4671,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -4671,15 +4680,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4688,6 +4693,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4715,23 +4724,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4743,7 +4752,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Bad" xfId="20"/>
+    <cellStyle name="Bad 1" xfId="20"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -4849,11 +4858,11 @@
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.69"/>
   </cols>
@@ -5900,11 +5909,11 @@
   </sheetPr>
   <dimension ref="A1:Q1016"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.67"/>
@@ -7387,13 +7396,13 @@
   </sheetPr>
   <dimension ref="A1:Y1011"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C90" activeCellId="0" sqref="C90"/>
+      <selection pane="bottomLeft" activeCell="B213" activeCellId="0" sqref="B213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.16"/>
@@ -11179,11 +11188,11 @@
   </sheetPr>
   <dimension ref="A1:Y763"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.79"/>
@@ -29607,11 +29616,11 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.04"/>
@@ -30745,15 +30754,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D354"/>
+  <dimension ref="A1:D355"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B217" activeCellId="0" sqref="B217"/>
+      <selection pane="bottomLeft" activeCell="D82" activeCellId="0" sqref="D82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="35.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="13" width="37.56"/>
@@ -33002,153 +33011,153 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="13" t="s">
-        <v>270</v>
+        <v>845</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>270</v>
+        <v>845</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D162" s="13" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D163" s="13" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D164" s="13" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D165" s="13" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D166" s="13" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="13" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>278</v>
+        <v>856</v>
       </c>
       <c r="D167" s="13" t="s">
-        <v>278</v>
+        <v>857</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>855</v>
+        <v>278</v>
       </c>
       <c r="D168" s="13" t="s">
-        <v>856</v>
+        <v>278</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>280</v>
+        <v>858</v>
       </c>
       <c r="D169" s="13" t="s">
-        <v>280</v>
+        <v>859</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>857</v>
+        <v>280</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>858</v>
+        <v>280</v>
       </c>
       <c r="D170" s="13" t="s">
-        <v>859</v>
+        <v>280</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>282</v>
+        <v>860</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>282</v>
+        <v>861</v>
       </c>
       <c r="D171" s="13" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>861</v>
+        <v>282</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>862</v>
+        <v>282</v>
       </c>
       <c r="D172" s="13" t="s">
         <v>863</v>
@@ -33156,94 +33165,94 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>284</v>
+        <v>864</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D173" s="13" t="s">
-        <v>284</v>
+        <v>866</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="D174" s="13" t="s">
-        <v>866</v>
+        <v>284</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D175" s="13" t="s">
-        <v>286</v>
+        <v>869</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C176" s="13" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="D176" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="13" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>869</v>
+        <v>287</v>
       </c>
       <c r="C177" s="13" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D177" s="13" t="s">
-        <v>871</v>
+        <v>287</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>290</v>
+        <v>872</v>
       </c>
       <c r="C178" s="13" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D178" s="13" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>874</v>
+        <v>290</v>
       </c>
       <c r="C179" s="13" t="s">
         <v>875</v>
@@ -33254,38 +33263,38 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>292</v>
+        <v>877</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D180" s="13" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C181" s="13" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D181" s="13" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>881</v>
+        <v>293</v>
       </c>
       <c r="C182" s="13" t="s">
         <v>882</v>
@@ -33296,24 +33305,24 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B183" s="13" t="s">
-        <v>295</v>
+        <v>884</v>
       </c>
       <c r="C183" s="13" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D183" s="13" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>886</v>
+        <v>295</v>
       </c>
       <c r="C184" s="13" t="s">
         <v>887</v>
@@ -33324,7 +33333,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B185" s="13" t="s">
         <v>889</v>
@@ -33338,7 +33347,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B186" s="13" t="s">
         <v>892</v>
@@ -33352,7 +33361,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B187" s="13" t="s">
         <v>895</v>
@@ -33366,7 +33375,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B188" s="13" t="s">
         <v>898</v>
@@ -33380,7 +33389,7 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B189" s="13" t="s">
         <v>901</v>
@@ -33394,7 +33403,7 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B190" s="13" t="s">
         <v>904</v>
@@ -33406,247 +33415,247 @@
         <v>906</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="13" t="s">
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="B191" s="13" t="s">
         <v>907</v>
       </c>
-      <c r="B192" s="13" t="s">
+      <c r="C191" s="13" t="s">
         <v>908</v>
       </c>
-      <c r="C192" s="13" t="s">
+      <c r="D191" s="13" t="s">
         <v>909</v>
-      </c>
-      <c r="D192" s="13" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="13" t="s">
+        <v>910</v>
+      </c>
+      <c r="B193" s="13" t="s">
         <v>911</v>
       </c>
-      <c r="B193" s="13" t="s">
+      <c r="C193" s="13" t="s">
         <v>912</v>
       </c>
-      <c r="C193" s="13" t="s">
+      <c r="D193" s="13" t="s">
         <v>913</v>
-      </c>
-      <c r="D193" s="13" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="13" t="s">
+        <v>914</v>
+      </c>
+      <c r="B194" s="13" t="s">
         <v>915</v>
       </c>
-      <c r="B194" s="13" t="s">
+      <c r="C194" s="13" t="s">
         <v>916</v>
       </c>
-      <c r="C194" s="13" t="s">
+      <c r="D194" s="13" t="s">
         <v>917</v>
-      </c>
-      <c r="D194" s="13" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="13" t="s">
+        <v>918</v>
+      </c>
+      <c r="B195" s="13" t="s">
         <v>919</v>
       </c>
-      <c r="B195" s="13" t="s">
+      <c r="C195" s="13" t="s">
         <v>920</v>
       </c>
-      <c r="C195" s="13" t="s">
+      <c r="D195" s="13" t="s">
         <v>921</v>
-      </c>
-      <c r="D195" s="13" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="13" t="s">
+        <v>922</v>
+      </c>
+      <c r="B196" s="13" t="s">
         <v>923</v>
       </c>
-      <c r="B196" s="13" t="s">
+      <c r="C196" s="13" t="s">
         <v>924</v>
       </c>
-      <c r="C196" s="13" t="s">
+      <c r="D196" s="13" t="s">
         <v>925</v>
       </c>
-      <c r="D196" s="13" t="s">
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="13" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="13" t="s">
+      <c r="B197" s="13" t="s">
         <v>927</v>
       </c>
-      <c r="B198" s="13" t="s">
+      <c r="C197" s="13" t="s">
         <v>928</v>
       </c>
-      <c r="C198" s="13" t="s">
+      <c r="D197" s="13" t="s">
         <v>929</v>
-      </c>
-      <c r="D198" s="13" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="13" t="s">
+        <v>930</v>
+      </c>
+      <c r="B199" s="13" t="s">
         <v>931</v>
       </c>
-      <c r="B199" s="13" t="s">
+      <c r="C199" s="13" t="s">
         <v>932</v>
       </c>
-      <c r="C199" s="13" t="s">
+      <c r="D199" s="13" t="s">
         <v>933</v>
-      </c>
-      <c r="D199" s="13" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="13" t="s">
+        <v>934</v>
+      </c>
+      <c r="B200" s="13" t="s">
         <v>935</v>
       </c>
-      <c r="B200" s="13" t="s">
+      <c r="C200" s="13" t="s">
         <v>936</v>
       </c>
-      <c r="C200" s="13" t="s">
+      <c r="D200" s="13" t="s">
         <v>937</v>
-      </c>
-      <c r="D200" s="13" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="13" t="s">
+        <v>938</v>
+      </c>
+      <c r="B201" s="13" t="s">
         <v>939</v>
       </c>
-      <c r="B201" s="13" t="s">
+      <c r="C201" s="13" t="s">
         <v>940</v>
       </c>
-      <c r="C201" s="13" t="s">
+      <c r="D201" s="13" t="s">
         <v>941</v>
-      </c>
-      <c r="D201" s="13" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="13" t="s">
+        <v>942</v>
+      </c>
+      <c r="B202" s="13" t="s">
         <v>943</v>
       </c>
-      <c r="B202" s="13" t="s">
+      <c r="C202" s="13" t="s">
         <v>944</v>
       </c>
-      <c r="C202" s="13" t="s">
+      <c r="D202" s="13" t="s">
         <v>945</v>
-      </c>
-      <c r="D202" s="13" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="13" t="s">
+        <v>946</v>
+      </c>
+      <c r="B203" s="13" t="s">
         <v>947</v>
       </c>
-      <c r="B203" s="13" t="s">
+      <c r="C203" s="13" t="s">
         <v>948</v>
       </c>
-      <c r="C203" s="13" t="s">
+      <c r="D203" s="13" t="s">
         <v>949</v>
-      </c>
-      <c r="D203" s="13" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="13" t="s">
+        <v>950</v>
+      </c>
+      <c r="B204" s="13" t="s">
         <v>951</v>
       </c>
-      <c r="B204" s="13" t="s">
+      <c r="C204" s="13" t="s">
         <v>952</v>
       </c>
-      <c r="C204" s="13" t="s">
+      <c r="D204" s="13" t="s">
         <v>953</v>
       </c>
-      <c r="D204" s="13" t="s">
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="13" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B206" s="13" t="s">
+      <c r="B205" s="13" t="s">
         <v>955</v>
       </c>
-      <c r="C206" s="13" t="s">
-        <v>593</v>
-      </c>
-      <c r="D206" s="13" t="s">
-        <v>594</v>
+      <c r="C205" s="13" t="s">
+        <v>956</v>
+      </c>
+      <c r="D205" s="13" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="13" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="C207" s="13" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="D207" s="13" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="13" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="C208" s="13" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="D208" s="13" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="13" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="C209" s="13" t="s">
-        <v>959</v>
+        <v>607</v>
       </c>
       <c r="D209" s="13" t="s">
-        <v>960</v>
+        <v>608</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B210" s="13" t="s">
         <v>961</v>
       </c>
-      <c r="B210" s="13" t="s">
+      <c r="C210" s="13" t="s">
         <v>962</v>
       </c>
-      <c r="C210" s="13" t="s">
+      <c r="D210" s="13" t="s">
         <v>963</v>
-      </c>
-      <c r="D210" s="13" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="13" t="s">
-        <v>323</v>
+        <v>964</v>
       </c>
       <c r="B211" s="13" t="s">
         <v>965</v>
@@ -33660,227 +33669,227 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="B212" s="13" t="s">
         <v>968</v>
       </c>
-      <c r="B212" s="13" t="s">
+      <c r="C212" s="13" t="s">
         <v>969</v>
       </c>
-      <c r="C212" s="13" t="s">
+      <c r="D212" s="13" t="s">
         <v>970</v>
-      </c>
-      <c r="D212" s="13" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="B213" s="13" t="s">
         <v>972</v>
       </c>
-      <c r="B213" s="13" t="s">
+      <c r="C213" s="13" t="s">
         <v>973</v>
       </c>
-      <c r="C213" s="13" t="s">
+      <c r="D213" s="13" t="s">
         <v>974</v>
-      </c>
-      <c r="D213" s="13" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="13" t="s">
+        <v>975</v>
+      </c>
+      <c r="B214" s="13" t="s">
         <v>976</v>
       </c>
-      <c r="B214" s="13" t="s">
+      <c r="C214" s="13" t="s">
         <v>977</v>
       </c>
-      <c r="C214" s="13" t="s">
+      <c r="D214" s="13" t="s">
         <v>978</v>
       </c>
-      <c r="D214" s="13" t="s">
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="13" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="215" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="13" t="s">
+      <c r="B215" s="13" t="s">
         <v>980</v>
       </c>
-      <c r="B215" s="13" t="s">
+      <c r="C215" s="13" t="s">
         <v>981</v>
       </c>
-      <c r="C215" s="14" t="s">
+      <c r="D215" s="13" t="s">
         <v>982</v>
-      </c>
-      <c r="D215" s="14" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="13" t="s">
+        <v>983</v>
+      </c>
+      <c r="B216" s="13" t="s">
         <v>984</v>
       </c>
-      <c r="B216" s="13" t="s">
+      <c r="C216" s="14" t="s">
         <v>985</v>
       </c>
-      <c r="C216" s="14" t="s">
+      <c r="D216" s="14" t="s">
         <v>986</v>
       </c>
-      <c r="D216" s="14" t="s">
+    </row>
+    <row r="217" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="13" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="13" t="s">
+      <c r="B217" s="13" t="s">
         <v>988</v>
       </c>
-      <c r="B217" s="13" t="s">
+      <c r="C217" s="14" t="s">
         <v>989</v>
       </c>
-      <c r="C217" s="15"/>
-      <c r="D217" s="15"/>
+      <c r="D217" s="14" t="s">
+        <v>990</v>
+      </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="13" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>991</v>
-      </c>
-      <c r="C218" s="13" t="s">
         <v>992</v>
       </c>
-      <c r="D218" s="13" t="s">
-        <v>993</v>
-      </c>
+      <c r="C218" s="15"/>
+      <c r="D218" s="15"/>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="13" t="s">
+        <v>993</v>
+      </c>
+      <c r="B219" s="13" t="s">
         <v>994</v>
       </c>
-      <c r="B219" s="13" t="s">
+      <c r="C219" s="13" t="s">
         <v>995</v>
       </c>
-      <c r="C219" s="13" t="s">
+      <c r="D219" s="13" t="s">
         <v>996</v>
-      </c>
-      <c r="D219" s="13" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="13" t="s">
+        <v>997</v>
+      </c>
+      <c r="B220" s="13" t="s">
         <v>998</v>
       </c>
-      <c r="B220" s="13" t="s">
+      <c r="C220" s="13" t="s">
         <v>999</v>
       </c>
-      <c r="C220" s="13" t="s">
+      <c r="D220" s="13" t="s">
         <v>1000</v>
-      </c>
-      <c r="D220" s="13" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="13" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B221" s="13" t="s">
         <v>1002</v>
       </c>
-      <c r="B221" s="13" t="s">
+      <c r="C221" s="13" t="s">
         <v>1003</v>
       </c>
-      <c r="C221" s="13" t="s">
+      <c r="D221" s="13" t="s">
         <v>1004</v>
-      </c>
-      <c r="D221" s="13" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="13" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B222" s="13" t="s">
         <v>1006</v>
       </c>
-      <c r="B222" s="13" t="s">
+      <c r="C222" s="13" t="s">
         <v>1007</v>
       </c>
-      <c r="C222" s="14" t="s">
+      <c r="D222" s="13" t="s">
         <v>1008</v>
-      </c>
-      <c r="D222" s="14" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="13" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B223" s="13" t="s">
         <v>1010</v>
       </c>
-      <c r="B223" s="13" t="s">
+      <c r="C223" s="14" t="s">
         <v>1011</v>
       </c>
-      <c r="C223" s="13" t="s">
+      <c r="D223" s="14" t="s">
         <v>1012</v>
-      </c>
-      <c r="D223" s="13" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="13" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B224" s="13" t="s">
         <v>1014</v>
-      </c>
-      <c r="B224" s="13" t="s">
-        <v>1015</v>
       </c>
       <c r="C224" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="D224" s="13" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="13" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C225" s="14" t="s">
         <v>1018</v>
       </c>
-      <c r="D225" s="14" t="s">
+      <c r="C225" s="13" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D225" s="13" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="13" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="13" t="s">
+      <c r="B226" s="13" t="s">
         <v>1020</v>
       </c>
-      <c r="B226" s="13" t="s">
+      <c r="C226" s="14" t="s">
         <v>1021</v>
       </c>
-      <c r="C226" s="13" t="s">
+      <c r="D226" s="14" t="s">
         <v>1022</v>
-      </c>
-      <c r="D226" s="13" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="13" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B227" s="13" t="s">
         <v>1024</v>
       </c>
-      <c r="B227" s="13" t="s">
+      <c r="C227" s="13" t="s">
         <v>1025</v>
       </c>
-      <c r="C227" s="13" t="s">
+      <c r="D227" s="13" t="s">
         <v>1026</v>
-      </c>
-      <c r="D227" s="13" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="13" t="s">
-        <v>27</v>
+        <v>1027</v>
       </c>
       <c r="B228" s="13" t="s">
         <v>1028</v>
@@ -33894,147 +33903,147 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B229" s="13" t="s">
         <v>1031</v>
       </c>
-      <c r="B229" s="13" t="s">
+      <c r="C229" s="13" t="s">
         <v>1032</v>
       </c>
-      <c r="C229" s="13" t="s">
+      <c r="D229" s="13" t="s">
         <v>1033</v>
-      </c>
-      <c r="D229" s="13" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="13" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B230" s="13" t="s">
         <v>1035</v>
       </c>
-      <c r="B230" s="13" t="s">
+      <c r="C230" s="13" t="s">
         <v>1036</v>
       </c>
-      <c r="C230" s="13" t="s">
+      <c r="D230" s="13" t="s">
         <v>1037</v>
-      </c>
-      <c r="D230" s="13" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="13" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B231" s="13" t="s">
         <v>1039</v>
       </c>
-      <c r="B231" s="13" t="s">
+      <c r="C231" s="13" t="s">
         <v>1040</v>
       </c>
-      <c r="C231" s="13" t="s">
+      <c r="D231" s="13" t="s">
         <v>1041</v>
-      </c>
-      <c r="D231" s="13" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="13" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B232" s="13" t="s">
         <v>1043</v>
       </c>
-      <c r="B232" s="13" t="s">
+      <c r="C232" s="13" t="s">
         <v>1044</v>
       </c>
-      <c r="C232" s="13" t="s">
+      <c r="D232" s="13" t="s">
         <v>1045</v>
-      </c>
-      <c r="D232" s="13" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="13" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B233" s="13" t="s">
         <v>1047</v>
       </c>
-      <c r="B233" s="13" t="s">
+      <c r="C233" s="13" t="s">
         <v>1048</v>
       </c>
-      <c r="C233" s="13" t="s">
+      <c r="D233" s="13" t="s">
         <v>1049</v>
-      </c>
-      <c r="D233" s="13" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="13" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B234" s="13" t="s">
         <v>1051</v>
       </c>
-      <c r="B234" s="13" t="s">
+      <c r="C234" s="13" t="s">
         <v>1052</v>
       </c>
-      <c r="C234" s="13" t="s">
+      <c r="D234" s="13" t="s">
         <v>1053</v>
-      </c>
-      <c r="D234" s="13" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="13" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B235" s="13" t="s">
         <v>1055</v>
       </c>
-      <c r="B235" s="13" t="s">
+      <c r="C235" s="13" t="s">
         <v>1056</v>
       </c>
-      <c r="C235" s="13" t="s">
+      <c r="D235" s="13" t="s">
         <v>1057</v>
-      </c>
-      <c r="D235" s="13" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="13" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B236" s="13" t="s">
         <v>1059</v>
       </c>
-      <c r="B236" s="13" t="s">
+      <c r="C236" s="13" t="s">
         <v>1060</v>
       </c>
-      <c r="C236" s="14" t="s">
+      <c r="D236" s="13" t="s">
         <v>1061</v>
       </c>
-      <c r="D236" s="14" t="s">
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="13" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="237" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="13" t="s">
+      <c r="B237" s="13" t="s">
         <v>1063</v>
       </c>
-      <c r="B237" s="13" t="s">
+      <c r="C237" s="14" t="s">
         <v>1064</v>
       </c>
-      <c r="C237" s="14" t="s">
+      <c r="D237" s="14" t="s">
         <v>1065</v>
       </c>
-      <c r="D237" s="14" t="s">
+    </row>
+    <row r="238" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="13" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="13" t="s">
+      <c r="B238" s="13" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C238" s="14" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D238" s="14" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="B239" s="13" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C239" s="14" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D239" s="14" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="32.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A240" s="13" t="s">
-        <v>30</v>
       </c>
       <c r="B240" s="13" t="s">
         <v>1070</v>
@@ -34046,23 +34055,23 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="32.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B241" s="13" t="s">
         <v>1073</v>
       </c>
-      <c r="C241" s="13" t="s">
+      <c r="C241" s="14" t="s">
         <v>1074</v>
       </c>
-      <c r="D241" s="13" t="s">
+      <c r="D241" s="14" t="s">
         <v>1075</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="13" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B242" s="13" t="s">
         <v>1076</v>
@@ -34076,7 +34085,7 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B243" s="13" t="s">
         <v>1079</v>
@@ -34088,79 +34097,79 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B244" s="13" t="s">
         <v>1082</v>
       </c>
-      <c r="B244" s="13" t="s">
+      <c r="C244" s="13" t="s">
         <v>1083</v>
       </c>
-      <c r="C244" s="14" t="s">
+      <c r="D244" s="13" t="s">
         <v>1084</v>
-      </c>
-      <c r="D244" s="14" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="13" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B245" s="13" t="s">
         <v>1086</v>
       </c>
-      <c r="B245" s="13" t="s">
+      <c r="C245" s="14" t="s">
         <v>1087</v>
       </c>
-      <c r="C245" s="14" t="s">
+      <c r="D245" s="14" t="s">
         <v>1088</v>
-      </c>
-      <c r="D245" s="14" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="13" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B246" s="13" t="s">
         <v>1090</v>
       </c>
-      <c r="B246" s="13" t="s">
+      <c r="C246" s="14" t="s">
         <v>1091</v>
       </c>
-      <c r="C246" s="14" t="s">
+      <c r="D246" s="14" t="s">
         <v>1092</v>
       </c>
-      <c r="D246" s="14" t="s">
+    </row>
+    <row r="247" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="13" t="s">
         <v>1093</v>
       </c>
-    </row>
-    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="13" t="s">
+      <c r="B247" s="13" t="s">
         <v>1094</v>
       </c>
-      <c r="B247" s="13" t="s">
+      <c r="C247" s="14" t="s">
         <v>1095</v>
       </c>
-      <c r="C247" s="13" t="s">
+      <c r="D247" s="14" t="s">
         <v>1096</v>
       </c>
-      <c r="D247" s="13" t="s">
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="13" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B250" s="13" t="s">
+      <c r="B248" s="13" t="s">
         <v>1098</v>
       </c>
-      <c r="C250" s="13" t="s">
+      <c r="C248" s="13" t="s">
         <v>1099</v>
       </c>
-      <c r="D250" s="13" t="s">
+      <c r="D248" s="13" t="s">
         <v>1100</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B251" s="13" t="s">
         <v>1101</v>
@@ -34174,7 +34183,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B252" s="13" t="s">
         <v>1104</v>
@@ -34188,7 +34197,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="13" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B253" s="13" t="s">
         <v>1107</v>
@@ -34202,7 +34211,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="13" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B254" s="13" t="s">
         <v>1110</v>
@@ -34216,7 +34225,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B255" s="13" t="s">
         <v>1113</v>
@@ -34230,7 +34239,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B256" s="13" t="s">
         <v>1116</v>
@@ -34244,178 +34253,178 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B257" s="13" t="s">
         <v>1119</v>
       </c>
-      <c r="B257" s="13" t="s">
+      <c r="C257" s="13" t="s">
         <v>1120</v>
       </c>
-      <c r="C257" s="13" t="s">
+      <c r="D257" s="13" t="s">
         <v>1121</v>
-      </c>
-      <c r="D257" s="13" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="13" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B258" s="13" t="s">
         <v>1123</v>
       </c>
-      <c r="B258" s="13" t="s">
+      <c r="C258" s="13" t="s">
         <v>1124</v>
       </c>
-      <c r="C258" s="13" t="s">
+      <c r="D258" s="13" t="s">
         <v>1125</v>
-      </c>
-      <c r="D258" s="13" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="13" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B259" s="13" t="s">
         <v>1127</v>
       </c>
-      <c r="B259" s="13" t="s">
+      <c r="C259" s="13" t="s">
         <v>1128</v>
       </c>
-      <c r="C259" s="13" t="s">
+      <c r="D259" s="13" t="s">
         <v>1129</v>
-      </c>
-      <c r="D259" s="13" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="13" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B260" s="13" t="s">
         <v>1131</v>
       </c>
-      <c r="B260" s="13" t="s">
+      <c r="C260" s="13" t="s">
         <v>1132</v>
       </c>
-      <c r="C260" s="13" t="s">
+      <c r="D260" s="13" t="s">
         <v>1133</v>
-      </c>
-      <c r="D260" s="13" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="13" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B261" s="13" t="s">
         <v>1135</v>
       </c>
-      <c r="B261" s="13" t="s">
+      <c r="C261" s="13" t="s">
         <v>1136</v>
       </c>
-      <c r="C261" s="13" t="s">
+      <c r="D261" s="13" t="s">
         <v>1137</v>
-      </c>
-      <c r="D261" s="13" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="13" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B262" s="13" t="s">
         <v>1139</v>
       </c>
-      <c r="B262" s="13" t="s">
+      <c r="C262" s="13" t="s">
         <v>1140</v>
       </c>
-      <c r="C262" s="13" t="s">
+      <c r="D262" s="13" t="s">
         <v>1141</v>
-      </c>
-      <c r="D262" s="13" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="13" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B263" s="13" t="s">
         <v>1143</v>
       </c>
-      <c r="B263" s="13" t="s">
+      <c r="C263" s="13" t="s">
         <v>1144</v>
       </c>
-      <c r="C263" s="13" t="s">
+      <c r="D263" s="13" t="s">
         <v>1145</v>
-      </c>
-      <c r="D263" s="13" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="13" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B264" s="13" t="s">
         <v>1147</v>
       </c>
-      <c r="B264" s="13" t="s">
+      <c r="C264" s="13" t="s">
         <v>1148</v>
       </c>
-      <c r="C264" s="13" t="s">
+      <c r="D264" s="13" t="s">
         <v>1149</v>
-      </c>
-      <c r="D264" s="13" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="13" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B265" s="13" t="s">
         <v>1151</v>
       </c>
-      <c r="B265" s="13" t="s">
+      <c r="C265" s="13" t="s">
         <v>1152</v>
       </c>
-      <c r="C265" s="13" t="s">
+      <c r="D265" s="13" t="s">
         <v>1153</v>
-      </c>
-      <c r="D265" s="13" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="13" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B266" s="13" t="s">
         <v>1155</v>
       </c>
-      <c r="B266" s="13" t="s">
+      <c r="C266" s="13" t="s">
         <v>1156</v>
       </c>
-      <c r="C266" s="13" t="s">
+      <c r="D266" s="13" t="s">
         <v>1157</v>
-      </c>
-      <c r="D266" s="13" t="s">
-        <v>1158</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="13" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B267" s="13" t="s">
         <v>1159</v>
       </c>
-      <c r="B267" s="13" t="s">
+      <c r="C267" s="13" t="s">
         <v>1160</v>
       </c>
-      <c r="C267" s="13" t="s">
+      <c r="D267" s="13" t="s">
         <v>1161</v>
-      </c>
-      <c r="D267" s="13" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="13" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B268" s="13" t="s">
         <v>1163</v>
       </c>
-      <c r="B268" s="13" t="s">
+      <c r="C268" s="13" t="s">
         <v>1164</v>
       </c>
-      <c r="C268" s="13" t="s">
+      <c r="D268" s="13" t="s">
         <v>1165</v>
-      </c>
-      <c r="D268" s="13" t="s">
-        <v>1166</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="13" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B269" s="13" t="s">
         <v>1167</v>
-      </c>
-      <c r="B269" s="13" t="s">
-        <v>1116</v>
       </c>
       <c r="C269" s="13" t="s">
         <v>1168</v>
@@ -34429,1165 +34438,1179 @@
         <v>1170</v>
       </c>
       <c r="B270" s="13" t="s">
-        <v>1171</v>
+        <v>1119</v>
       </c>
       <c r="C270" s="13" t="s">
         <v>1171</v>
       </c>
       <c r="D270" s="13" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="13" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B271" s="13" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="C271" s="13" t="s">
         <v>1174</v>
       </c>
       <c r="D271" s="13" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="13" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B272" s="13" t="s">
         <v>1176</v>
       </c>
-      <c r="B272" s="13" t="s">
+      <c r="C272" s="13" t="s">
         <v>1177</v>
       </c>
-      <c r="C272" s="13" t="s">
+      <c r="D272" s="13" t="s">
         <v>1178</v>
-      </c>
-      <c r="D272" s="13" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="13" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B273" s="13" t="s">
         <v>1180</v>
       </c>
-      <c r="B273" s="13" t="s">
+      <c r="C273" s="13" t="s">
         <v>1181</v>
       </c>
-      <c r="C273" s="13" t="s">
+      <c r="D273" s="13" t="s">
         <v>1182</v>
-      </c>
-      <c r="D273" s="13" t="s">
-        <v>1183</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="13" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B274" s="13" t="s">
         <v>1184</v>
       </c>
-      <c r="B274" s="13" t="s">
+      <c r="C274" s="13" t="s">
         <v>1185</v>
       </c>
-      <c r="C274" s="13" t="s">
+      <c r="D274" s="13" t="s">
         <v>1186</v>
-      </c>
-      <c r="D274" s="13" t="s">
-        <v>1187</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="13" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B275" s="13" t="s">
         <v>1188</v>
       </c>
-      <c r="B275" s="13" t="s">
+      <c r="C275" s="13" t="s">
         <v>1189</v>
       </c>
-      <c r="C275" s="13" t="s">
+      <c r="D275" s="13" t="s">
         <v>1190</v>
-      </c>
-      <c r="D275" s="13" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="13" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B276" s="13" t="s">
         <v>1192</v>
       </c>
-      <c r="B276" s="13" t="s">
+      <c r="C276" s="13" t="s">
         <v>1193</v>
       </c>
-      <c r="C276" s="13" t="s">
+      <c r="D276" s="13" t="s">
         <v>1194</v>
-      </c>
-      <c r="D276" s="13" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="13" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B277" s="13" t="s">
         <v>1196</v>
       </c>
-      <c r="B277" s="13" t="s">
-        <v>1116</v>
-      </c>
       <c r="C277" s="13" t="s">
-        <v>1168</v>
+        <v>1197</v>
       </c>
       <c r="D277" s="13" t="s">
-        <v>1169</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="13" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="B278" s="13" t="s">
-        <v>1198</v>
+        <v>1119</v>
       </c>
       <c r="C278" s="13" t="s">
-        <v>1199</v>
+        <v>1171</v>
       </c>
       <c r="D278" s="13" t="s">
-        <v>1200</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="13" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B279" s="13" t="s">
         <v>1201</v>
       </c>
-      <c r="B279" s="13" t="s">
+      <c r="C279" s="13" t="s">
         <v>1202</v>
       </c>
-      <c r="C279" s="13" t="s">
+      <c r="D279" s="13" t="s">
         <v>1203</v>
-      </c>
-      <c r="D279" s="13" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="13" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B280" s="13" t="s">
         <v>1205</v>
       </c>
-      <c r="B280" s="13" t="s">
+      <c r="C280" s="13" t="s">
         <v>1206</v>
       </c>
-      <c r="C280" s="13" t="s">
+      <c r="D280" s="13" t="s">
         <v>1207</v>
-      </c>
-      <c r="D280" s="13" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="13" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B281" s="13" t="s">
         <v>1209</v>
       </c>
-      <c r="B281" s="13" t="s">
+      <c r="C281" s="13" t="s">
         <v>1210</v>
       </c>
-      <c r="C281" s="13" t="s">
+      <c r="D281" s="13" t="s">
         <v>1211</v>
-      </c>
-      <c r="D281" s="13" t="s">
-        <v>1212</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="13" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B282" s="13" t="s">
         <v>1213</v>
       </c>
-      <c r="B282" s="13" t="s">
+      <c r="C282" s="13" t="s">
         <v>1214</v>
       </c>
-      <c r="C282" s="13" t="s">
+      <c r="D282" s="13" t="s">
         <v>1215</v>
-      </c>
-      <c r="D282" s="13" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="13" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B283" s="13" t="s">
         <v>1217</v>
       </c>
-      <c r="B283" s="13" t="s">
+      <c r="C283" s="13" t="s">
         <v>1218</v>
       </c>
-      <c r="C283" s="13" t="s">
+      <c r="D283" s="13" t="s">
         <v>1219</v>
-      </c>
-      <c r="D283" s="13" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="13" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B284" s="13" t="s">
         <v>1221</v>
       </c>
-      <c r="B284" s="13" t="s">
+      <c r="C284" s="13" t="s">
         <v>1222</v>
       </c>
-      <c r="C284" s="13" t="s">
+      <c r="D284" s="13" t="s">
         <v>1223</v>
-      </c>
-      <c r="D284" s="13" t="s">
-        <v>1224</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="13" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B285" s="13" t="s">
         <v>1225</v>
       </c>
-      <c r="B285" s="13" t="s">
+      <c r="C285" s="13" t="s">
         <v>1226</v>
       </c>
-      <c r="C285" s="13" t="s">
+      <c r="D285" s="13" t="s">
         <v>1227</v>
-      </c>
-      <c r="D285" s="13" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="13" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B286" s="13" t="s">
         <v>1229</v>
       </c>
-      <c r="B286" s="13" t="s">
+      <c r="C286" s="13" t="s">
         <v>1230</v>
       </c>
-      <c r="C286" s="13" t="s">
+      <c r="D286" s="13" t="s">
         <v>1231</v>
-      </c>
-      <c r="D286" s="13" t="s">
-        <v>1232</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="13" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B287" s="13" t="s">
         <v>1233</v>
       </c>
-      <c r="B287" s="13" t="s">
+      <c r="C287" s="13" t="s">
         <v>1234</v>
       </c>
-      <c r="C287" s="13" t="s">
+      <c r="D287" s="13" t="s">
         <v>1235</v>
-      </c>
-      <c r="D287" s="13" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="13" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B288" s="13" t="s">
         <v>1237</v>
       </c>
-      <c r="B288" s="13" t="s">
+      <c r="C288" s="13" t="s">
         <v>1238</v>
       </c>
-      <c r="C288" s="13" t="s">
+      <c r="D288" s="13" t="s">
         <v>1239</v>
-      </c>
-      <c r="D288" s="13" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="13" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B289" s="13" t="s">
         <v>1241</v>
       </c>
-      <c r="B289" s="13" t="s">
+      <c r="C289" s="13" t="s">
         <v>1242</v>
       </c>
-      <c r="C289" s="13" t="s">
+      <c r="D289" s="13" t="s">
         <v>1243</v>
-      </c>
-      <c r="D289" s="13" t="s">
-        <v>1244</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="13" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B290" s="13" t="s">
         <v>1245</v>
       </c>
-      <c r="B290" s="13" t="s">
+      <c r="C290" s="13" t="s">
         <v>1246</v>
       </c>
-      <c r="C290" s="13" t="s">
+      <c r="D290" s="13" t="s">
         <v>1247</v>
       </c>
-      <c r="D290" s="13" t="s">
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="13" t="s">
         <v>1248</v>
       </c>
-    </row>
-    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="13" t="s">
+      <c r="B291" s="13" t="s">
         <v>1249</v>
       </c>
-      <c r="B292" s="13" t="s">
+      <c r="C291" s="13" t="s">
         <v>1250</v>
       </c>
-      <c r="C292" s="13" t="s">
+      <c r="D291" s="13" t="s">
         <v>1251</v>
-      </c>
-      <c r="D292" s="13" t="s">
-        <v>1252</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="13" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B293" s="13" t="s">
         <v>1253</v>
       </c>
-      <c r="B293" s="13" t="s">
+      <c r="C293" s="13" t="s">
         <v>1254</v>
       </c>
-      <c r="C293" s="13" t="s">
+      <c r="D293" s="13" t="s">
         <v>1255</v>
-      </c>
-      <c r="D293" s="13" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="13" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B294" s="13" t="s">
         <v>1257</v>
       </c>
-      <c r="B294" s="13" t="s">
+      <c r="C294" s="13" t="s">
         <v>1258</v>
       </c>
-      <c r="C294" s="13" t="s">
+      <c r="D294" s="13" t="s">
         <v>1259</v>
-      </c>
-      <c r="D294" s="13" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="13" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B295" s="13" t="s">
         <v>1261</v>
       </c>
-      <c r="B295" s="13" t="s">
+      <c r="C295" s="13" t="s">
         <v>1262</v>
       </c>
-      <c r="C295" s="13" t="s">
+      <c r="D295" s="13" t="s">
         <v>1263</v>
-      </c>
-      <c r="D295" s="13" t="s">
-        <v>1264</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="13" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B296" s="13" t="s">
         <v>1265</v>
       </c>
-      <c r="B296" s="13" t="s">
+      <c r="C296" s="13" t="s">
         <v>1266</v>
       </c>
-      <c r="C296" s="13" t="s">
+      <c r="D296" s="13" t="s">
         <v>1267</v>
-      </c>
-      <c r="D296" s="13" t="s">
-        <v>1268</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="13" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B297" s="13" t="s">
         <v>1269</v>
       </c>
-      <c r="B297" s="13" t="s">
+      <c r="C297" s="13" t="s">
         <v>1270</v>
       </c>
-      <c r="C297" s="13" t="s">
+      <c r="D297" s="13" t="s">
         <v>1271</v>
-      </c>
-      <c r="D297" s="13" t="s">
-        <v>1272</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="13" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B298" s="13" t="s">
         <v>1273</v>
       </c>
-      <c r="B298" s="13" t="s">
+      <c r="C298" s="13" t="s">
         <v>1274</v>
       </c>
-      <c r="C298" s="13" t="s">
+      <c r="D298" s="13" t="s">
         <v>1275</v>
-      </c>
-      <c r="D298" s="13" t="s">
-        <v>1276</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="13" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B299" s="13" t="s">
         <v>1277</v>
       </c>
-      <c r="B299" s="13" t="s">
+      <c r="C299" s="13" t="s">
         <v>1278</v>
       </c>
-      <c r="C299" s="13" t="s">
+      <c r="D299" s="13" t="s">
         <v>1279</v>
-      </c>
-      <c r="D299" s="13" t="s">
-        <v>1280</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="13" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B300" s="13" t="s">
         <v>1281</v>
       </c>
-      <c r="B300" s="13" t="s">
+      <c r="C300" s="13" t="s">
         <v>1282</v>
       </c>
-      <c r="C300" s="13" t="s">
+      <c r="D300" s="13" t="s">
         <v>1283</v>
-      </c>
-      <c r="D300" s="13" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B301" s="13" t="s">
         <v>1285</v>
       </c>
-      <c r="B301" s="13" t="s">
+      <c r="C301" s="13" t="s">
         <v>1286</v>
       </c>
-      <c r="C301" s="13" t="s">
+      <c r="D301" s="13" t="s">
         <v>1287</v>
-      </c>
-      <c r="D301" s="13" t="s">
-        <v>1288</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="13" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B302" s="13" t="s">
         <v>1289</v>
       </c>
-      <c r="B302" s="13" t="s">
+      <c r="C302" s="13" t="s">
         <v>1290</v>
       </c>
-      <c r="C302" s="13" t="s">
+      <c r="D302" s="13" t="s">
         <v>1291</v>
-      </c>
-      <c r="D302" s="13" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="13" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B303" s="13" t="s">
         <v>1293</v>
       </c>
-      <c r="B303" s="13" t="s">
+      <c r="C303" s="13" t="s">
         <v>1294</v>
       </c>
-      <c r="C303" s="13" t="s">
+      <c r="D303" s="13" t="s">
         <v>1295</v>
-      </c>
-      <c r="D303" s="13" t="s">
-        <v>1296</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="13" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B304" s="13" t="s">
         <v>1297</v>
       </c>
-      <c r="B304" s="13" t="s">
+      <c r="C304" s="13" t="s">
         <v>1298</v>
       </c>
-      <c r="C304" s="13" t="s">
+      <c r="D304" s="13" t="s">
         <v>1299</v>
-      </c>
-      <c r="D304" s="13" t="s">
-        <v>1300</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="13" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B305" s="13" t="s">
         <v>1301</v>
       </c>
-      <c r="B305" s="13" t="s">
+      <c r="C305" s="13" t="s">
         <v>1302</v>
       </c>
-      <c r="C305" s="13" t="s">
+      <c r="D305" s="13" t="s">
         <v>1303</v>
-      </c>
-      <c r="D305" s="13" t="s">
-        <v>1304</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="13" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B306" s="13" t="s">
         <v>1305</v>
       </c>
-      <c r="B306" s="13" t="s">
+      <c r="C306" s="13" t="s">
         <v>1306</v>
       </c>
-      <c r="C306" s="13" t="s">
+      <c r="D306" s="13" t="s">
         <v>1307</v>
-      </c>
-      <c r="D306" s="13" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="13" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B307" s="13" t="s">
         <v>1309</v>
       </c>
-      <c r="B307" s="13" t="s">
+      <c r="C307" s="13" t="s">
         <v>1310</v>
       </c>
-      <c r="C307" s="13" t="s">
+      <c r="D307" s="13" t="s">
         <v>1311</v>
-      </c>
-      <c r="D307" s="13" t="s">
-        <v>1312</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="13" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B308" s="13" t="s">
         <v>1313</v>
       </c>
-      <c r="B308" s="13" t="s">
+      <c r="C308" s="13" t="s">
         <v>1314</v>
       </c>
-      <c r="C308" s="13" t="s">
+      <c r="D308" s="13" t="s">
         <v>1315</v>
-      </c>
-      <c r="D308" s="13" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="13" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B309" s="13" t="s">
         <v>1317</v>
       </c>
-      <c r="B309" s="13" t="s">
+      <c r="C309" s="13" t="s">
         <v>1318</v>
       </c>
-      <c r="C309" s="13" t="s">
+      <c r="D309" s="13" t="s">
         <v>1319</v>
-      </c>
-      <c r="D309" s="13" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="13" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B310" s="13" t="s">
         <v>1321</v>
       </c>
-      <c r="B310" s="13" t="s">
+      <c r="C310" s="13" t="s">
         <v>1322</v>
       </c>
-      <c r="C310" s="13" t="s">
+      <c r="D310" s="13" t="s">
         <v>1323</v>
-      </c>
-      <c r="D310" s="13" t="s">
-        <v>1324</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="13" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B311" s="13" t="s">
         <v>1325</v>
       </c>
-      <c r="B311" s="13" t="s">
+      <c r="C311" s="13" t="s">
         <v>1326</v>
       </c>
-      <c r="C311" s="13" t="s">
+      <c r="D311" s="13" t="s">
         <v>1327</v>
-      </c>
-      <c r="D311" s="13" t="s">
-        <v>1328</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="13" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B312" s="13" t="s">
         <v>1329</v>
       </c>
-      <c r="B312" s="13" t="s">
+      <c r="C312" s="13" t="s">
         <v>1330</v>
       </c>
-      <c r="C312" s="13" t="s">
+      <c r="D312" s="13" t="s">
         <v>1331</v>
-      </c>
-      <c r="D312" s="13" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="13" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B313" s="13" t="s">
         <v>1333</v>
       </c>
-      <c r="B313" s="13" t="s">
+      <c r="C313" s="13" t="s">
         <v>1334</v>
       </c>
-      <c r="C313" s="13" t="s">
+      <c r="D313" s="13" t="s">
         <v>1335</v>
-      </c>
-      <c r="D313" s="13" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="13" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B314" s="13" t="s">
         <v>1337</v>
       </c>
-      <c r="B314" s="13" t="s">
+      <c r="C314" s="13" t="s">
         <v>1338</v>
       </c>
-      <c r="C314" s="13" t="s">
+      <c r="D314" s="13" t="s">
         <v>1339</v>
-      </c>
-      <c r="D314" s="13" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="13" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B315" s="13" t="s">
         <v>1341</v>
       </c>
-      <c r="B315" s="13" t="s">
+      <c r="C315" s="13" t="s">
         <v>1342</v>
       </c>
-      <c r="C315" s="13" t="s">
+      <c r="D315" s="13" t="s">
         <v>1343</v>
-      </c>
-      <c r="D315" s="13" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="13" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B316" s="13" t="s">
         <v>1345</v>
       </c>
-      <c r="B316" s="13" t="s">
+      <c r="C316" s="13" t="s">
         <v>1346</v>
       </c>
-      <c r="C316" s="13" t="s">
+      <c r="D316" s="13" t="s">
         <v>1347</v>
-      </c>
-      <c r="D316" s="13" t="s">
-        <v>1348</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="13" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B317" s="13" t="s">
         <v>1349</v>
       </c>
-      <c r="B317" s="13" t="s">
+      <c r="C317" s="13" t="s">
         <v>1350</v>
       </c>
-      <c r="C317" s="13" t="s">
+      <c r="D317" s="13" t="s">
         <v>1351</v>
-      </c>
-      <c r="D317" s="13" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="13" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B318" s="13" t="s">
         <v>1353</v>
       </c>
-      <c r="B318" s="13" t="s">
+      <c r="C318" s="13" t="s">
         <v>1354</v>
       </c>
-      <c r="C318" s="13" t="s">
+      <c r="D318" s="13" t="s">
         <v>1355</v>
-      </c>
-      <c r="D318" s="13" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="13" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B319" s="13" t="s">
         <v>1357</v>
       </c>
-      <c r="B319" s="13" t="s">
+      <c r="C319" s="13" t="s">
         <v>1358</v>
       </c>
-      <c r="C319" s="13" t="s">
+      <c r="D319" s="13" t="s">
         <v>1359</v>
-      </c>
-      <c r="D319" s="13" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="13" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B320" s="13" t="s">
         <v>1361</v>
       </c>
-      <c r="B320" s="13" t="s">
+      <c r="C320" s="13" t="s">
         <v>1362</v>
       </c>
-      <c r="C320" s="13" t="s">
+      <c r="D320" s="13" t="s">
         <v>1363</v>
-      </c>
-      <c r="D320" s="13" t="s">
-        <v>1364</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="13" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B321" s="13" t="s">
         <v>1365</v>
       </c>
-      <c r="B321" s="13" t="s">
+      <c r="C321" s="13" t="s">
         <v>1366</v>
       </c>
-      <c r="C321" s="13" t="s">
+      <c r="D321" s="13" t="s">
         <v>1367</v>
-      </c>
-      <c r="D321" s="13" t="s">
-        <v>1368</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="13" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B322" s="13" t="s">
         <v>1369</v>
       </c>
-      <c r="B322" s="13" t="s">
+      <c r="C322" s="13" t="s">
         <v>1370</v>
       </c>
-      <c r="C322" s="13" t="s">
+      <c r="D322" s="13" t="s">
         <v>1371</v>
-      </c>
-      <c r="D322" s="13" t="s">
-        <v>1372</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="13" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B323" s="13" t="s">
         <v>1373</v>
       </c>
-      <c r="B323" s="13" t="s">
+      <c r="C323" s="13" t="s">
         <v>1374</v>
       </c>
-      <c r="C323" s="13" t="s">
+      <c r="D323" s="13" t="s">
         <v>1375</v>
-      </c>
-      <c r="D323" s="13" t="s">
-        <v>1376</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="13" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B324" s="13" t="s">
         <v>1377</v>
       </c>
-      <c r="B324" s="13" t="s">
+      <c r="C324" s="13" t="s">
         <v>1378</v>
       </c>
-      <c r="C324" s="13" t="s">
+      <c r="D324" s="13" t="s">
         <v>1379</v>
-      </c>
-      <c r="D324" s="13" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="13" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B325" s="13" t="s">
         <v>1381</v>
       </c>
-      <c r="B325" s="13" t="s">
+      <c r="C325" s="13" t="s">
         <v>1382</v>
       </c>
-      <c r="C325" s="13" t="s">
+      <c r="D325" s="13" t="s">
         <v>1383</v>
-      </c>
-      <c r="D325" s="13" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="13" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B326" s="13" t="s">
         <v>1385</v>
       </c>
-      <c r="B326" s="13" t="s">
+      <c r="C326" s="13" t="s">
         <v>1386</v>
       </c>
-      <c r="C326" s="13" t="s">
+      <c r="D326" s="13" t="s">
         <v>1387</v>
-      </c>
-      <c r="D326" s="13" t="s">
-        <v>1388</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="13" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B327" s="13" t="s">
         <v>1389</v>
       </c>
-      <c r="B327" s="13" t="s">
+      <c r="C327" s="13" t="s">
         <v>1390</v>
       </c>
-      <c r="C327" s="13" t="s">
+      <c r="D327" s="13" t="s">
         <v>1391</v>
-      </c>
-      <c r="D327" s="13" t="s">
-        <v>1392</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="13" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B328" s="13" t="s">
         <v>1393</v>
       </c>
-      <c r="B328" s="13" t="s">
+      <c r="C328" s="13" t="s">
         <v>1394</v>
       </c>
-      <c r="C328" s="13" t="s">
+      <c r="D328" s="13" t="s">
         <v>1395</v>
-      </c>
-      <c r="D328" s="13" t="s">
-        <v>1396</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="13" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B329" s="13" t="s">
         <v>1397</v>
       </c>
-      <c r="B329" s="13" t="s">
+      <c r="C329" s="13" t="s">
         <v>1398</v>
       </c>
-      <c r="C329" s="13" t="s">
+      <c r="D329" s="13" t="s">
         <v>1399</v>
-      </c>
-      <c r="D329" s="13" t="s">
-        <v>1400</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="13" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B330" s="13" t="s">
         <v>1401</v>
       </c>
-      <c r="B330" s="13" t="s">
+      <c r="C330" s="13" t="s">
         <v>1402</v>
       </c>
-      <c r="C330" s="13" t="s">
+      <c r="D330" s="13" t="s">
         <v>1403</v>
-      </c>
-      <c r="D330" s="13" t="s">
-        <v>1404</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="13" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B331" s="13" t="s">
         <v>1405</v>
       </c>
-      <c r="B331" s="13" t="s">
+      <c r="C331" s="13" t="s">
         <v>1406</v>
       </c>
-      <c r="C331" s="13" t="s">
+      <c r="D331" s="13" t="s">
         <v>1407</v>
-      </c>
-      <c r="D331" s="13" t="s">
-        <v>1408</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="13" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B332" s="13" t="s">
         <v>1409</v>
       </c>
-      <c r="B332" s="13" t="s">
+      <c r="C332" s="13" t="s">
         <v>1410</v>
       </c>
-      <c r="C332" s="13" t="s">
+      <c r="D332" s="13" t="s">
         <v>1411</v>
-      </c>
-      <c r="D332" s="13" t="s">
-        <v>1412</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="13" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B333" s="13" t="s">
         <v>1413</v>
       </c>
-      <c r="B333" s="13" t="s">
+      <c r="C333" s="13" t="s">
         <v>1414</v>
       </c>
-      <c r="C333" s="13" t="s">
+      <c r="D333" s="13" t="s">
         <v>1415</v>
-      </c>
-      <c r="D333" s="13" t="s">
-        <v>1416</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="13" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B334" s="13" t="s">
         <v>1417</v>
       </c>
-      <c r="B334" s="13" t="s">
+      <c r="C334" s="13" t="s">
         <v>1418</v>
       </c>
-      <c r="C334" s="13" t="s">
+      <c r="D334" s="13" t="s">
         <v>1419</v>
-      </c>
-      <c r="D334" s="13" t="s">
-        <v>1420</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="13" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B335" s="13" t="s">
         <v>1421</v>
       </c>
-      <c r="B335" s="13" t="s">
+      <c r="C335" s="13" t="s">
         <v>1422</v>
       </c>
-      <c r="C335" s="13" t="s">
+      <c r="D335" s="13" t="s">
         <v>1423</v>
-      </c>
-      <c r="D335" s="13" t="s">
-        <v>1424</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="13" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B336" s="13" t="s">
         <v>1425</v>
       </c>
-      <c r="B336" s="13" t="s">
+      <c r="C336" s="13" t="s">
         <v>1426</v>
       </c>
-      <c r="C336" s="13" t="s">
+      <c r="D336" s="13" t="s">
         <v>1427</v>
-      </c>
-      <c r="D336" s="13" t="s">
-        <v>1428</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="13" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B337" s="13" t="s">
         <v>1429</v>
       </c>
-      <c r="B337" s="13" t="s">
+      <c r="C337" s="13" t="s">
         <v>1430</v>
       </c>
-      <c r="C337" s="13" t="s">
+      <c r="D337" s="13" t="s">
         <v>1431</v>
-      </c>
-      <c r="D337" s="13" t="s">
-        <v>1432</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="13" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B338" s="13" t="s">
         <v>1433</v>
       </c>
-      <c r="B338" s="13" t="s">
+      <c r="C338" s="13" t="s">
         <v>1434</v>
       </c>
-      <c r="C338" s="13" t="s">
+      <c r="D338" s="13" t="s">
         <v>1435</v>
       </c>
-      <c r="D338" s="13" t="s">
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="13" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="340" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="13" t="s">
+      <c r="B339" s="13" t="s">
         <v>1437</v>
       </c>
-      <c r="B340" s="13" t="s">
+      <c r="C339" s="13" t="s">
         <v>1438</v>
       </c>
-      <c r="C340" s="14" t="s">
+      <c r="D339" s="13" t="s">
         <v>1439</v>
-      </c>
-      <c r="D340" s="14" t="s">
-        <v>1440</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="13" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B341" s="13" t="s">
         <v>1441</v>
       </c>
-      <c r="B341" s="13" t="s">
+      <c r="C341" s="14" t="s">
         <v>1442</v>
       </c>
-      <c r="C341" s="14" t="s">
+      <c r="D341" s="14" t="s">
         <v>1443</v>
-      </c>
-      <c r="D341" s="14" t="s">
-        <v>1444</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="13" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B342" s="13" t="s">
         <v>1445</v>
       </c>
-      <c r="B342" s="13" t="s">
+      <c r="C342" s="14" t="s">
         <v>1446</v>
       </c>
-      <c r="C342" s="14" t="s">
+      <c r="D342" s="14" t="s">
         <v>1447</v>
       </c>
-      <c r="D342" s="14" t="s">
+    </row>
+    <row r="343" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="13" t="s">
         <v>1448</v>
       </c>
-    </row>
-    <row r="343" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="13" t="s">
+      <c r="B343" s="13" t="s">
         <v>1449</v>
       </c>
-      <c r="B343" s="13" t="s">
+      <c r="C343" s="14" t="s">
         <v>1450</v>
       </c>
-      <c r="C343" s="14" t="s">
+      <c r="D343" s="14" t="s">
         <v>1451</v>
-      </c>
-      <c r="D343" s="14" t="s">
-        <v>1452</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="13" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B344" s="13" t="s">
         <v>1453</v>
       </c>
-      <c r="B344" s="13" t="s">
+      <c r="C344" s="14" t="s">
         <v>1454</v>
       </c>
-      <c r="C344" s="14" t="s">
+      <c r="D344" s="14" t="s">
         <v>1455</v>
       </c>
-      <c r="D344" s="14" t="s">
+    </row>
+    <row r="345" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="13" t="s">
         <v>1456</v>
       </c>
-    </row>
-    <row r="345" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="13" t="s">
+      <c r="B345" s="13" t="s">
         <v>1457</v>
       </c>
-      <c r="B345" s="13" t="s">
+      <c r="C345" s="14" t="s">
         <v>1458</v>
       </c>
-      <c r="C345" s="14" t="s">
+      <c r="D345" s="14" t="s">
         <v>1459</v>
-      </c>
-      <c r="D345" s="14" t="s">
-        <v>1460</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="13" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B346" s="13" t="s">
         <v>1461</v>
       </c>
-      <c r="B346" s="13" t="s">
+      <c r="C346" s="14" t="s">
         <v>1462</v>
       </c>
-      <c r="C346" s="14" t="s">
+      <c r="D346" s="14" t="s">
         <v>1463</v>
-      </c>
-      <c r="D346" s="14" t="s">
-        <v>1464</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="13" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B347" s="13" t="s">
         <v>1465</v>
       </c>
-      <c r="B347" s="13" t="s">
+      <c r="C347" s="14" t="s">
         <v>1466</v>
       </c>
-      <c r="C347" s="14" t="s">
+      <c r="D347" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="D347" s="14" t="s">
+    </row>
+    <row r="348" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="13" t="s">
         <v>1468</v>
       </c>
-    </row>
-    <row r="348" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="13" t="s">
+      <c r="B348" s="13" t="s">
         <v>1469</v>
       </c>
-      <c r="B348" s="13" t="s">
+      <c r="C348" s="14" t="s">
         <v>1470</v>
       </c>
-      <c r="C348" s="14" t="s">
+      <c r="D348" s="14" t="s">
         <v>1471</v>
       </c>
-      <c r="D348" s="14" t="s">
+    </row>
+    <row r="349" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="13" t="s">
         <v>1472</v>
       </c>
-    </row>
-    <row r="349" customFormat="false" ht="16.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A349" s="13" t="s">
+      <c r="B349" s="13" t="s">
         <v>1473</v>
       </c>
-      <c r="B349" s="16" t="s">
+      <c r="C349" s="14" t="s">
         <v>1474</v>
       </c>
-      <c r="C349" s="14" t="s">
+      <c r="D349" s="14" t="s">
         <v>1475</v>
       </c>
-      <c r="D349" s="14" t="s">
+    </row>
+    <row r="350" customFormat="false" ht="16.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A350" s="13" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="13" t="s">
+      <c r="B350" s="16" t="s">
         <v>1477</v>
       </c>
-      <c r="B350" s="13" t="s">
+      <c r="C350" s="14" t="s">
         <v>1478</v>
       </c>
-      <c r="C350" s="13" t="s">
+      <c r="D350" s="14" t="s">
         <v>1479</v>
-      </c>
-      <c r="D350" s="13" t="s">
-        <v>1480</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="13" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B351" s="13" t="s">
         <v>1481</v>
       </c>
-      <c r="B351" s="13" t="s">
+      <c r="C351" s="13" t="s">
         <v>1482</v>
       </c>
-      <c r="C351" s="13" t="s">
+      <c r="D351" s="13" t="s">
         <v>1483</v>
       </c>
-      <c r="D351" s="13" t="s">
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="13" t="s">
         <v>1484</v>
       </c>
-    </row>
-    <row r="352" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="13" t="s">
+      <c r="B352" s="13" t="s">
         <v>1485</v>
       </c>
-      <c r="B352" s="13" t="s">
+      <c r="C352" s="13" t="s">
         <v>1486</v>
       </c>
-      <c r="C352" s="14" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D352" s="14" t="s">
-        <v>1085</v>
+      <c r="D352" s="13" t="s">
+        <v>1487</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="13" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="B353" s="13" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="C353" s="14" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D353" s="14" t="s">
         <v>1088</v>
-      </c>
-      <c r="D353" s="14" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="13" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="B354" s="13" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="C354" s="14" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D354" s="14" t="s">
         <v>1092</v>
       </c>
-      <c r="D354" s="14" t="s">
-        <v>1093</v>
+    </row>
+    <row r="355" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="13" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B355" s="13" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C355" s="14" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D355" s="14" t="s">
+        <v>1096</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:D1 B250:D258 B262:D262 B265:D290 B350:B1048576 C69:D211 C224:D224 C248:D339 D355:D1048576 C350:D351 C226:D229 C353:C1048576 B1:B348 C218:D221 C238:D238 C1:D64 C245:C246">
+  <conditionalFormatting sqref="B1:D1 B251:D259 B263:D263 B266:D291 B351:B1048576 C69:D212 C225:D225 C249:D340 D356:D1048576 C351:D352 C227:D230 C354:C1048576 B1:B349 C219:D222 C239:D239 C1:D64 C246:C247">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
